--- a/Excel Data/Accounts.xlsx
+++ b/Excel Data/Accounts.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xcelliti4\IdeaProjects\Retail Ops\Excel Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Selenium Workspace Functional Testing\Retail Ops\Excel Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -991,7 +991,7 @@
   <dimension ref="A1:AF98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E84" sqref="E84"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Excel Data/Accounts.xlsx
+++ b/Excel Data/Accounts.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1013,8 +1013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH100"/>
   <sheetViews>
-    <sheetView topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7156,8 +7156,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Excel Data/Accounts.xlsx
+++ b/Excel Data/Accounts.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1261" uniqueCount="56">
   <si>
     <t>CATEGORY</t>
   </si>
@@ -1011,10 +1011,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH100"/>
+  <dimension ref="A1:AI100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G2" sqref="G2:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1023,32 +1023,33 @@
     <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="42.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="19" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="17" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="42.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="19" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="17" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>46</v>
       </c>
@@ -1061,80 +1062,83 @@
       <c r="D1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="K1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -1142,32 +1146,34 @@
         <v>1</v>
       </c>
       <c r="E2" s="4">
+        <v>17705229</v>
+      </c>
+      <c r="F2" s="4">
         <v>118448</v>
       </c>
-      <c r="F2" s="4">
-        <v>1005</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>45</v>
+      <c r="G2" s="4">
+        <v>1010</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2">
+      <c r="J2" s="2"/>
+      <c r="K2" s="2">
         <v>20220527</v>
       </c>
-      <c r="K2" s="2">
-        <v>1003114040</v>
-      </c>
       <c r="L2" s="2">
+        <v>1003114040</v>
+      </c>
+      <c r="M2" s="2">
         <v>17139</v>
       </c>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
@@ -1176,25 +1182,26 @@
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
-      <c r="X2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y2" s="2">
-        <v>4220180000000</v>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="Z2" s="2">
-        <v>4</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>36</v>
+        <v>4220180000000</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>4</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC2" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="AD2" s="3"/>
-    </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE2" s="3"/>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -1202,32 +1209,34 @@
         <v>2</v>
       </c>
       <c r="E3" s="4">
+        <v>17705237</v>
+      </c>
+      <c r="F3" s="4">
         <v>118450</v>
       </c>
-      <c r="F3" s="4">
-        <v>1005</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="4">
+        <v>1003</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2">
+      <c r="J3" s="2"/>
+      <c r="K3" s="2">
         <v>20210903</v>
       </c>
-      <c r="K3" s="2">
-        <v>1003114040</v>
-      </c>
       <c r="L3" s="2">
+        <v>1003114040</v>
+      </c>
+      <c r="M3" s="2">
         <v>30162</v>
       </c>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
@@ -1236,25 +1245,26 @@
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
-      <c r="X3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y3" s="2">
-        <v>4220180000000</v>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="Z3" s="2">
-        <v>4</v>
-      </c>
-      <c r="AA3" s="2" t="s">
-        <v>36</v>
+        <v>4220180000000</v>
+      </c>
+      <c r="AA3" s="2">
+        <v>4</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC3" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="AD3" s="3"/>
-    </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE3" s="3"/>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -1262,30 +1272,32 @@
         <v>3</v>
       </c>
       <c r="E4" s="4">
+        <v>17705231</v>
+      </c>
+      <c r="F4" s="4">
         <v>118451</v>
       </c>
-      <c r="F4" s="4">
-        <v>1005</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>45</v>
+      <c r="G4" s="4">
+        <v>1007</v>
       </c>
       <c r="H4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2">
+      <c r="J4" s="2"/>
+      <c r="K4" s="2">
         <v>20191125</v>
       </c>
-      <c r="K4" s="2">
-        <v>1003114040</v>
-      </c>
-      <c r="L4" s="2"/>
+      <c r="L4" s="2">
+        <v>1003114040</v>
+      </c>
       <c r="M4" s="2"/>
-      <c r="N4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
@@ -1294,25 +1306,26 @@
       <c r="U4" s="2"/>
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
-      <c r="X4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y4" s="2">
-        <v>4220180000000</v>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="Z4" s="2">
-        <v>4</v>
-      </c>
-      <c r="AA4" s="2" t="s">
-        <v>36</v>
+        <v>4220180000000</v>
+      </c>
+      <c r="AA4" s="2">
+        <v>4</v>
       </c>
       <c r="AB4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC4" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="AC4" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="AD4" s="3"/>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE4" s="3"/>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -1320,32 +1333,34 @@
         <v>4</v>
       </c>
       <c r="E5" s="4">
+        <v>17705232</v>
+      </c>
+      <c r="F5" s="4">
         <v>118451</v>
       </c>
-      <c r="F5" s="4">
-        <v>1005</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>44</v>
+      <c r="G5" s="4">
+        <v>1010</v>
       </c>
       <c r="H5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2">
+      <c r="J5" s="2"/>
+      <c r="K5" s="2">
         <v>20220628</v>
       </c>
-      <c r="K5" s="2">
-        <v>1003114040</v>
-      </c>
       <c r="L5" s="2">
+        <v>1003114040</v>
+      </c>
+      <c r="M5" s="2">
         <v>25418</v>
       </c>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
@@ -1354,25 +1369,26 @@
       <c r="U5" s="2"/>
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
-      <c r="X5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y5" s="2">
-        <v>4220180000000</v>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="Z5" s="2">
-        <v>4</v>
-      </c>
-      <c r="AA5" s="2" t="s">
-        <v>36</v>
+        <v>4220180000000</v>
+      </c>
+      <c r="AA5" s="2">
+        <v>4</v>
       </c>
       <c r="AB5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC5" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="AC5" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="AD5" s="3"/>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE5" s="3"/>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -1380,30 +1396,32 @@
         <v>5</v>
       </c>
       <c r="E6" s="4">
+        <v>17705233</v>
+      </c>
+      <c r="F6" s="4">
         <v>118452</v>
       </c>
-      <c r="F6" s="4">
-        <v>1005</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>44</v>
+      <c r="G6" s="4">
+        <v>1011</v>
       </c>
       <c r="H6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2">
+      <c r="J6" s="2"/>
+      <c r="K6" s="2">
         <v>20220912</v>
       </c>
-      <c r="K6" s="2">
-        <v>1003114040</v>
-      </c>
-      <c r="L6" s="2"/>
+      <c r="L6" s="2">
+        <v>1003114040</v>
+      </c>
       <c r="M6" s="2"/>
-      <c r="N6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
@@ -1412,53 +1430,53 @@
       <c r="U6" s="2"/>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
-      <c r="X6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y6" s="2">
-        <v>4220180000000</v>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="Z6" s="2">
-        <v>4</v>
-      </c>
-      <c r="AA6" s="2" t="s">
-        <v>36</v>
+        <v>4220180000000</v>
+      </c>
+      <c r="AA6" s="2">
+        <v>4</v>
       </c>
       <c r="AB6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC6" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="AC6" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="AD6" s="3"/>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE6" s="3"/>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="D7" s="3">
         <v>6</v>
       </c>
       <c r="E7" s="4">
+        <v>17705234</v>
+      </c>
+      <c r="F7" s="4">
         <v>118452</v>
       </c>
-      <c r="F7" s="4">
-        <v>1005</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="H7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2">
+      <c r="J7" s="2"/>
+      <c r="K7" s="2">
         <v>20201126</v>
       </c>
-      <c r="K7" s="2">
-        <v>1003114040</v>
-      </c>
-      <c r="L7" s="2"/>
+      <c r="L7" s="2">
+        <v>1003114040</v>
+      </c>
       <c r="M7" s="2"/>
-      <c r="N7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
@@ -1467,55 +1485,55 @@
       <c r="U7" s="2"/>
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
-      <c r="X7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y7" s="2">
-        <v>4220180000000</v>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="Z7" s="2">
-        <v>4</v>
-      </c>
-      <c r="AA7" s="2" t="s">
-        <v>36</v>
+        <v>4220180000000</v>
+      </c>
+      <c r="AA7" s="2">
+        <v>4</v>
       </c>
       <c r="AB7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC7" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="AC7" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="AD7" s="3"/>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE7" s="3"/>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="D8" s="3">
         <v>7</v>
       </c>
       <c r="E8" s="4">
+        <v>17705235</v>
+      </c>
+      <c r="F8" s="4">
         <v>118452</v>
       </c>
-      <c r="F8" s="4">
-        <v>1005</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1">
+      <c r="J8" s="1"/>
+      <c r="K8" s="1">
         <v>20211029</v>
       </c>
-      <c r="K8" s="2">
-        <v>1003114040</v>
-      </c>
-      <c r="L8" s="1">
+      <c r="L8" s="2">
+        <v>1003114040</v>
+      </c>
+      <c r="M8" s="1">
         <v>31970</v>
       </c>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
@@ -1524,55 +1542,58 @@
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
-      <c r="X8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y8" s="2">
-        <v>4220180000000</v>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="Z8" s="2">
-        <v>4</v>
-      </c>
-      <c r="AA8" s="2" t="s">
-        <v>36</v>
+        <v>4220180000000</v>
+      </c>
+      <c r="AA8" s="2">
+        <v>4</v>
       </c>
       <c r="AB8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC8" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="AC8" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="AD8" s="3"/>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE8" s="3"/>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="D9" s="3">
         <v>8</v>
       </c>
       <c r="E9" s="4">
+        <v>17705242</v>
+      </c>
+      <c r="F9" s="4">
         <v>118452</v>
       </c>
-      <c r="F9" s="4">
-        <v>1005</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>23</v>
+      <c r="G9" s="4">
+        <v>6005</v>
       </c>
       <c r="H9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2">
+      <c r="J9" s="2"/>
+      <c r="K9" s="2">
         <v>20220823</v>
       </c>
-      <c r="K9" s="2">
-        <v>1003114040</v>
-      </c>
       <c r="L9" s="2">
+        <v>1003114040</v>
+      </c>
+      <c r="M9" s="2">
         <v>26163</v>
       </c>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
@@ -1581,55 +1602,58 @@
       <c r="U9" s="2"/>
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
-      <c r="X9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y9" s="2">
-        <v>4220180000000</v>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="Z9" s="2">
-        <v>4</v>
-      </c>
-      <c r="AA9" s="2" t="s">
-        <v>36</v>
+        <v>4220180000000</v>
+      </c>
+      <c r="AA9" s="2">
+        <v>4</v>
       </c>
       <c r="AB9" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC9" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="AC9" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="AD9" s="3"/>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE9" s="3"/>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="D10" s="3">
         <v>9</v>
       </c>
       <c r="E10" s="4">
+        <v>17705237</v>
+      </c>
+      <c r="F10" s="4">
         <v>118452</v>
       </c>
-      <c r="F10" s="4">
-        <v>1005</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>23</v>
+      <c r="G10" s="4">
+        <v>1003</v>
       </c>
       <c r="H10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2">
+      <c r="J10" s="2"/>
+      <c r="K10" s="2">
         <v>20220527</v>
       </c>
-      <c r="K10" s="2">
-        <v>1003114040</v>
-      </c>
       <c r="L10" s="2">
+        <v>1003114040</v>
+      </c>
+      <c r="M10" s="2">
         <v>17139</v>
       </c>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
@@ -1638,55 +1662,58 @@
       <c r="U10" s="2"/>
       <c r="V10" s="2"/>
       <c r="W10" s="2"/>
-      <c r="X10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y10" s="2">
-        <v>4220180000000</v>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="Z10" s="2">
-        <v>4</v>
-      </c>
-      <c r="AA10" s="2" t="s">
-        <v>36</v>
+        <v>4220180000000</v>
+      </c>
+      <c r="AA10" s="2">
+        <v>4</v>
       </c>
       <c r="AB10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC10" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="AC10" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="AD10" s="3"/>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE10" s="3"/>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="D11" s="3">
         <v>10</v>
       </c>
       <c r="E11" s="4">
+        <v>17705238</v>
+      </c>
+      <c r="F11" s="4">
         <v>118452</v>
       </c>
-      <c r="F11" s="4">
-        <v>1005</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>23</v>
+      <c r="G11" s="4">
+        <v>1033</v>
       </c>
       <c r="H11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I11" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2">
+      <c r="J11" s="2"/>
+      <c r="K11" s="2">
         <v>20220628</v>
       </c>
-      <c r="K11" s="2">
-        <v>1003114040</v>
-      </c>
       <c r="L11" s="2">
+        <v>1003114040</v>
+      </c>
+      <c r="M11" s="2">
         <v>25418</v>
       </c>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
@@ -1695,55 +1722,55 @@
       <c r="U11" s="2"/>
       <c r="V11" s="2"/>
       <c r="W11" s="2"/>
-      <c r="X11" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y11" s="2">
-        <v>4220180000000</v>
+      <c r="X11" s="2"/>
+      <c r="Y11" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="Z11" s="2">
-        <v>4</v>
-      </c>
-      <c r="AA11" s="2" t="s">
-        <v>36</v>
+        <v>4220180000000</v>
+      </c>
+      <c r="AA11" s="2">
+        <v>4</v>
       </c>
       <c r="AB11" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC11" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="AC11" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="D12" s="3">
         <v>11</v>
       </c>
-      <c r="E12" s="4">
+      <c r="F12" s="4">
         <v>118452</v>
       </c>
-      <c r="F12" s="4">
+      <c r="G12" s="4">
         <v>1001</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="H12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2">
+      <c r="J12" s="2"/>
+      <c r="K12" s="2">
         <v>20211231</v>
       </c>
-      <c r="K12" s="2">
-        <v>1003114040</v>
-      </c>
       <c r="L12" s="2">
+        <v>1003114040</v>
+      </c>
+      <c r="M12" s="2">
         <v>18676</v>
       </c>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
@@ -1752,53 +1779,53 @@
       <c r="U12" s="2"/>
       <c r="V12" s="2"/>
       <c r="W12" s="2"/>
-      <c r="X12" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y12" s="2">
-        <v>4220180000000</v>
+      <c r="X12" s="2"/>
+      <c r="Y12" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="Z12" s="2">
-        <v>4</v>
-      </c>
-      <c r="AA12" s="2" t="s">
-        <v>36</v>
+        <v>4220180000000</v>
+      </c>
+      <c r="AA12" s="2">
+        <v>4</v>
       </c>
       <c r="AB12" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC12" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="AC12" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="AD12" s="3"/>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE12" s="3"/>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="D13" s="3">
         <v>12</v>
       </c>
-      <c r="E13" s="4">
+      <c r="F13" s="4">
         <v>118452</v>
       </c>
-      <c r="F13" s="4">
+      <c r="G13" s="4">
         <v>1150</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="H13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2">
+      <c r="J13" s="2"/>
+      <c r="K13" s="2">
         <v>20211006</v>
       </c>
-      <c r="K13" s="2">
-        <v>1003114040</v>
-      </c>
-      <c r="L13" s="2"/>
+      <c r="L13" s="2">
+        <v>1003114040</v>
+      </c>
       <c r="M13" s="2"/>
-      <c r="N13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
@@ -1807,55 +1834,55 @@
       <c r="U13" s="2"/>
       <c r="V13" s="2"/>
       <c r="W13" s="2"/>
-      <c r="X13" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y13" s="2">
-        <v>4220180000000</v>
+      <c r="X13" s="2"/>
+      <c r="Y13" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="Z13" s="2">
-        <v>4</v>
-      </c>
-      <c r="AA13" s="2" t="s">
-        <v>36</v>
+        <v>4220180000000</v>
+      </c>
+      <c r="AA13" s="2">
+        <v>4</v>
       </c>
       <c r="AB13" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC13" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="AC13" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="AD13" s="3"/>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE13" s="3"/>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="D14" s="3">
         <v>13</v>
       </c>
-      <c r="E14" s="4">
+      <c r="F14" s="4">
         <v>118453</v>
       </c>
-      <c r="F14" s="4">
+      <c r="G14" s="4">
         <v>1001</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="H14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2">
+      <c r="J14" s="2"/>
+      <c r="K14" s="2">
         <v>20220423</v>
       </c>
-      <c r="K14" s="2">
-        <v>1003114040</v>
-      </c>
       <c r="L14" s="2">
+        <v>1003114040</v>
+      </c>
+      <c r="M14" s="2">
         <v>2343</v>
       </c>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
@@ -1864,55 +1891,55 @@
       <c r="U14" s="2"/>
       <c r="V14" s="2"/>
       <c r="W14" s="2"/>
-      <c r="X14" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y14" s="2">
-        <v>4220180000000</v>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="Z14" s="2">
-        <v>4</v>
-      </c>
-      <c r="AA14" s="2" t="s">
-        <v>36</v>
+        <v>4220180000000</v>
+      </c>
+      <c r="AA14" s="2">
+        <v>4</v>
       </c>
       <c r="AB14" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC14" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="AC14" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="AD14" s="3"/>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE14" s="3"/>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="D15" s="3">
         <v>14</v>
       </c>
-      <c r="E15" s="4">
+      <c r="F15" s="4">
         <v>118455</v>
       </c>
-      <c r="F15" s="4">
+      <c r="G15" s="4">
         <v>1017</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="H15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I15" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2">
+      <c r="J15" s="2"/>
+      <c r="K15" s="2">
         <v>20200114</v>
       </c>
-      <c r="K15" s="2">
-        <v>1003114040</v>
-      </c>
       <c r="L15" s="2">
+        <v>1003114040</v>
+      </c>
+      <c r="M15" s="2">
         <v>17461</v>
       </c>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
@@ -1921,55 +1948,55 @@
       <c r="U15" s="2"/>
       <c r="V15" s="2"/>
       <c r="W15" s="2"/>
-      <c r="X15" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y15" s="2">
-        <v>4220180000000</v>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="Z15" s="2">
-        <v>4</v>
-      </c>
-      <c r="AA15" s="2" t="s">
-        <v>36</v>
+        <v>4220180000000</v>
+      </c>
+      <c r="AA15" s="2">
+        <v>4</v>
       </c>
       <c r="AB15" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC15" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="AC15" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="AD15" s="3"/>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE15" s="3"/>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="D16" s="3">
         <v>15</v>
       </c>
-      <c r="E16" s="4">
+      <c r="F16" s="4">
         <v>118455</v>
       </c>
-      <c r="F16" s="4">
+      <c r="G16" s="4">
         <v>6018</v>
       </c>
-      <c r="G16" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="H16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I16" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2">
+      <c r="J16" s="2"/>
+      <c r="K16" s="2">
         <v>20211029</v>
       </c>
-      <c r="K16" s="2">
-        <v>1003114040</v>
-      </c>
       <c r="L16" s="2">
+        <v>1003114040</v>
+      </c>
+      <c r="M16" s="2">
         <v>31970</v>
       </c>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
@@ -1978,55 +2005,55 @@
       <c r="U16" s="2"/>
       <c r="V16" s="2"/>
       <c r="W16" s="2"/>
-      <c r="X16" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y16" s="2">
-        <v>4220180000000</v>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="Z16" s="2">
-        <v>4</v>
-      </c>
-      <c r="AA16" s="2" t="s">
-        <v>36</v>
+        <v>4220180000000</v>
+      </c>
+      <c r="AA16" s="2">
+        <v>4</v>
       </c>
       <c r="AB16" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC16" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="AC16" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D17" s="3">
         <v>16</v>
       </c>
-      <c r="E17" s="4">
+      <c r="F17" s="4">
         <v>118458</v>
       </c>
-      <c r="F17" s="4">
+      <c r="G17" s="4">
         <v>6001</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="H17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2">
+      <c r="J17" s="2"/>
+      <c r="K17" s="2">
         <v>20211231</v>
       </c>
-      <c r="K17" s="2">
-        <v>1003114040</v>
-      </c>
       <c r="L17" s="2">
+        <v>1003114040</v>
+      </c>
+      <c r="M17" s="2">
         <v>18676</v>
       </c>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
@@ -2035,53 +2062,53 @@
       <c r="U17" s="2"/>
       <c r="V17" s="2"/>
       <c r="W17" s="2"/>
-      <c r="X17" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y17" s="2">
-        <v>4220180000000</v>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="Z17" s="2">
-        <v>4</v>
-      </c>
-      <c r="AA17" s="2" t="s">
-        <v>36</v>
+        <v>4220180000000</v>
+      </c>
+      <c r="AA17" s="2">
+        <v>4</v>
       </c>
       <c r="AB17" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC17" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="AC17" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="AD17" s="3"/>
-    </row>
-    <row r="18" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="AE17" s="3"/>
+    </row>
+    <row r="18" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D18" s="3">
         <v>17</v>
       </c>
-      <c r="E18" s="4">
+      <c r="F18" s="4">
         <v>118458</v>
       </c>
-      <c r="F18" s="4">
+      <c r="G18" s="4">
         <v>6001</v>
       </c>
-      <c r="G18" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="H18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I18" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2">
+      <c r="J18" s="2"/>
+      <c r="K18" s="2">
         <v>20211006</v>
       </c>
-      <c r="K18" s="2">
-        <v>1003114040</v>
-      </c>
-      <c r="L18" s="2"/>
+      <c r="L18" s="2">
+        <v>1003114040</v>
+      </c>
       <c r="M18" s="2"/>
-      <c r="N18" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
@@ -2090,55 +2117,55 @@
       <c r="U18" s="2"/>
       <c r="V18" s="2"/>
       <c r="W18" s="2"/>
-      <c r="X18" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y18" s="2">
-        <v>4220180000000</v>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="Z18" s="2">
-        <v>4</v>
-      </c>
-      <c r="AA18" s="2" t="s">
-        <v>36</v>
+        <v>4220180000000</v>
+      </c>
+      <c r="AA18" s="2">
+        <v>4</v>
       </c>
       <c r="AB18" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC18" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="AC18" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="AD18" s="3"/>
-    </row>
-    <row r="19" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="AE18" s="3"/>
+    </row>
+    <row r="19" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D19" s="3">
         <v>18</v>
       </c>
-      <c r="E19" s="4">
+      <c r="F19" s="4">
         <v>118458</v>
       </c>
-      <c r="F19" s="4">
+      <c r="G19" s="4">
         <v>1037</v>
       </c>
-      <c r="G19" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="H19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2">
+      <c r="J19" s="2"/>
+      <c r="K19" s="2">
         <v>20220423</v>
       </c>
-      <c r="K19" s="2">
-        <v>1003114040</v>
-      </c>
       <c r="L19" s="2">
+        <v>1003114040</v>
+      </c>
+      <c r="M19" s="2">
         <v>2343</v>
       </c>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
@@ -2147,55 +2174,55 @@
       <c r="U19" s="2"/>
       <c r="V19" s="2"/>
       <c r="W19" s="2"/>
-      <c r="X19" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y19" s="2">
-        <v>4220180000000</v>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="Z19" s="2">
-        <v>4</v>
-      </c>
-      <c r="AA19" s="2" t="s">
-        <v>36</v>
+        <v>4220180000000</v>
+      </c>
+      <c r="AA19" s="2">
+        <v>4</v>
       </c>
       <c r="AB19" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC19" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="AC19" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D20" s="3">
         <v>19</v>
       </c>
-      <c r="E20" s="4">
+      <c r="F20" s="4">
         <v>118486</v>
       </c>
-      <c r="F20" s="4">
+      <c r="G20" s="4">
         <v>6025</v>
       </c>
-      <c r="G20" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="H20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I20" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2">
+      <c r="J20" s="2"/>
+      <c r="K20" s="2">
         <v>20200114</v>
       </c>
-      <c r="K20" s="2">
-        <v>1003114040</v>
-      </c>
       <c r="L20" s="2">
+        <v>1003114040</v>
+      </c>
+      <c r="M20" s="2">
         <v>17461</v>
       </c>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
@@ -2204,55 +2231,55 @@
       <c r="U20" s="2"/>
       <c r="V20" s="2"/>
       <c r="W20" s="2"/>
-      <c r="X20" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y20" s="2">
-        <v>4220180000000</v>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="Z20" s="2">
-        <v>4</v>
-      </c>
-      <c r="AA20" s="2" t="s">
-        <v>36</v>
+        <v>4220180000000</v>
+      </c>
+      <c r="AA20" s="2">
+        <v>4</v>
       </c>
       <c r="AB20" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC20" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="AC20" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="AD20" s="3"/>
-    </row>
-    <row r="21" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="AE20" s="3"/>
+    </row>
+    <row r="21" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D21" s="3">
         <v>20</v>
       </c>
-      <c r="E21" s="4">
+      <c r="F21" s="4">
         <v>118487</v>
       </c>
-      <c r="F21" s="4">
+      <c r="G21" s="4">
         <v>1035</v>
       </c>
-      <c r="G21" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="H21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I21" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2">
+      <c r="J21" s="2"/>
+      <c r="K21" s="2">
         <v>20220728</v>
       </c>
-      <c r="K21" s="2">
-        <v>1003114040</v>
-      </c>
       <c r="L21" s="2">
+        <v>1003114040</v>
+      </c>
+      <c r="M21" s="2">
         <v>24890</v>
       </c>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
@@ -2261,55 +2288,55 @@
       <c r="U21" s="2"/>
       <c r="V21" s="2"/>
       <c r="W21" s="2"/>
-      <c r="X21" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y21" s="2">
-        <v>4220180000000</v>
+      <c r="X21" s="2"/>
+      <c r="Y21" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="Z21" s="2">
-        <v>4</v>
-      </c>
-      <c r="AA21" s="2" t="s">
-        <v>36</v>
+        <v>4220180000000</v>
+      </c>
+      <c r="AA21" s="2">
+        <v>4</v>
       </c>
       <c r="AB21" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC21" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="AC21" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="AD21" s="3"/>
-    </row>
-    <row r="22" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="AE21" s="3"/>
+    </row>
+    <row r="22" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D22" s="3">
         <v>21</v>
       </c>
-      <c r="E22" s="4">
+      <c r="F22" s="4">
         <v>118489</v>
       </c>
-      <c r="F22" s="4">
+      <c r="G22" s="4">
         <v>1150</v>
       </c>
-      <c r="G22" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="H22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I22" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2">
+      <c r="J22" s="2"/>
+      <c r="K22" s="2">
         <v>20210903</v>
       </c>
-      <c r="K22" s="2">
-        <v>1003114040</v>
-      </c>
       <c r="L22" s="2">
+        <v>1003114040</v>
+      </c>
+      <c r="M22" s="2">
         <v>30162</v>
       </c>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
@@ -2318,53 +2345,53 @@
       <c r="U22" s="2"/>
       <c r="V22" s="2"/>
       <c r="W22" s="2"/>
-      <c r="X22" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y22" s="2">
-        <v>4220180000000</v>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="Z22" s="2">
-        <v>4</v>
-      </c>
-      <c r="AA22" s="2" t="s">
-        <v>36</v>
+        <v>4220180000000</v>
+      </c>
+      <c r="AA22" s="2">
+        <v>4</v>
       </c>
       <c r="AB22" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC22" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="AC22" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="AD22" s="3"/>
-    </row>
-    <row r="23" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="AE22" s="3"/>
+    </row>
+    <row r="23" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D23" s="3">
         <v>22</v>
       </c>
-      <c r="E23" s="4">
+      <c r="F23" s="4">
         <v>118490</v>
       </c>
-      <c r="F23" s="4">
+      <c r="G23" s="4">
         <v>1001</v>
       </c>
-      <c r="G23" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="H23" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I23" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2">
+      <c r="J23" s="2"/>
+      <c r="K23" s="2">
         <v>20191125</v>
       </c>
-      <c r="K23" s="2">
-        <v>1003114040</v>
-      </c>
-      <c r="L23" s="2"/>
+      <c r="L23" s="2">
+        <v>1003114040</v>
+      </c>
       <c r="M23" s="2"/>
-      <c r="N23" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
       <c r="R23" s="2"/>
@@ -2373,116 +2400,116 @@
       <c r="U23" s="2"/>
       <c r="V23" s="2"/>
       <c r="W23" s="2"/>
-      <c r="X23" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y23" s="2">
-        <v>4220180000000</v>
+      <c r="X23" s="2"/>
+      <c r="Y23" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="Z23" s="2">
-        <v>4</v>
-      </c>
-      <c r="AA23" s="2" t="s">
-        <v>36</v>
+        <v>4220180000000</v>
+      </c>
+      <c r="AA23" s="2">
+        <v>4</v>
       </c>
       <c r="AB23" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC23" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="AC23" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="AD23" s="3"/>
-    </row>
-    <row r="24" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="AE23" s="3"/>
+    </row>
+    <row r="24" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D24" s="3">
         <v>23</v>
       </c>
-      <c r="E24" s="4">
+      <c r="F24" s="4">
         <v>118491</v>
       </c>
-      <c r="F24" s="4">
+      <c r="G24" s="4">
         <v>1001</v>
       </c>
-      <c r="G24" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="H24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I24" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2">
+      <c r="J24" s="2"/>
+      <c r="K24" s="2">
         <v>20210716</v>
       </c>
-      <c r="K24" s="2">
-        <v>1003114040</v>
-      </c>
-      <c r="L24" s="2"/>
+      <c r="L24" s="2">
+        <v>1003114040</v>
+      </c>
       <c r="M24" s="2"/>
-      <c r="N24" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
       <c r="R24" s="2"/>
-      <c r="S24" s="2" t="s">
+      <c r="S24" s="2"/>
+      <c r="T24" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="T24" s="2" t="s">
+      <c r="U24" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="U24" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="V24" s="2"/>
-      <c r="W24" s="2">
+      <c r="V24" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="W24" s="2"/>
+      <c r="X24" s="2">
         <v>20910304</v>
       </c>
-      <c r="X24" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y24" s="2">
-        <v>4220180000000</v>
+      <c r="Y24" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="Z24" s="2">
-        <v>4</v>
-      </c>
-      <c r="AA24" s="2" t="s">
-        <v>36</v>
+        <v>4220180000000</v>
+      </c>
+      <c r="AA24" s="2">
+        <v>4</v>
       </c>
       <c r="AB24" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC24" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="AC24" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="AD24" s="3"/>
-    </row>
-    <row r="25" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="AE24" s="3"/>
+    </row>
+    <row r="25" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D25" s="3">
         <v>24</v>
       </c>
-      <c r="E25" s="4">
+      <c r="F25" s="4">
         <v>118493</v>
       </c>
-      <c r="F25" s="4">
+      <c r="G25" s="4">
         <v>1001</v>
       </c>
-      <c r="G25" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="H25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I25" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2">
+      <c r="J25" s="2"/>
+      <c r="K25" s="2">
         <v>20220912</v>
       </c>
-      <c r="K25" s="2">
-        <v>1003114040</v>
-      </c>
-      <c r="L25" s="2"/>
+      <c r="L25" s="2">
+        <v>1003114040</v>
+      </c>
       <c r="M25" s="2"/>
-      <c r="N25" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
       <c r="R25" s="2"/>
@@ -2491,53 +2518,53 @@
       <c r="U25" s="2"/>
       <c r="V25" s="2"/>
       <c r="W25" s="2"/>
-      <c r="X25" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y25" s="2">
-        <v>4220180000000</v>
+      <c r="X25" s="2"/>
+      <c r="Y25" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="Z25" s="2">
-        <v>4</v>
-      </c>
-      <c r="AA25" s="2" t="s">
-        <v>36</v>
+        <v>4220180000000</v>
+      </c>
+      <c r="AA25" s="2">
+        <v>4</v>
       </c>
       <c r="AB25" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC25" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="AC25" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="AD25" s="3"/>
-    </row>
-    <row r="26" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="AE25" s="3"/>
+    </row>
+    <row r="26" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D26" s="3">
         <v>25</v>
       </c>
-      <c r="E26" s="4">
+      <c r="F26" s="4">
         <v>118494</v>
       </c>
-      <c r="F26" s="4">
+      <c r="G26" s="4">
         <v>1001</v>
       </c>
-      <c r="G26" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="H26" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I26" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2">
+      <c r="J26" s="2"/>
+      <c r="K26" s="2">
         <v>20201126</v>
       </c>
-      <c r="K26" s="2">
-        <v>1003114040</v>
-      </c>
-      <c r="L26" s="2"/>
+      <c r="L26" s="2">
+        <v>1003114040</v>
+      </c>
       <c r="M26" s="2"/>
-      <c r="N26" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
       <c r="R26" s="2"/>
@@ -2546,55 +2573,55 @@
       <c r="U26" s="2"/>
       <c r="V26" s="2"/>
       <c r="W26" s="2"/>
-      <c r="X26" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y26" s="2">
-        <v>4220180000000</v>
+      <c r="X26" s="2"/>
+      <c r="Y26" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="Z26" s="2">
-        <v>4</v>
-      </c>
-      <c r="AA26" s="2" t="s">
-        <v>36</v>
+        <v>4220180000000</v>
+      </c>
+      <c r="AA26" s="2">
+        <v>4</v>
       </c>
       <c r="AB26" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC26" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="AC26" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="AD26" s="3"/>
-    </row>
-    <row r="27" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="AE26" s="3"/>
+    </row>
+    <row r="27" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D27" s="3">
         <v>26</v>
       </c>
-      <c r="E27" s="4">
+      <c r="F27" s="4">
         <v>118495</v>
       </c>
-      <c r="F27" s="4">
+      <c r="G27" s="4">
         <v>6001</v>
       </c>
-      <c r="G27" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="H27" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I27" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2">
+      <c r="J27" s="2"/>
+      <c r="K27" s="2">
         <v>20211029</v>
       </c>
-      <c r="K27" s="2">
-        <v>1003114040</v>
-      </c>
       <c r="L27" s="2">
+        <v>1003114040</v>
+      </c>
+      <c r="M27" s="2">
         <v>31970</v>
       </c>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
       <c r="R27" s="2"/>
@@ -2603,118 +2630,118 @@
       <c r="U27" s="2"/>
       <c r="V27" s="2"/>
       <c r="W27" s="2"/>
-      <c r="X27" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y27" s="2">
-        <v>4220180000000</v>
+      <c r="X27" s="2"/>
+      <c r="Y27" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="Z27" s="2">
-        <v>4</v>
-      </c>
-      <c r="AA27" s="2" t="s">
-        <v>36</v>
+        <v>4220180000000</v>
+      </c>
+      <c r="AA27" s="2">
+        <v>4</v>
       </c>
       <c r="AB27" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC27" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="AC27" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="AD27" s="3"/>
-    </row>
-    <row r="28" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="AE27" s="3"/>
+    </row>
+    <row r="28" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D28" s="3">
         <v>27</v>
       </c>
-      <c r="E28" s="4">
+      <c r="F28" s="4">
         <v>118496</v>
       </c>
-      <c r="F28" s="4">
+      <c r="G28" s="4">
         <v>1001</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="H28" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="I28" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2">
+      <c r="J28" s="2"/>
+      <c r="K28" s="2">
         <v>20210716</v>
       </c>
-      <c r="K28" s="2">
-        <v>1003114040</v>
-      </c>
-      <c r="L28" s="2"/>
+      <c r="L28" s="2">
+        <v>1003114040</v>
+      </c>
       <c r="M28" s="2"/>
-      <c r="N28" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
       <c r="R28" s="2"/>
-      <c r="S28" s="2" t="s">
+      <c r="S28" s="2"/>
+      <c r="T28" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="T28" s="2" t="s">
+      <c r="U28" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="U28" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="V28" s="2"/>
-      <c r="W28" s="2">
+      <c r="V28" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="W28" s="2"/>
+      <c r="X28" s="2">
         <v>20910304</v>
       </c>
-      <c r="X28" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y28" s="2">
-        <v>4220180000000</v>
+      <c r="Y28" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="Z28" s="2">
-        <v>4</v>
-      </c>
-      <c r="AA28" s="2" t="s">
-        <v>36</v>
+        <v>4220180000000</v>
+      </c>
+      <c r="AA28" s="2">
+        <v>4</v>
       </c>
       <c r="AB28" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC28" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="AC28" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="AD28" s="3"/>
-    </row>
-    <row r="29" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="AE28" s="3"/>
+    </row>
+    <row r="29" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D29" s="3">
         <v>28</v>
       </c>
-      <c r="E29" s="4">
+      <c r="F29" s="4">
         <v>118498</v>
       </c>
-      <c r="F29" s="4">
+      <c r="G29" s="4">
         <v>1001</v>
       </c>
-      <c r="G29" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="H29" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I29" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2">
+      <c r="J29" s="2"/>
+      <c r="K29" s="2">
         <v>20220823</v>
       </c>
-      <c r="K29" s="2">
-        <v>1003114040</v>
-      </c>
       <c r="L29" s="2">
+        <v>1003114040</v>
+      </c>
+      <c r="M29" s="2">
         <v>26163</v>
       </c>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
       <c r="R29" s="2"/>
@@ -2723,55 +2750,55 @@
       <c r="U29" s="2"/>
       <c r="V29" s="2"/>
       <c r="W29" s="2"/>
-      <c r="X29" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y29" s="2">
-        <v>4220180000000</v>
+      <c r="X29" s="2"/>
+      <c r="Y29" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="Z29" s="2">
-        <v>4</v>
-      </c>
-      <c r="AA29" s="2" t="s">
-        <v>36</v>
+        <v>4220180000000</v>
+      </c>
+      <c r="AA29" s="2">
+        <v>4</v>
       </c>
       <c r="AB29" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC29" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="AC29" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="AD29" s="3"/>
-    </row>
-    <row r="30" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="AE29" s="3"/>
+    </row>
+    <row r="30" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D30" s="3">
         <v>29</v>
       </c>
-      <c r="E30" s="4">
+      <c r="F30" s="4">
         <v>118499</v>
       </c>
-      <c r="F30" s="4">
+      <c r="G30" s="4">
         <v>1001</v>
       </c>
-      <c r="G30" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="H30" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I30" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2">
+      <c r="J30" s="2"/>
+      <c r="K30" s="2">
         <v>20220728</v>
       </c>
-      <c r="K30" s="2">
-        <v>1003114040</v>
-      </c>
       <c r="L30" s="2">
+        <v>1003114040</v>
+      </c>
+      <c r="M30" s="2">
         <v>24890</v>
       </c>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
       <c r="R30" s="2"/>
@@ -2780,55 +2807,55 @@
       <c r="U30" s="2"/>
       <c r="V30" s="2"/>
       <c r="W30" s="2"/>
-      <c r="X30" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y30" s="2">
-        <v>4220180000000</v>
+      <c r="X30" s="2"/>
+      <c r="Y30" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="Z30" s="2">
-        <v>4</v>
-      </c>
-      <c r="AA30" s="2" t="s">
-        <v>36</v>
+        <v>4220180000000</v>
+      </c>
+      <c r="AA30" s="2">
+        <v>4</v>
       </c>
       <c r="AB30" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC30" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="AC30" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="AD30" s="3"/>
-    </row>
-    <row r="31" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="AE30" s="3"/>
+    </row>
+    <row r="31" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D31" s="3">
         <v>30</v>
       </c>
-      <c r="E31" s="4">
+      <c r="F31" s="4">
         <v>118500</v>
       </c>
-      <c r="F31" s="4">
+      <c r="G31" s="4">
         <v>6004</v>
       </c>
-      <c r="G31" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="H31" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I31" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1">
+      <c r="J31" s="1"/>
+      <c r="K31" s="1">
         <v>20220823</v>
       </c>
-      <c r="K31" s="2">
-        <v>1003114040</v>
-      </c>
-      <c r="L31" s="1">
+      <c r="L31" s="2">
+        <v>1003114040</v>
+      </c>
+      <c r="M31" s="1">
         <v>26163</v>
       </c>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
@@ -2837,55 +2864,55 @@
       <c r="U31" s="1"/>
       <c r="V31" s="1"/>
       <c r="W31" s="1"/>
-      <c r="X31" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y31" s="2">
-        <v>4220180000000</v>
+      <c r="X31" s="1"/>
+      <c r="Y31" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="Z31" s="2">
-        <v>4</v>
-      </c>
-      <c r="AA31" s="2" t="s">
-        <v>36</v>
+        <v>4220180000000</v>
+      </c>
+      <c r="AA31" s="2">
+        <v>4</v>
       </c>
       <c r="AB31" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC31" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="AC31" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="AD31" s="3"/>
-    </row>
-    <row r="32" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="AE31" s="3"/>
+    </row>
+    <row r="32" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D32" s="3">
         <v>31</v>
       </c>
-      <c r="E32" s="4">
+      <c r="F32" s="4">
         <v>118500</v>
       </c>
-      <c r="F32" s="4">
+      <c r="G32" s="4">
         <v>6004</v>
       </c>
-      <c r="G32" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="H32" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I32" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1">
+      <c r="J32" s="1"/>
+      <c r="K32" s="1">
         <v>20220527</v>
       </c>
-      <c r="K32" s="2">
-        <v>1003114040</v>
-      </c>
-      <c r="L32" s="1">
+      <c r="L32" s="2">
+        <v>1003114040</v>
+      </c>
+      <c r="M32" s="1">
         <v>17139</v>
       </c>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
@@ -2894,55 +2921,55 @@
       <c r="U32" s="1"/>
       <c r="V32" s="1"/>
       <c r="W32" s="1"/>
-      <c r="X32" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y32" s="2">
-        <v>4220180000000</v>
+      <c r="X32" s="1"/>
+      <c r="Y32" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="Z32" s="2">
-        <v>4</v>
-      </c>
-      <c r="AA32" s="2" t="s">
-        <v>36</v>
+        <v>4220180000000</v>
+      </c>
+      <c r="AA32" s="2">
+        <v>4</v>
       </c>
       <c r="AB32" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC32" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="AC32" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="AD32" s="3"/>
-    </row>
-    <row r="33" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="AE32" s="3"/>
+    </row>
+    <row r="33" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D33" s="3">
         <v>32</v>
       </c>
-      <c r="E33" s="4">
+      <c r="F33" s="4">
         <v>118518</v>
       </c>
-      <c r="F33" s="4">
+      <c r="G33" s="4">
         <v>1005</v>
       </c>
-      <c r="G33" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="H33" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I33" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1">
+      <c r="J33" s="1"/>
+      <c r="K33" s="1">
         <v>20220628</v>
       </c>
-      <c r="K33" s="2">
-        <v>1003114040</v>
-      </c>
-      <c r="L33" s="1">
+      <c r="L33" s="2">
+        <v>1003114040</v>
+      </c>
+      <c r="M33" s="1">
         <v>25418</v>
       </c>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
@@ -2951,55 +2978,55 @@
       <c r="U33" s="1"/>
       <c r="V33" s="1"/>
       <c r="W33" s="1"/>
-      <c r="X33" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y33" s="2">
-        <v>4220180000000</v>
+      <c r="X33" s="1"/>
+      <c r="Y33" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="Z33" s="2">
-        <v>4</v>
-      </c>
-      <c r="AA33" s="2" t="s">
-        <v>36</v>
+        <v>4220180000000</v>
+      </c>
+      <c r="AA33" s="2">
+        <v>4</v>
       </c>
       <c r="AB33" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC33" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="AC33" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="AD33" s="3"/>
-    </row>
-    <row r="34" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="AE33" s="3"/>
+    </row>
+    <row r="34" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D34" s="3">
         <v>33</v>
       </c>
-      <c r="E34" s="4">
+      <c r="F34" s="4">
         <v>118518</v>
       </c>
-      <c r="F34" s="4">
+      <c r="G34" s="4">
         <v>1034</v>
       </c>
-      <c r="G34" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="H34" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I34" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1">
+      <c r="J34" s="1"/>
+      <c r="K34" s="1">
         <v>20211231</v>
       </c>
-      <c r="K34" s="2">
-        <v>1003114040</v>
-      </c>
-      <c r="L34" s="1">
+      <c r="L34" s="2">
+        <v>1003114040</v>
+      </c>
+      <c r="M34" s="1">
         <v>18676</v>
       </c>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
@@ -3008,53 +3035,53 @@
       <c r="U34" s="1"/>
       <c r="V34" s="1"/>
       <c r="W34" s="1"/>
-      <c r="X34" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y34" s="2">
-        <v>4220180000000</v>
+      <c r="X34" s="1"/>
+      <c r="Y34" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="Z34" s="2">
-        <v>4</v>
-      </c>
-      <c r="AA34" s="2" t="s">
-        <v>36</v>
+        <v>4220180000000</v>
+      </c>
+      <c r="AA34" s="2">
+        <v>4</v>
       </c>
       <c r="AB34" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC34" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="AC34" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="AD34" s="3"/>
-    </row>
-    <row r="35" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="AE34" s="3"/>
+    </row>
+    <row r="35" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D35" s="3">
         <v>34</v>
       </c>
-      <c r="E35" s="4">
+      <c r="F35" s="4">
         <v>118518</v>
       </c>
-      <c r="F35" s="4">
+      <c r="G35" s="4">
         <v>1035</v>
       </c>
-      <c r="G35" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="H35" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I35" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1">
+      <c r="J35" s="1"/>
+      <c r="K35" s="1">
         <v>20211006</v>
       </c>
-      <c r="K35" s="2">
-        <v>1003114040</v>
-      </c>
-      <c r="L35" s="1"/>
+      <c r="L35" s="2">
+        <v>1003114040</v>
+      </c>
       <c r="M35" s="1"/>
-      <c r="N35" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
@@ -3063,55 +3090,55 @@
       <c r="U35" s="1"/>
       <c r="V35" s="1"/>
       <c r="W35" s="1"/>
-      <c r="X35" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y35" s="2">
-        <v>4220180000000</v>
+      <c r="X35" s="1"/>
+      <c r="Y35" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="Z35" s="2">
-        <v>4</v>
-      </c>
-      <c r="AA35" s="2" t="s">
-        <v>36</v>
+        <v>4220180000000</v>
+      </c>
+      <c r="AA35" s="2">
+        <v>4</v>
       </c>
       <c r="AB35" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC35" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="AC35" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="AD35" s="3"/>
-    </row>
-    <row r="36" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="AE35" s="3"/>
+    </row>
+    <row r="36" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D36" s="3">
         <v>35</v>
       </c>
-      <c r="E36" s="4">
+      <c r="F36" s="4">
         <v>118518</v>
       </c>
-      <c r="F36" s="4">
+      <c r="G36" s="4">
         <v>1150</v>
       </c>
-      <c r="G36" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="H36" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I36" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1">
+      <c r="J36" s="1"/>
+      <c r="K36" s="1">
         <v>20220423</v>
       </c>
-      <c r="K36" s="2">
-        <v>1003114040</v>
-      </c>
-      <c r="L36" s="1">
+      <c r="L36" s="2">
+        <v>1003114040</v>
+      </c>
+      <c r="M36" s="1">
         <v>2343</v>
       </c>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
@@ -3120,55 +3147,55 @@
       <c r="U36" s="1"/>
       <c r="V36" s="1"/>
       <c r="W36" s="1"/>
-      <c r="X36" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y36" s="2">
-        <v>4220180000000</v>
+      <c r="X36" s="1"/>
+      <c r="Y36" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="Z36" s="2">
-        <v>4</v>
-      </c>
-      <c r="AA36" s="2" t="s">
-        <v>36</v>
+        <v>4220180000000</v>
+      </c>
+      <c r="AA36" s="2">
+        <v>4</v>
       </c>
       <c r="AB36" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC36" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="AC36" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="AD36" s="3"/>
-    </row>
-    <row r="37" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="AE36" s="3"/>
+    </row>
+    <row r="37" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D37" s="3">
         <v>36</v>
       </c>
-      <c r="E37" s="4">
+      <c r="F37" s="4">
         <v>118518</v>
       </c>
-      <c r="F37" s="4">
+      <c r="G37" s="4">
         <v>6001</v>
       </c>
-      <c r="G37" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="H37" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I37" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1">
+      <c r="J37" s="1"/>
+      <c r="K37" s="1">
         <v>20200114</v>
       </c>
-      <c r="K37" s="2">
-        <v>1003114040</v>
-      </c>
-      <c r="L37" s="1">
+      <c r="L37" s="2">
+        <v>1003114040</v>
+      </c>
+      <c r="M37" s="1">
         <v>17461</v>
       </c>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
@@ -3177,55 +3204,55 @@
       <c r="U37" s="1"/>
       <c r="V37" s="1"/>
       <c r="W37" s="1"/>
-      <c r="X37" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y37" s="2">
-        <v>4220180000000</v>
+      <c r="X37" s="1"/>
+      <c r="Y37" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="Z37" s="2">
-        <v>4</v>
-      </c>
-      <c r="AA37" s="2" t="s">
-        <v>36</v>
+        <v>4220180000000</v>
+      </c>
+      <c r="AA37" s="2">
+        <v>4</v>
       </c>
       <c r="AB37" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC37" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="AC37" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="AD37" s="3"/>
-    </row>
-    <row r="38" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="AE37" s="3"/>
+    </row>
+    <row r="38" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D38" s="3">
         <v>37</v>
       </c>
-      <c r="E38" s="4">
+      <c r="F38" s="4">
         <v>118518</v>
       </c>
-      <c r="F38" s="4">
+      <c r="G38" s="4">
         <v>6004</v>
       </c>
-      <c r="G38" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="H38" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I38" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1">
+      <c r="J38" s="1"/>
+      <c r="K38" s="1">
         <v>20220728</v>
       </c>
-      <c r="K38" s="2">
-        <v>1003114040</v>
-      </c>
-      <c r="L38" s="1">
+      <c r="L38" s="2">
+        <v>1003114040</v>
+      </c>
+      <c r="M38" s="1">
         <v>24890</v>
       </c>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
       <c r="R38" s="1"/>
@@ -3234,55 +3261,55 @@
       <c r="U38" s="1"/>
       <c r="V38" s="1"/>
       <c r="W38" s="1"/>
-      <c r="X38" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y38" s="2">
-        <v>4220180000000</v>
+      <c r="X38" s="1"/>
+      <c r="Y38" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="Z38" s="2">
-        <v>4</v>
-      </c>
-      <c r="AA38" s="2" t="s">
-        <v>36</v>
+        <v>4220180000000</v>
+      </c>
+      <c r="AA38" s="2">
+        <v>4</v>
       </c>
       <c r="AB38" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC38" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="AC38" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="AD38" s="3"/>
-    </row>
-    <row r="39" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="AE38" s="3"/>
+    </row>
+    <row r="39" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D39" s="3">
         <v>38</v>
       </c>
-      <c r="E39" s="4">
+      <c r="F39" s="4">
         <v>118518</v>
       </c>
-      <c r="F39" s="4">
+      <c r="G39" s="4">
         <v>6005</v>
       </c>
-      <c r="G39" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="H39" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I39" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1">
+      <c r="J39" s="1"/>
+      <c r="K39" s="1">
         <v>20210903</v>
       </c>
-      <c r="K39" s="2">
-        <v>1003114040</v>
-      </c>
-      <c r="L39" s="1">
+      <c r="L39" s="2">
+        <v>1003114040</v>
+      </c>
+      <c r="M39" s="1">
         <v>30162</v>
       </c>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="P39" s="1"/>
       <c r="Q39" s="1"/>
       <c r="R39" s="1"/>
@@ -3291,53 +3318,53 @@
       <c r="U39" s="1"/>
       <c r="V39" s="1"/>
       <c r="W39" s="1"/>
-      <c r="X39" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y39" s="2">
-        <v>4220180000000</v>
+      <c r="X39" s="1"/>
+      <c r="Y39" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="Z39" s="2">
-        <v>4</v>
-      </c>
-      <c r="AA39" s="2" t="s">
-        <v>36</v>
+        <v>4220180000000</v>
+      </c>
+      <c r="AA39" s="2">
+        <v>4</v>
       </c>
       <c r="AB39" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC39" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="AC39" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D40" s="3">
         <v>39</v>
       </c>
-      <c r="E40" s="4">
+      <c r="F40" s="4">
         <v>118518</v>
       </c>
-      <c r="F40" s="4">
+      <c r="G40" s="4">
         <v>6009</v>
       </c>
-      <c r="G40" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="H40" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I40" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1">
+      <c r="J40" s="1"/>
+      <c r="K40" s="1">
         <v>20191125</v>
       </c>
-      <c r="K40" s="2">
-        <v>1003114040</v>
-      </c>
-      <c r="L40" s="1"/>
+      <c r="L40" s="2">
+        <v>1003114040</v>
+      </c>
       <c r="M40" s="1"/>
-      <c r="N40" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
@@ -3346,116 +3373,116 @@
       <c r="U40" s="1"/>
       <c r="V40" s="1"/>
       <c r="W40" s="1"/>
-      <c r="X40" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y40" s="2">
-        <v>4220180000000</v>
+      <c r="X40" s="1"/>
+      <c r="Y40" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="Z40" s="2">
-        <v>4</v>
-      </c>
-      <c r="AA40" s="2" t="s">
-        <v>36</v>
+        <v>4220180000000</v>
+      </c>
+      <c r="AA40" s="2">
+        <v>4</v>
       </c>
       <c r="AB40" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC40" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="AC40" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D41" s="3">
         <v>40</v>
       </c>
-      <c r="E41" s="4">
+      <c r="F41" s="4">
         <v>118518</v>
       </c>
-      <c r="F41" s="4">
+      <c r="G41" s="4">
         <v>6011</v>
       </c>
-      <c r="G41" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="H41" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I41" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1">
+      <c r="J41" s="1"/>
+      <c r="K41" s="1">
         <v>20210716</v>
       </c>
-      <c r="K41" s="2">
-        <v>1003114040</v>
-      </c>
-      <c r="L41" s="1"/>
+      <c r="L41" s="2">
+        <v>1003114040</v>
+      </c>
       <c r="M41" s="1"/>
-      <c r="N41" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="P41" s="1"/>
       <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
-      <c r="S41" s="1" t="s">
+      <c r="S41" s="1"/>
+      <c r="T41" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="T41" s="1" t="s">
+      <c r="U41" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="U41" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="V41" s="1"/>
-      <c r="W41" s="1">
+      <c r="V41" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="W41" s="1"/>
+      <c r="X41" s="1">
         <v>20910304</v>
       </c>
-      <c r="X41" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y41" s="2">
-        <v>4220180000000</v>
+      <c r="Y41" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="Z41" s="2">
-        <v>4</v>
-      </c>
-      <c r="AA41" s="2" t="s">
-        <v>36</v>
+        <v>4220180000000</v>
+      </c>
+      <c r="AA41" s="2">
+        <v>4</v>
       </c>
       <c r="AB41" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC41" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="AC41" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="AD41" s="3"/>
-    </row>
-    <row r="42" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="AE41" s="3"/>
+    </row>
+    <row r="42" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D42" s="3">
         <v>41</v>
       </c>
-      <c r="E42" s="4">
+      <c r="F42" s="4">
         <v>118518</v>
       </c>
-      <c r="F42" s="4">
+      <c r="G42" s="4">
         <v>6012</v>
       </c>
-      <c r="G42" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="H42" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I42" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1">
+      <c r="J42" s="1"/>
+      <c r="K42" s="1">
         <v>20220912</v>
       </c>
-      <c r="K42" s="2">
-        <v>1003114040</v>
-      </c>
-      <c r="L42" s="1"/>
+      <c r="L42" s="2">
+        <v>1003114040</v>
+      </c>
       <c r="M42" s="1"/>
-      <c r="N42" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
       <c r="R42" s="1"/>
@@ -3464,53 +3491,53 @@
       <c r="U42" s="1"/>
       <c r="V42" s="1"/>
       <c r="W42" s="1"/>
-      <c r="X42" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y42" s="2">
-        <v>4220180000000</v>
+      <c r="X42" s="1"/>
+      <c r="Y42" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="Z42" s="2">
-        <v>4</v>
-      </c>
-      <c r="AA42" s="2" t="s">
-        <v>36</v>
+        <v>4220180000000</v>
+      </c>
+      <c r="AA42" s="2">
+        <v>4</v>
       </c>
       <c r="AB42" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC42" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="AC42" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="AD42" s="3"/>
-    </row>
-    <row r="43" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="AE42" s="3"/>
+    </row>
+    <row r="43" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D43" s="3">
         <v>42</v>
       </c>
-      <c r="E43" s="4">
+      <c r="F43" s="4">
         <v>118518</v>
       </c>
-      <c r="F43" s="4">
+      <c r="G43" s="4">
         <v>1001</v>
       </c>
-      <c r="G43" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="H43" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I43" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1">
+      <c r="J43" s="1"/>
+      <c r="K43" s="1">
         <v>20201126</v>
       </c>
-      <c r="K43" s="2">
-        <v>1003114040</v>
-      </c>
-      <c r="L43" s="1"/>
+      <c r="L43" s="2">
+        <v>1003114040</v>
+      </c>
       <c r="M43" s="1"/>
-      <c r="N43" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="P43" s="1"/>
       <c r="Q43" s="1"/>
       <c r="R43" s="1"/>
@@ -3519,55 +3546,55 @@
       <c r="U43" s="1"/>
       <c r="V43" s="1"/>
       <c r="W43" s="1"/>
-      <c r="X43" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y43" s="2">
-        <v>4220180000000</v>
+      <c r="X43" s="1"/>
+      <c r="Y43" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="Z43" s="2">
-        <v>4</v>
-      </c>
-      <c r="AA43" s="2" t="s">
-        <v>36</v>
+        <v>4220180000000</v>
+      </c>
+      <c r="AA43" s="2">
+        <v>4</v>
       </c>
       <c r="AB43" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC43" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="AC43" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="AD43" s="3"/>
-    </row>
-    <row r="44" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="AE43" s="3"/>
+    </row>
+    <row r="44" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D44" s="3">
         <v>43</v>
       </c>
-      <c r="E44" s="4">
+      <c r="F44" s="4">
         <v>118518</v>
       </c>
-      <c r="F44" s="4">
+      <c r="G44" s="4">
         <v>6014</v>
       </c>
-      <c r="G44" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="H44" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I44" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1">
+      <c r="J44" s="1"/>
+      <c r="K44" s="1">
         <v>20211029</v>
       </c>
-      <c r="K44" s="2">
-        <v>1003114040</v>
-      </c>
-      <c r="L44" s="1">
+      <c r="L44" s="2">
+        <v>1003114040</v>
+      </c>
+      <c r="M44" s="1">
         <v>31970</v>
       </c>
-      <c r="M44" s="1"/>
-      <c r="N44" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="P44" s="1"/>
       <c r="Q44" s="1"/>
       <c r="R44" s="1"/>
@@ -3576,55 +3603,55 @@
       <c r="U44" s="1"/>
       <c r="V44" s="1"/>
       <c r="W44" s="1"/>
-      <c r="X44" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y44" s="2">
-        <v>4220180000000</v>
+      <c r="X44" s="1"/>
+      <c r="Y44" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="Z44" s="2">
-        <v>4</v>
-      </c>
-      <c r="AA44" s="2" t="s">
-        <v>36</v>
+        <v>4220180000000</v>
+      </c>
+      <c r="AA44" s="2">
+        <v>4</v>
       </c>
       <c r="AB44" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC44" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="AC44" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="AD44" s="3"/>
-    </row>
-    <row r="45" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="AE44" s="3"/>
+    </row>
+    <row r="45" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D45" s="3">
         <v>44</v>
       </c>
-      <c r="E45" s="4">
+      <c r="F45" s="4">
         <v>118518</v>
       </c>
-      <c r="F45" s="4">
+      <c r="G45" s="4">
         <v>6018</v>
       </c>
-      <c r="G45" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="H45" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I45" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1">
+      <c r="J45" s="1"/>
+      <c r="K45" s="1">
         <v>20220823</v>
       </c>
-      <c r="K45" s="2">
-        <v>1003114040</v>
-      </c>
-      <c r="L45" s="1">
+      <c r="L45" s="2">
+        <v>1003114040</v>
+      </c>
+      <c r="M45" s="1">
         <v>26163</v>
       </c>
-      <c r="M45" s="1"/>
-      <c r="N45" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="P45" s="1"/>
       <c r="Q45" s="1"/>
       <c r="R45" s="1"/>
@@ -3633,55 +3660,55 @@
       <c r="U45" s="1"/>
       <c r="V45" s="1"/>
       <c r="W45" s="1"/>
-      <c r="X45" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y45" s="2">
-        <v>4220180000000</v>
+      <c r="X45" s="1"/>
+      <c r="Y45" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="Z45" s="2">
-        <v>4</v>
-      </c>
-      <c r="AA45" s="2" t="s">
-        <v>36</v>
+        <v>4220180000000</v>
+      </c>
+      <c r="AA45" s="2">
+        <v>4</v>
       </c>
       <c r="AB45" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC45" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="AC45" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="AD45" s="3"/>
-    </row>
-    <row r="46" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="AE45" s="3"/>
+    </row>
+    <row r="46" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D46" s="3">
         <v>45</v>
       </c>
-      <c r="E46" s="4">
+      <c r="F46" s="4">
         <v>118518</v>
       </c>
-      <c r="F46" s="4">
+      <c r="G46" s="4">
         <v>6025</v>
       </c>
-      <c r="G46" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="H46" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I46" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1">
+      <c r="J46" s="1"/>
+      <c r="K46" s="1">
         <v>20220527</v>
       </c>
-      <c r="K46" s="2">
-        <v>1003114040</v>
-      </c>
-      <c r="L46" s="1">
+      <c r="L46" s="2">
+        <v>1003114040</v>
+      </c>
+      <c r="M46" s="1">
         <v>17139</v>
       </c>
-      <c r="M46" s="1"/>
-      <c r="N46" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="P46" s="1"/>
       <c r="Q46" s="1"/>
       <c r="R46" s="1"/>
@@ -3690,55 +3717,55 @@
       <c r="U46" s="1"/>
       <c r="V46" s="1"/>
       <c r="W46" s="1"/>
-      <c r="X46" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y46" s="2">
-        <v>4220180000000</v>
+      <c r="X46" s="1"/>
+      <c r="Y46" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="Z46" s="2">
-        <v>4</v>
-      </c>
-      <c r="AA46" s="2" t="s">
-        <v>36</v>
+        <v>4220180000000</v>
+      </c>
+      <c r="AA46" s="2">
+        <v>4</v>
       </c>
       <c r="AB46" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC46" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="AC46" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="AD46" s="3"/>
-    </row>
-    <row r="47" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="AE46" s="3"/>
+    </row>
+    <row r="47" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D47" s="3">
         <v>46</v>
       </c>
-      <c r="E47" s="4">
+      <c r="F47" s="4">
         <v>118518</v>
       </c>
-      <c r="F47" s="4">
+      <c r="G47" s="4">
         <v>6020</v>
       </c>
-      <c r="G47" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="H47" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I47" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1">
+      <c r="J47" s="1"/>
+      <c r="K47" s="1">
         <v>20220628</v>
       </c>
-      <c r="K47" s="2">
-        <v>1003114040</v>
-      </c>
-      <c r="L47" s="1">
+      <c r="L47" s="2">
+        <v>1003114040</v>
+      </c>
+      <c r="M47" s="1">
         <v>25418</v>
       </c>
-      <c r="M47" s="1"/>
-      <c r="N47" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="P47" s="1"/>
       <c r="Q47" s="1"/>
       <c r="R47" s="1"/>
@@ -3747,55 +3774,55 @@
       <c r="U47" s="1"/>
       <c r="V47" s="1"/>
       <c r="W47" s="1"/>
-      <c r="X47" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y47" s="2">
-        <v>4220180000000</v>
+      <c r="X47" s="1"/>
+      <c r="Y47" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="Z47" s="2">
-        <v>4</v>
-      </c>
-      <c r="AA47" s="2" t="s">
-        <v>36</v>
+        <v>4220180000000</v>
+      </c>
+      <c r="AA47" s="2">
+        <v>4</v>
       </c>
       <c r="AB47" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC47" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="AC47" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="AD47" s="3"/>
-    </row>
-    <row r="48" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="AE47" s="3"/>
+    </row>
+    <row r="48" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D48" s="3">
         <v>47</v>
       </c>
-      <c r="E48" s="4">
+      <c r="F48" s="4">
         <v>118519</v>
       </c>
-      <c r="F48" s="4">
+      <c r="G48" s="4">
         <v>1001</v>
       </c>
-      <c r="G48" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="H48" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I48" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1">
+      <c r="J48" s="1"/>
+      <c r="K48" s="1">
         <v>20211231</v>
       </c>
-      <c r="K48" s="2">
-        <v>1003114040</v>
-      </c>
-      <c r="L48" s="1">
+      <c r="L48" s="2">
+        <v>1003114040</v>
+      </c>
+      <c r="M48" s="1">
         <v>18676</v>
       </c>
-      <c r="M48" s="1"/>
-      <c r="N48" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="P48" s="1"/>
       <c r="Q48" s="1"/>
       <c r="R48" s="1"/>
@@ -3804,53 +3831,53 @@
       <c r="U48" s="1"/>
       <c r="V48" s="1"/>
       <c r="W48" s="1"/>
-      <c r="X48" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y48" s="2">
-        <v>4220180000000</v>
+      <c r="X48" s="1"/>
+      <c r="Y48" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="Z48" s="2">
-        <v>4</v>
-      </c>
-      <c r="AA48" s="2" t="s">
-        <v>36</v>
+        <v>4220180000000</v>
+      </c>
+      <c r="AA48" s="2">
+        <v>4</v>
       </c>
       <c r="AB48" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC48" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="AC48" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="AD48" s="3"/>
-    </row>
-    <row r="49" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="AE48" s="3"/>
+    </row>
+    <row r="49" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D49" s="3">
         <v>48</v>
       </c>
-      <c r="E49" s="4">
+      <c r="F49" s="4">
         <v>118519</v>
       </c>
-      <c r="F49" s="4">
+      <c r="G49" s="4">
         <v>1005</v>
       </c>
-      <c r="G49" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="H49" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I49" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1">
+      <c r="J49" s="1"/>
+      <c r="K49" s="1">
         <v>20211006</v>
       </c>
-      <c r="K49" s="2">
-        <v>1003114040</v>
-      </c>
-      <c r="L49" s="1"/>
+      <c r="L49" s="2">
+        <v>1003114040</v>
+      </c>
       <c r="M49" s="1"/>
-      <c r="N49" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="P49" s="1"/>
       <c r="Q49" s="1"/>
       <c r="R49" s="1"/>
@@ -3859,55 +3886,55 @@
       <c r="U49" s="1"/>
       <c r="V49" s="1"/>
       <c r="W49" s="1"/>
-      <c r="X49" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y49" s="2">
-        <v>4220180000000</v>
+      <c r="X49" s="1"/>
+      <c r="Y49" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="Z49" s="2">
-        <v>4</v>
-      </c>
-      <c r="AA49" s="2" t="s">
-        <v>36</v>
+        <v>4220180000000</v>
+      </c>
+      <c r="AA49" s="2">
+        <v>4</v>
       </c>
       <c r="AB49" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC49" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="AC49" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="AD49" s="3"/>
-    </row>
-    <row r="50" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="AE49" s="3"/>
+    </row>
+    <row r="50" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D50" s="3">
         <v>49</v>
       </c>
-      <c r="E50" s="4">
+      <c r="F50" s="4">
         <v>118519</v>
       </c>
-      <c r="F50" s="4">
+      <c r="G50" s="4">
         <v>1034</v>
       </c>
-      <c r="G50" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="H50" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I50" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I50" s="1"/>
-      <c r="J50" s="1">
+      <c r="J50" s="1"/>
+      <c r="K50" s="1">
         <v>20220423</v>
       </c>
-      <c r="K50" s="2">
-        <v>1003114040</v>
-      </c>
-      <c r="L50" s="1">
+      <c r="L50" s="2">
+        <v>1003114040</v>
+      </c>
+      <c r="M50" s="1">
         <v>2343</v>
       </c>
-      <c r="M50" s="1"/>
-      <c r="N50" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O50" s="1"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="P50" s="1"/>
       <c r="Q50" s="1"/>
       <c r="R50" s="1"/>
@@ -3916,55 +3943,55 @@
       <c r="U50" s="1"/>
       <c r="V50" s="1"/>
       <c r="W50" s="1"/>
-      <c r="X50" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y50" s="2">
-        <v>4220180000000</v>
+      <c r="X50" s="1"/>
+      <c r="Y50" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="Z50" s="2">
-        <v>4</v>
-      </c>
-      <c r="AA50" s="2" t="s">
-        <v>36</v>
+        <v>4220180000000</v>
+      </c>
+      <c r="AA50" s="2">
+        <v>4</v>
       </c>
       <c r="AB50" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC50" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="AC50" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="AD50" s="3"/>
-    </row>
-    <row r="51" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="AE50" s="3"/>
+    </row>
+    <row r="51" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D51" s="3">
         <v>50</v>
       </c>
-      <c r="E51" s="4">
+      <c r="F51" s="4">
         <v>118519</v>
       </c>
-      <c r="F51" s="4">
+      <c r="G51" s="4">
         <v>1035</v>
       </c>
-      <c r="G51" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="H51" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I51" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I51" s="1"/>
-      <c r="J51" s="1">
+      <c r="J51" s="1"/>
+      <c r="K51" s="1">
         <v>20200114</v>
       </c>
-      <c r="K51" s="2">
-        <v>1003114040</v>
-      </c>
-      <c r="L51" s="1">
+      <c r="L51" s="2">
+        <v>1003114040</v>
+      </c>
+      <c r="M51" s="1">
         <v>17461</v>
       </c>
-      <c r="M51" s="1"/>
-      <c r="N51" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="P51" s="1"/>
       <c r="Q51" s="1"/>
       <c r="R51" s="1"/>
@@ -3973,55 +4000,55 @@
       <c r="U51" s="1"/>
       <c r="V51" s="1"/>
       <c r="W51" s="1"/>
-      <c r="X51" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y51" s="2">
-        <v>4220180000000</v>
+      <c r="X51" s="1"/>
+      <c r="Y51" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="Z51" s="2">
-        <v>4</v>
-      </c>
-      <c r="AA51" s="2" t="s">
-        <v>36</v>
+        <v>4220180000000</v>
+      </c>
+      <c r="AA51" s="2">
+        <v>4</v>
       </c>
       <c r="AB51" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC51" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="AC51" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="AD51" s="3"/>
-    </row>
-    <row r="52" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="AE51" s="3"/>
+    </row>
+    <row r="52" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D52" s="3">
         <v>51</v>
       </c>
-      <c r="E52" s="4">
+      <c r="F52" s="4">
         <v>118519</v>
       </c>
-      <c r="F52" s="4">
+      <c r="G52" s="4">
         <v>1150</v>
       </c>
-      <c r="G52" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="H52" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I52" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I52" s="1"/>
-      <c r="J52" s="1">
+      <c r="J52" s="1"/>
+      <c r="K52" s="1">
         <v>20220728</v>
       </c>
-      <c r="K52" s="2">
-        <v>1003114040</v>
-      </c>
-      <c r="L52" s="1">
+      <c r="L52" s="2">
+        <v>1003114040</v>
+      </c>
+      <c r="M52" s="1">
         <v>24890</v>
       </c>
-      <c r="M52" s="1"/>
-      <c r="N52" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O52" s="1"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="P52" s="1"/>
       <c r="Q52" s="1"/>
       <c r="R52" s="1"/>
@@ -4030,55 +4057,55 @@
       <c r="U52" s="1"/>
       <c r="V52" s="1"/>
       <c r="W52" s="1"/>
-      <c r="X52" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y52" s="2">
-        <v>4220180000000</v>
+      <c r="X52" s="1"/>
+      <c r="Y52" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="Z52" s="2">
-        <v>4</v>
-      </c>
-      <c r="AA52" s="2" t="s">
-        <v>36</v>
+        <v>4220180000000</v>
+      </c>
+      <c r="AA52" s="2">
+        <v>4</v>
       </c>
       <c r="AB52" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC52" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="AC52" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="AD52" s="3"/>
-    </row>
-    <row r="53" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="AE52" s="3"/>
+    </row>
+    <row r="53" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D53" s="3">
         <v>52</v>
       </c>
-      <c r="E53" s="4">
+      <c r="F53" s="4">
         <v>118519</v>
       </c>
-      <c r="F53" s="4">
+      <c r="G53" s="4">
         <v>6001</v>
       </c>
-      <c r="G53" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="H53" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I53" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I53" s="1"/>
-      <c r="J53" s="1">
+      <c r="J53" s="1"/>
+      <c r="K53" s="1">
         <v>20210903</v>
       </c>
-      <c r="K53" s="2">
-        <v>1003114040</v>
-      </c>
-      <c r="L53" s="1">
+      <c r="L53" s="2">
+        <v>1003114040</v>
+      </c>
+      <c r="M53" s="1">
         <v>30162</v>
       </c>
-      <c r="M53" s="1"/>
-      <c r="N53" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O53" s="1"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="P53" s="1"/>
       <c r="Q53" s="1"/>
       <c r="R53" s="1"/>
@@ -4087,53 +4114,53 @@
       <c r="U53" s="1"/>
       <c r="V53" s="1"/>
       <c r="W53" s="1"/>
-      <c r="X53" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y53" s="2">
-        <v>4220180000000</v>
+      <c r="X53" s="1"/>
+      <c r="Y53" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="Z53" s="2">
-        <v>4</v>
-      </c>
-      <c r="AA53" s="2" t="s">
-        <v>36</v>
+        <v>4220180000000</v>
+      </c>
+      <c r="AA53" s="2">
+        <v>4</v>
       </c>
       <c r="AB53" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC53" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="AC53" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="AD53" s="3"/>
-    </row>
-    <row r="54" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="AE53" s="3"/>
+    </row>
+    <row r="54" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D54" s="3">
         <v>53</v>
       </c>
-      <c r="E54" s="4">
+      <c r="F54" s="4">
         <v>118519</v>
       </c>
-      <c r="F54" s="4">
+      <c r="G54" s="4">
         <v>6004</v>
       </c>
-      <c r="G54" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="H54" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I54" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I54" s="1"/>
-      <c r="J54" s="1">
+      <c r="J54" s="1"/>
+      <c r="K54" s="1">
         <v>20191125</v>
       </c>
-      <c r="K54" s="2">
-        <v>1003114040</v>
-      </c>
-      <c r="L54" s="1"/>
+      <c r="L54" s="2">
+        <v>1003114040</v>
+      </c>
       <c r="M54" s="1"/>
-      <c r="N54" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O54" s="1"/>
+      <c r="N54" s="1"/>
+      <c r="O54" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="P54" s="1"/>
       <c r="Q54" s="1"/>
       <c r="R54" s="1"/>
@@ -4142,118 +4169,118 @@
       <c r="U54" s="1"/>
       <c r="V54" s="1"/>
       <c r="W54" s="1"/>
-      <c r="X54" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y54" s="2">
-        <v>4220180000000</v>
+      <c r="X54" s="1"/>
+      <c r="Y54" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="Z54" s="2">
-        <v>4</v>
-      </c>
-      <c r="AA54" s="2" t="s">
-        <v>36</v>
+        <v>4220180000000</v>
+      </c>
+      <c r="AA54" s="2">
+        <v>4</v>
       </c>
       <c r="AB54" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC54" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="AC54" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="AD54" s="3"/>
-    </row>
-    <row r="55" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="AE54" s="3"/>
+    </row>
+    <row r="55" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D55" s="3">
         <v>54</v>
       </c>
-      <c r="E55" s="4">
+      <c r="F55" s="4">
         <v>118519</v>
       </c>
-      <c r="F55" s="4">
+      <c r="G55" s="4">
         <v>6005</v>
       </c>
-      <c r="G55" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="H55" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I55" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="I55" s="1"/>
-      <c r="J55" s="1">
+      <c r="J55" s="1"/>
+      <c r="K55" s="1">
         <v>20210716</v>
       </c>
-      <c r="K55" s="2">
-        <v>1003114040</v>
-      </c>
-      <c r="L55" s="1"/>
+      <c r="L55" s="2">
+        <v>1003114040</v>
+      </c>
       <c r="M55" s="1"/>
-      <c r="N55" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O55" s="1"/>
+      <c r="N55" s="1"/>
+      <c r="O55" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="P55" s="1"/>
       <c r="Q55" s="1"/>
       <c r="R55" s="1"/>
-      <c r="S55" s="1" t="s">
+      <c r="S55" s="1"/>
+      <c r="T55" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="T55" s="1" t="s">
+      <c r="U55" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="U55" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="V55" s="1"/>
-      <c r="W55" s="1">
+      <c r="V55" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="W55" s="1"/>
+      <c r="X55" s="1">
         <v>20910304</v>
       </c>
-      <c r="X55" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y55" s="2">
-        <v>4220180000000</v>
+      <c r="Y55" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="Z55" s="2">
-        <v>4</v>
-      </c>
-      <c r="AA55" s="2" t="s">
-        <v>36</v>
+        <v>4220180000000</v>
+      </c>
+      <c r="AA55" s="2">
+        <v>4</v>
       </c>
       <c r="AB55" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC55" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="AC55" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D56" s="3">
         <v>55</v>
       </c>
-      <c r="E56" s="4">
+      <c r="F56" s="4">
         <v>118519</v>
       </c>
-      <c r="F56" s="4">
+      <c r="G56" s="4">
         <v>6009</v>
       </c>
-      <c r="G56" s="2" t="s">
+      <c r="H56" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H56" s="2" t="s">
+      <c r="I56" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I56" s="2"/>
-      <c r="J56" s="2">
+      <c r="J56" s="2"/>
+      <c r="K56" s="2">
         <v>20220527</v>
       </c>
-      <c r="K56" s="2">
-        <v>1003114040</v>
-      </c>
       <c r="L56" s="2">
+        <v>1003114040</v>
+      </c>
+      <c r="M56" s="2">
         <v>17139</v>
       </c>
-      <c r="M56" s="2"/>
-      <c r="N56" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O56" s="2"/>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="P56" s="2"/>
       <c r="Q56" s="2"/>
       <c r="R56" s="2"/>
@@ -4262,55 +4289,55 @@
       <c r="U56" s="2"/>
       <c r="V56" s="2"/>
       <c r="W56" s="2"/>
-      <c r="X56" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y56" s="2">
-        <v>4220180000000</v>
+      <c r="X56" s="2"/>
+      <c r="Y56" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="Z56" s="2">
-        <v>4</v>
-      </c>
-      <c r="AA56" s="2" t="s">
-        <v>36</v>
+        <v>4220180000000</v>
+      </c>
+      <c r="AA56" s="2">
+        <v>4</v>
       </c>
       <c r="AB56" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC56" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="AC56" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D57" s="3">
         <v>56</v>
       </c>
-      <c r="E57" s="4">
+      <c r="F57" s="4">
         <v>118519</v>
       </c>
-      <c r="F57" s="4">
+      <c r="G57" s="4">
         <v>6012</v>
       </c>
-      <c r="G57" s="2" t="s">
+      <c r="H57" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H57" s="2" t="s">
+      <c r="I57" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I57" s="2"/>
-      <c r="J57" s="2">
+      <c r="J57" s="2"/>
+      <c r="K57" s="2">
         <v>20210903</v>
       </c>
-      <c r="K57" s="2">
-        <v>1003114040</v>
-      </c>
       <c r="L57" s="2">
+        <v>1003114040</v>
+      </c>
+      <c r="M57" s="2">
         <v>30162</v>
       </c>
-      <c r="M57" s="2"/>
-      <c r="N57" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O57" s="2"/>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="P57" s="2"/>
       <c r="Q57" s="2"/>
       <c r="R57" s="2"/>
@@ -4319,53 +4346,53 @@
       <c r="U57" s="2"/>
       <c r="V57" s="2"/>
       <c r="W57" s="2"/>
-      <c r="X57" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y57" s="2">
-        <v>4220180000000</v>
+      <c r="X57" s="2"/>
+      <c r="Y57" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="Z57" s="2">
-        <v>4</v>
-      </c>
-      <c r="AA57" s="2" t="s">
-        <v>36</v>
+        <v>4220180000000</v>
+      </c>
+      <c r="AA57" s="2">
+        <v>4</v>
       </c>
       <c r="AB57" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC57" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="AC57" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="AD57" s="3"/>
-    </row>
-    <row r="58" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="AE57" s="3"/>
+    </row>
+    <row r="58" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D58" s="3">
         <v>57</v>
       </c>
-      <c r="E58" s="4">
+      <c r="F58" s="4">
         <v>118519</v>
       </c>
-      <c r="F58" s="4">
+      <c r="G58" s="4">
         <v>6018</v>
       </c>
-      <c r="G58" s="2" t="s">
+      <c r="H58" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H58" s="2" t="s">
+      <c r="I58" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I58" s="2"/>
-      <c r="J58" s="2">
+      <c r="J58" s="2"/>
+      <c r="K58" s="2">
         <v>20191125</v>
       </c>
-      <c r="K58" s="2">
-        <v>1003114040</v>
-      </c>
-      <c r="L58" s="2"/>
+      <c r="L58" s="2">
+        <v>1003114040</v>
+      </c>
       <c r="M58" s="2"/>
-      <c r="N58" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O58" s="2"/>
+      <c r="N58" s="2"/>
+      <c r="O58" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="P58" s="2"/>
       <c r="Q58" s="2"/>
       <c r="R58" s="2"/>
@@ -4374,55 +4401,55 @@
       <c r="U58" s="2"/>
       <c r="V58" s="2"/>
       <c r="W58" s="2"/>
-      <c r="X58" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y58" s="2">
-        <v>4220180000000</v>
+      <c r="X58" s="2"/>
+      <c r="Y58" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="Z58" s="2">
-        <v>4</v>
-      </c>
-      <c r="AA58" s="2" t="s">
-        <v>36</v>
+        <v>4220180000000</v>
+      </c>
+      <c r="AA58" s="2">
+        <v>4</v>
       </c>
       <c r="AB58" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC58" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="AC58" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="AD58" s="3"/>
-    </row>
-    <row r="59" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="AE58" s="3"/>
+    </row>
+    <row r="59" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D59" s="3">
         <v>58</v>
       </c>
-      <c r="E59" s="4">
+      <c r="F59" s="4">
         <v>118519</v>
       </c>
-      <c r="F59" s="4">
+      <c r="G59" s="4">
         <v>6020</v>
       </c>
-      <c r="G59" s="2" t="s">
+      <c r="H59" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="H59" s="2" t="s">
+      <c r="I59" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I59" s="2"/>
-      <c r="J59" s="2">
+      <c r="J59" s="2"/>
+      <c r="K59" s="2">
         <v>20220628</v>
       </c>
-      <c r="K59" s="2">
-        <v>1003114040</v>
-      </c>
       <c r="L59" s="2">
+        <v>1003114040</v>
+      </c>
+      <c r="M59" s="2">
         <v>25418</v>
       </c>
-      <c r="M59" s="2"/>
-      <c r="N59" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O59" s="2"/>
+      <c r="N59" s="2"/>
+      <c r="O59" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="P59" s="2"/>
       <c r="Q59" s="2"/>
       <c r="R59" s="2"/>
@@ -4431,53 +4458,53 @@
       <c r="U59" s="2"/>
       <c r="V59" s="2"/>
       <c r="W59" s="2"/>
-      <c r="X59" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y59" s="2">
-        <v>4220180000000</v>
+      <c r="X59" s="2"/>
+      <c r="Y59" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="Z59" s="2">
-        <v>4</v>
-      </c>
-      <c r="AA59" s="2" t="s">
-        <v>36</v>
+        <v>4220180000000</v>
+      </c>
+      <c r="AA59" s="2">
+        <v>4</v>
       </c>
       <c r="AB59" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC59" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="AC59" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="AD59" s="3"/>
-    </row>
-    <row r="60" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="AE59" s="3"/>
+    </row>
+    <row r="60" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D60" s="3">
         <v>59</v>
       </c>
-      <c r="E60" s="4">
+      <c r="F60" s="4">
         <v>118519</v>
       </c>
-      <c r="F60" s="4">
+      <c r="G60" s="4">
         <v>6011</v>
       </c>
-      <c r="G60" s="2" t="s">
+      <c r="H60" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="H60" s="2" t="s">
+      <c r="I60" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I60" s="2"/>
-      <c r="J60" s="2">
+      <c r="J60" s="2"/>
+      <c r="K60" s="2">
         <v>20220912</v>
       </c>
-      <c r="K60" s="2">
-        <v>1003114040</v>
-      </c>
-      <c r="L60" s="2"/>
+      <c r="L60" s="2">
+        <v>1003114040</v>
+      </c>
       <c r="M60" s="2"/>
-      <c r="N60" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O60" s="2"/>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="P60" s="2"/>
       <c r="Q60" s="2"/>
       <c r="R60" s="2"/>
@@ -4486,53 +4513,53 @@
       <c r="U60" s="2"/>
       <c r="V60" s="2"/>
       <c r="W60" s="2"/>
-      <c r="X60" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y60" s="2">
-        <v>4220180000000</v>
+      <c r="X60" s="2"/>
+      <c r="Y60" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="Z60" s="2">
-        <v>4</v>
-      </c>
-      <c r="AA60" s="2" t="s">
-        <v>36</v>
+        <v>4220180000000</v>
+      </c>
+      <c r="AA60" s="2">
+        <v>4</v>
       </c>
       <c r="AB60" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC60" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="AC60" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="AD60" s="3"/>
-    </row>
-    <row r="61" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="AE60" s="3"/>
+    </row>
+    <row r="61" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D61" s="3">
         <v>60</v>
       </c>
-      <c r="E61" s="4">
+      <c r="F61" s="4">
         <v>118519</v>
       </c>
-      <c r="F61" s="4">
+      <c r="G61" s="4">
         <v>6014</v>
       </c>
-      <c r="G61" s="2" t="s">
+      <c r="H61" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="H61" s="2" t="s">
+      <c r="I61" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I61" s="2"/>
-      <c r="J61" s="2">
+      <c r="J61" s="2"/>
+      <c r="K61" s="2">
         <v>20201126</v>
       </c>
-      <c r="K61" s="2">
-        <v>1003114040</v>
-      </c>
-      <c r="L61" s="2"/>
+      <c r="L61" s="2">
+        <v>1003114040</v>
+      </c>
       <c r="M61" s="2"/>
-      <c r="N61" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O61" s="2"/>
+      <c r="N61" s="2"/>
+      <c r="O61" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="P61" s="2"/>
       <c r="Q61" s="2"/>
       <c r="R61" s="2"/>
@@ -4541,55 +4568,55 @@
       <c r="U61" s="2"/>
       <c r="V61" s="2"/>
       <c r="W61" s="2"/>
-      <c r="X61" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y61" s="2">
-        <v>4220180000000</v>
+      <c r="X61" s="2"/>
+      <c r="Y61" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="Z61" s="2">
-        <v>4</v>
-      </c>
-      <c r="AA61" s="2" t="s">
-        <v>36</v>
+        <v>4220180000000</v>
+      </c>
+      <c r="AA61" s="2">
+        <v>4</v>
       </c>
       <c r="AB61" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC61" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="AC61" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="AD61" s="3"/>
-    </row>
-    <row r="62" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="AE61" s="3"/>
+    </row>
+    <row r="62" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D62" s="3">
         <v>61</v>
       </c>
-      <c r="E62" s="4">
+      <c r="F62" s="4">
         <v>118519</v>
       </c>
-      <c r="F62" s="4">
+      <c r="G62" s="4">
         <v>6025</v>
       </c>
-      <c r="G62" s="2" t="s">
+      <c r="H62" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="H62" s="1" t="s">
+      <c r="I62" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I62" s="1"/>
-      <c r="J62" s="1">
+      <c r="J62" s="1"/>
+      <c r="K62" s="1">
         <v>20211029</v>
       </c>
-      <c r="K62" s="2">
-        <v>1003114040</v>
-      </c>
-      <c r="L62" s="1">
+      <c r="L62" s="2">
+        <v>1003114040</v>
+      </c>
+      <c r="M62" s="1">
         <v>31970</v>
       </c>
-      <c r="M62" s="1"/>
-      <c r="N62" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O62" s="1"/>
+      <c r="N62" s="1"/>
+      <c r="O62" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="P62" s="1"/>
       <c r="Q62" s="1"/>
       <c r="R62" s="1"/>
@@ -4598,55 +4625,55 @@
       <c r="U62" s="1"/>
       <c r="V62" s="1"/>
       <c r="W62" s="1"/>
-      <c r="X62" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y62" s="2">
-        <v>4220180000000</v>
+      <c r="X62" s="1"/>
+      <c r="Y62" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="Z62" s="2">
-        <v>4</v>
-      </c>
-      <c r="AA62" s="2" t="s">
-        <v>36</v>
+        <v>4220180000000</v>
+      </c>
+      <c r="AA62" s="2">
+        <v>4</v>
       </c>
       <c r="AB62" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC62" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="AC62" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="AD62" s="3"/>
-    </row>
-    <row r="63" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="AE62" s="3"/>
+    </row>
+    <row r="63" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D63" s="3">
         <v>62</v>
       </c>
-      <c r="E63" s="4">
+      <c r="F63" s="4">
         <v>118521</v>
       </c>
-      <c r="F63" s="4">
+      <c r="G63" s="4">
         <v>6004</v>
       </c>
-      <c r="G63" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="H63" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I63" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I63" s="2"/>
-      <c r="J63" s="2">
+      <c r="J63" s="2"/>
+      <c r="K63" s="2">
         <v>20220823</v>
       </c>
-      <c r="K63" s="2">
-        <v>1003114040</v>
-      </c>
       <c r="L63" s="2">
+        <v>1003114040</v>
+      </c>
+      <c r="M63" s="2">
         <v>26163</v>
       </c>
-      <c r="M63" s="2"/>
-      <c r="N63" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O63" s="2"/>
+      <c r="N63" s="2"/>
+      <c r="O63" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="P63" s="2"/>
       <c r="Q63" s="2"/>
       <c r="R63" s="2"/>
@@ -4655,55 +4682,55 @@
       <c r="U63" s="2"/>
       <c r="V63" s="2"/>
       <c r="W63" s="2"/>
-      <c r="X63" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y63" s="2">
-        <v>4220180000000</v>
+      <c r="X63" s="2"/>
+      <c r="Y63" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="Z63" s="2">
-        <v>4</v>
-      </c>
-      <c r="AA63" s="2" t="s">
-        <v>36</v>
+        <v>4220180000000</v>
+      </c>
+      <c r="AA63" s="2">
+        <v>4</v>
       </c>
       <c r="AB63" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC63" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="AC63" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="AD63" s="3"/>
-    </row>
-    <row r="64" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="AE63" s="3"/>
+    </row>
+    <row r="64" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D64" s="3">
         <v>63</v>
       </c>
-      <c r="E64" s="4">
+      <c r="F64" s="4">
         <v>118522</v>
       </c>
-      <c r="F64" s="4">
+      <c r="G64" s="4">
         <v>6004</v>
       </c>
-      <c r="G64" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="H64" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I64" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I64" s="2"/>
-      <c r="J64" s="2">
+      <c r="J64" s="2"/>
+      <c r="K64" s="2">
         <v>20220527</v>
       </c>
-      <c r="K64" s="2">
-        <v>1003114040</v>
-      </c>
       <c r="L64" s="2">
+        <v>1003114040</v>
+      </c>
+      <c r="M64" s="2">
         <v>17139</v>
       </c>
-      <c r="M64" s="2"/>
-      <c r="N64" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O64" s="2"/>
+      <c r="N64" s="2"/>
+      <c r="O64" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="P64" s="2"/>
       <c r="Q64" s="2"/>
       <c r="R64" s="2"/>
@@ -4712,55 +4739,55 @@
       <c r="U64" s="2"/>
       <c r="V64" s="2"/>
       <c r="W64" s="2"/>
-      <c r="X64" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y64" s="2">
-        <v>4220180000000</v>
+      <c r="X64" s="2"/>
+      <c r="Y64" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="Z64" s="2">
-        <v>4</v>
-      </c>
-      <c r="AA64" s="2" t="s">
-        <v>36</v>
+        <v>4220180000000</v>
+      </c>
+      <c r="AA64" s="2">
+        <v>4</v>
       </c>
       <c r="AB64" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC64" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="AC64" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="AD64" s="3"/>
-    </row>
-    <row r="65" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="AE64" s="3"/>
+    </row>
+    <row r="65" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D65" s="3">
         <v>64</v>
       </c>
-      <c r="E65" s="4">
+      <c r="F65" s="4">
         <v>118524</v>
       </c>
-      <c r="F65" s="4">
+      <c r="G65" s="4">
         <v>6005</v>
       </c>
-      <c r="G65" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="H65" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I65" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I65" s="2"/>
-      <c r="J65" s="2">
+      <c r="J65" s="2"/>
+      <c r="K65" s="2">
         <v>20220628</v>
       </c>
-      <c r="K65" s="2">
-        <v>1003114040</v>
-      </c>
       <c r="L65" s="2">
+        <v>1003114040</v>
+      </c>
+      <c r="M65" s="2">
         <v>25418</v>
       </c>
-      <c r="M65" s="2"/>
-      <c r="N65" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O65" s="2"/>
+      <c r="N65" s="2"/>
+      <c r="O65" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="P65" s="2"/>
       <c r="Q65" s="2"/>
       <c r="R65" s="2"/>
@@ -4769,55 +4796,55 @@
       <c r="U65" s="2"/>
       <c r="V65" s="2"/>
       <c r="W65" s="2"/>
-      <c r="X65" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y65" s="2">
-        <v>4220180000000</v>
+      <c r="X65" s="2"/>
+      <c r="Y65" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="Z65" s="2">
-        <v>4</v>
-      </c>
-      <c r="AA65" s="2" t="s">
-        <v>36</v>
+        <v>4220180000000</v>
+      </c>
+      <c r="AA65" s="2">
+        <v>4</v>
       </c>
       <c r="AB65" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC65" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="AC65" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="AD65" s="3"/>
-    </row>
-    <row r="66" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="AE65" s="3"/>
+    </row>
+    <row r="66" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D66" s="3">
         <v>65</v>
       </c>
-      <c r="E66" s="4">
+      <c r="F66" s="4">
         <v>118525</v>
       </c>
-      <c r="F66" s="4">
+      <c r="G66" s="4">
         <v>1037</v>
       </c>
-      <c r="G66" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="H66" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I66" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I66" s="2"/>
-      <c r="J66" s="2">
+      <c r="J66" s="2"/>
+      <c r="K66" s="2">
         <v>20211231</v>
       </c>
-      <c r="K66" s="2">
-        <v>1003114040</v>
-      </c>
       <c r="L66" s="2">
+        <v>1003114040</v>
+      </c>
+      <c r="M66" s="2">
         <v>18676</v>
       </c>
-      <c r="M66" s="2"/>
-      <c r="N66" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O66" s="2"/>
+      <c r="N66" s="2"/>
+      <c r="O66" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="P66" s="2"/>
       <c r="Q66" s="2"/>
       <c r="R66" s="2"/>
@@ -4826,53 +4853,53 @@
       <c r="U66" s="2"/>
       <c r="V66" s="2"/>
       <c r="W66" s="2"/>
-      <c r="X66" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y66" s="2">
-        <v>4220180000000</v>
+      <c r="X66" s="2"/>
+      <c r="Y66" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="Z66" s="2">
-        <v>4</v>
-      </c>
-      <c r="AA66" s="2" t="s">
-        <v>36</v>
+        <v>4220180000000</v>
+      </c>
+      <c r="AA66" s="2">
+        <v>4</v>
       </c>
       <c r="AB66" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC66" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="AC66" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="AD66" s="3"/>
-    </row>
-    <row r="67" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="AE66" s="3"/>
+    </row>
+    <row r="67" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D67" s="3">
         <v>66</v>
       </c>
-      <c r="E67" s="4">
+      <c r="F67" s="4">
         <v>118526</v>
       </c>
-      <c r="F67" s="4">
+      <c r="G67" s="4">
         <v>6026</v>
       </c>
-      <c r="G67" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="H67" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I67" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I67" s="2"/>
-      <c r="J67" s="2">
+      <c r="J67" s="2"/>
+      <c r="K67" s="2">
         <v>20211006</v>
       </c>
-      <c r="K67" s="2">
-        <v>1003114040</v>
-      </c>
-      <c r="L67" s="2"/>
+      <c r="L67" s="2">
+        <v>1003114040</v>
+      </c>
       <c r="M67" s="2"/>
-      <c r="N67" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O67" s="2"/>
+      <c r="N67" s="2"/>
+      <c r="O67" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="P67" s="2"/>
       <c r="Q67" s="2"/>
       <c r="R67" s="2"/>
@@ -4881,55 +4908,55 @@
       <c r="U67" s="2"/>
       <c r="V67" s="2"/>
       <c r="W67" s="2"/>
-      <c r="X67" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y67" s="2">
-        <v>4220180000000</v>
+      <c r="X67" s="2"/>
+      <c r="Y67" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="Z67" s="2">
-        <v>4</v>
-      </c>
-      <c r="AA67" s="2" t="s">
-        <v>36</v>
+        <v>4220180000000</v>
+      </c>
+      <c r="AA67" s="2">
+        <v>4</v>
       </c>
       <c r="AB67" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC67" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="AC67" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D68" s="3">
         <v>67</v>
       </c>
-      <c r="E68" s="4">
+      <c r="F68" s="4">
         <v>118527</v>
       </c>
-      <c r="F68" s="4">
+      <c r="G68" s="4">
         <v>6026</v>
       </c>
-      <c r="G68" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="H68" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I68" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I68" s="2"/>
-      <c r="J68" s="2">
+      <c r="J68" s="2"/>
+      <c r="K68" s="2">
         <v>20220423</v>
       </c>
-      <c r="K68" s="2">
-        <v>1003114040</v>
-      </c>
       <c r="L68" s="2">
+        <v>1003114040</v>
+      </c>
+      <c r="M68" s="2">
         <v>2343</v>
       </c>
-      <c r="M68" s="2"/>
-      <c r="N68" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O68" s="2"/>
+      <c r="N68" s="2"/>
+      <c r="O68" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="P68" s="2"/>
       <c r="Q68" s="2"/>
       <c r="R68" s="2"/>
@@ -4938,55 +4965,55 @@
       <c r="U68" s="2"/>
       <c r="V68" s="2"/>
       <c r="W68" s="2"/>
-      <c r="X68" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y68" s="2">
-        <v>4220180000000</v>
+      <c r="X68" s="2"/>
+      <c r="Y68" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="Z68" s="2">
-        <v>4</v>
-      </c>
-      <c r="AA68" s="2" t="s">
-        <v>36</v>
+        <v>4220180000000</v>
+      </c>
+      <c r="AA68" s="2">
+        <v>4</v>
       </c>
       <c r="AB68" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC68" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="AC68" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="AD68" s="3"/>
-    </row>
-    <row r="69" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="AE68" s="3"/>
+    </row>
+    <row r="69" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D69" s="3">
         <v>68</v>
       </c>
-      <c r="E69" s="4">
+      <c r="F69" s="4">
         <v>118463</v>
       </c>
-      <c r="F69" s="4">
+      <c r="G69" s="4">
         <v>1050</v>
       </c>
-      <c r="G69" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="H69" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I69" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I69" s="2"/>
-      <c r="J69" s="2">
+      <c r="J69" s="2"/>
+      <c r="K69" s="2">
         <v>20200114</v>
       </c>
-      <c r="K69" s="2">
-        <v>1003114040</v>
-      </c>
       <c r="L69" s="2">
+        <v>1003114040</v>
+      </c>
+      <c r="M69" s="2">
         <v>17461</v>
       </c>
-      <c r="M69" s="2"/>
-      <c r="N69" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O69" s="2"/>
+      <c r="N69" s="2"/>
+      <c r="O69" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="P69" s="2"/>
       <c r="Q69" s="2"/>
       <c r="R69" s="2"/>
@@ -4995,55 +5022,55 @@
       <c r="U69" s="2"/>
       <c r="V69" s="2"/>
       <c r="W69" s="2"/>
-      <c r="X69" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y69" s="2">
-        <v>4220180000000</v>
+      <c r="X69" s="2"/>
+      <c r="Y69" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="Z69" s="2">
-        <v>4</v>
-      </c>
-      <c r="AA69" s="2" t="s">
-        <v>36</v>
+        <v>4220180000000</v>
+      </c>
+      <c r="AA69" s="2">
+        <v>4</v>
       </c>
       <c r="AB69" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC69" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="AC69" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="AD69" s="3"/>
-    </row>
-    <row r="70" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="AE69" s="3"/>
+    </row>
+    <row r="70" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D70" s="3">
         <v>69</v>
       </c>
-      <c r="E70" s="4">
+      <c r="F70" s="4">
         <v>118463</v>
       </c>
-      <c r="F70" s="4">
+      <c r="G70" s="4">
         <v>1001</v>
       </c>
-      <c r="G70" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="H70" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I70" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I70" s="2"/>
-      <c r="J70" s="2">
+      <c r="J70" s="2"/>
+      <c r="K70" s="2">
         <v>20211029</v>
       </c>
-      <c r="K70" s="2">
-        <v>1003114040</v>
-      </c>
       <c r="L70" s="2">
+        <v>1003114040</v>
+      </c>
+      <c r="M70" s="2">
         <v>31970</v>
       </c>
-      <c r="M70" s="2"/>
-      <c r="N70" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O70" s="2"/>
+      <c r="N70" s="2"/>
+      <c r="O70" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="P70" s="2"/>
       <c r="Q70" s="2"/>
       <c r="R70" s="2"/>
@@ -5052,55 +5079,55 @@
       <c r="U70" s="2"/>
       <c r="V70" s="2"/>
       <c r="W70" s="2"/>
-      <c r="X70" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y70" s="2">
-        <v>4220180000000</v>
+      <c r="X70" s="2"/>
+      <c r="Y70" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="Z70" s="2">
-        <v>4</v>
-      </c>
-      <c r="AA70" s="2" t="s">
-        <v>36</v>
+        <v>4220180000000</v>
+      </c>
+      <c r="AA70" s="2">
+        <v>4</v>
       </c>
       <c r="AB70" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC70" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="AC70" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="AD70" s="3"/>
-    </row>
-    <row r="71" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="AE70" s="3"/>
+    </row>
+    <row r="71" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D71" s="3">
         <v>70</v>
       </c>
-      <c r="E71" s="4">
+      <c r="F71" s="4">
         <v>118464</v>
       </c>
-      <c r="F71" s="4">
+      <c r="G71" s="4">
         <v>1050</v>
       </c>
-      <c r="G71" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="H71" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I71" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I71" s="2"/>
-      <c r="J71" s="2">
+      <c r="J71" s="2"/>
+      <c r="K71" s="2">
         <v>20211231</v>
       </c>
-      <c r="K71" s="2">
-        <v>1003114040</v>
-      </c>
       <c r="L71" s="2">
+        <v>1003114040</v>
+      </c>
+      <c r="M71" s="2">
         <v>18676</v>
       </c>
-      <c r="M71" s="2"/>
-      <c r="N71" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O71" s="2"/>
+      <c r="N71" s="2"/>
+      <c r="O71" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="P71" s="2"/>
       <c r="Q71" s="2"/>
       <c r="R71" s="2"/>
@@ -5109,53 +5136,53 @@
       <c r="U71" s="2"/>
       <c r="V71" s="2"/>
       <c r="W71" s="2"/>
-      <c r="X71" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y71" s="2">
-        <v>4220180000000</v>
+      <c r="X71" s="2"/>
+      <c r="Y71" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="Z71" s="2">
-        <v>4</v>
-      </c>
-      <c r="AA71" s="2" t="s">
-        <v>36</v>
+        <v>4220180000000</v>
+      </c>
+      <c r="AA71" s="2">
+        <v>4</v>
       </c>
       <c r="AB71" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC71" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="AC71" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="AD71" s="3"/>
-    </row>
-    <row r="72" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="AE71" s="3"/>
+    </row>
+    <row r="72" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D72" s="3">
         <v>71</v>
       </c>
-      <c r="E72" s="4">
+      <c r="F72" s="4">
         <v>118464</v>
       </c>
-      <c r="F72" s="4">
+      <c r="G72" s="4">
         <v>1150</v>
       </c>
-      <c r="G72" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="H72" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I72" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I72" s="2"/>
-      <c r="J72" s="2">
+      <c r="J72" s="2"/>
+      <c r="K72" s="2">
         <v>20211006</v>
       </c>
-      <c r="K72" s="2">
-        <v>1003114040</v>
-      </c>
-      <c r="L72" s="2"/>
+      <c r="L72" s="2">
+        <v>1003114040</v>
+      </c>
       <c r="M72" s="2"/>
-      <c r="N72" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O72" s="2"/>
+      <c r="N72" s="2"/>
+      <c r="O72" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="P72" s="2"/>
       <c r="Q72" s="2"/>
       <c r="R72" s="2"/>
@@ -5164,55 +5191,55 @@
       <c r="U72" s="2"/>
       <c r="V72" s="2"/>
       <c r="W72" s="2"/>
-      <c r="X72" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y72" s="2">
-        <v>4220180000000</v>
+      <c r="X72" s="2"/>
+      <c r="Y72" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="Z72" s="2">
-        <v>4</v>
-      </c>
-      <c r="AA72" s="2" t="s">
-        <v>36</v>
+        <v>4220180000000</v>
+      </c>
+      <c r="AA72" s="2">
+        <v>4</v>
       </c>
       <c r="AB72" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC72" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="AC72" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="AD72" s="3"/>
-    </row>
-    <row r="73" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="AE72" s="3"/>
+    </row>
+    <row r="73" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D73" s="3">
         <v>72</v>
       </c>
-      <c r="E73" s="4">
+      <c r="F73" s="4">
         <v>118464</v>
       </c>
-      <c r="F73" s="4">
+      <c r="G73" s="4">
         <v>1050</v>
       </c>
-      <c r="G73" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="H73" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I73" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I73" s="2"/>
-      <c r="J73" s="2">
+      <c r="J73" s="2"/>
+      <c r="K73" s="2">
         <v>20220423</v>
       </c>
-      <c r="K73" s="2">
-        <v>1003114040</v>
-      </c>
       <c r="L73" s="2">
+        <v>1003114040</v>
+      </c>
+      <c r="M73" s="2">
         <v>2343</v>
       </c>
-      <c r="M73" s="2"/>
-      <c r="N73" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O73" s="2"/>
+      <c r="N73" s="2"/>
+      <c r="O73" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="P73" s="2"/>
       <c r="Q73" s="2"/>
       <c r="R73" s="2"/>
@@ -5221,55 +5248,55 @@
       <c r="U73" s="2"/>
       <c r="V73" s="2"/>
       <c r="W73" s="2"/>
-      <c r="X73" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y73" s="2">
-        <v>4220180000000</v>
+      <c r="X73" s="2"/>
+      <c r="Y73" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="Z73" s="2">
-        <v>4</v>
-      </c>
-      <c r="AA73" s="2" t="s">
-        <v>36</v>
+        <v>4220180000000</v>
+      </c>
+      <c r="AA73" s="2">
+        <v>4</v>
       </c>
       <c r="AB73" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC73" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="AC73" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="AD73" s="3"/>
-    </row>
-    <row r="74" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="AE73" s="3"/>
+    </row>
+    <row r="74" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D74" s="3">
         <v>73</v>
       </c>
-      <c r="E74" s="4">
+      <c r="F74" s="4">
         <v>118465</v>
       </c>
-      <c r="F74" s="4">
+      <c r="G74" s="4">
         <v>1050</v>
       </c>
-      <c r="G74" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="H74" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I74" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I74" s="2"/>
-      <c r="J74" s="2">
+      <c r="J74" s="2"/>
+      <c r="K74" s="2">
         <v>20200114</v>
       </c>
-      <c r="K74" s="2">
-        <v>1003114040</v>
-      </c>
       <c r="L74" s="2">
+        <v>1003114040</v>
+      </c>
+      <c r="M74" s="2">
         <v>17461</v>
       </c>
-      <c r="M74" s="2"/>
-      <c r="N74" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O74" s="2"/>
+      <c r="N74" s="2"/>
+      <c r="O74" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="P74" s="2"/>
       <c r="Q74" s="2"/>
       <c r="R74" s="2"/>
@@ -5278,55 +5305,55 @@
       <c r="U74" s="2"/>
       <c r="V74" s="2"/>
       <c r="W74" s="2"/>
-      <c r="X74" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y74" s="2">
-        <v>4220180000000</v>
+      <c r="X74" s="2"/>
+      <c r="Y74" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="Z74" s="2">
-        <v>4</v>
-      </c>
-      <c r="AA74" s="2" t="s">
-        <v>36</v>
+        <v>4220180000000</v>
+      </c>
+      <c r="AA74" s="2">
+        <v>4</v>
       </c>
       <c r="AB74" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC74" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="AC74" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="AD74" s="3"/>
-    </row>
-    <row r="75" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="AE74" s="3"/>
+    </row>
+    <row r="75" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D75" s="3">
         <v>74</v>
       </c>
-      <c r="E75" s="4">
+      <c r="F75" s="4">
         <v>118467</v>
       </c>
-      <c r="F75" s="4">
+      <c r="G75" s="4">
         <v>1050</v>
       </c>
-      <c r="G75" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="H75" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I75" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="I75" s="2"/>
-      <c r="J75" s="2">
+      <c r="J75" s="2"/>
+      <c r="K75" s="2">
         <v>20220728</v>
       </c>
-      <c r="K75" s="2">
-        <v>1003114040</v>
-      </c>
       <c r="L75" s="2">
+        <v>1003114040</v>
+      </c>
+      <c r="M75" s="2">
         <v>24890</v>
       </c>
-      <c r="M75" s="2"/>
-      <c r="N75" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O75" s="2"/>
+      <c r="N75" s="2"/>
+      <c r="O75" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="P75" s="2"/>
       <c r="Q75" s="2"/>
       <c r="R75" s="2"/>
@@ -5335,55 +5362,55 @@
       <c r="U75" s="2"/>
       <c r="V75" s="2"/>
       <c r="W75" s="2"/>
-      <c r="X75" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y75" s="2">
-        <v>4220180000000</v>
+      <c r="X75" s="2"/>
+      <c r="Y75" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="Z75" s="2">
-        <v>4</v>
-      </c>
-      <c r="AA75" s="2" t="s">
-        <v>36</v>
+        <v>4220180000000</v>
+      </c>
+      <c r="AA75" s="2">
+        <v>4</v>
       </c>
       <c r="AB75" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC75" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="AC75" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="AD75" s="3"/>
-    </row>
-    <row r="76" spans="4:30" x14ac:dyDescent="0.25">
+      <c r="AE75" s="3"/>
+    </row>
+    <row r="76" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D76" s="3">
         <v>75</v>
       </c>
-      <c r="E76" s="4">
+      <c r="F76" s="4">
         <v>118469</v>
       </c>
-      <c r="F76" s="4">
+      <c r="G76" s="4">
         <v>1050</v>
       </c>
-      <c r="G76" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="H76" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I76" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I76" s="2"/>
-      <c r="J76" s="2">
+      <c r="J76" s="2"/>
+      <c r="K76" s="2">
         <v>20210903</v>
       </c>
-      <c r="K76" s="2">
-        <v>1003114040</v>
-      </c>
       <c r="L76" s="2">
+        <v>1003114040</v>
+      </c>
+      <c r="M76" s="2">
         <v>30162</v>
       </c>
-      <c r="M76" s="2"/>
-      <c r="N76" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O76" s="2"/>
+      <c r="N76" s="2"/>
+      <c r="O76" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="P76" s="2"/>
       <c r="Q76" s="2"/>
       <c r="R76" s="2"/>
@@ -5392,51 +5419,51 @@
       <c r="U76" s="2"/>
       <c r="V76" s="2"/>
       <c r="W76" s="2"/>
-      <c r="X76" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y76" s="2">
-        <v>4220180000000</v>
+      <c r="X76" s="2"/>
+      <c r="Y76" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="Z76" s="2">
-        <v>4</v>
-      </c>
-      <c r="AA76" s="2" t="s">
-        <v>36</v>
+        <v>4220180000000</v>
+      </c>
+      <c r="AA76" s="2">
+        <v>4</v>
       </c>
       <c r="AB76" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="77" spans="4:30" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="AC76" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="77" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D77" s="3">
         <v>76</v>
       </c>
-      <c r="E77" s="4">
+      <c r="F77" s="4">
         <v>118470</v>
       </c>
-      <c r="F77" s="4">
+      <c r="G77" s="4">
         <v>1050</v>
       </c>
-      <c r="G77" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="H77" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I77" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I77" s="2"/>
-      <c r="J77" s="2">
+      <c r="J77" s="2"/>
+      <c r="K77" s="2">
         <v>20191125</v>
       </c>
-      <c r="K77" s="2">
-        <v>1003114040</v>
-      </c>
-      <c r="L77" s="2"/>
+      <c r="L77" s="2">
+        <v>1003114040</v>
+      </c>
       <c r="M77" s="2"/>
-      <c r="N77" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O77" s="2"/>
+      <c r="N77" s="2"/>
+      <c r="O77" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="P77" s="2"/>
       <c r="Q77" s="2"/>
       <c r="R77" s="2"/>
@@ -5445,112 +5472,112 @@
       <c r="U77" s="2"/>
       <c r="V77" s="2"/>
       <c r="W77" s="2"/>
-      <c r="X77" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y77" s="2">
-        <v>4220180000000</v>
+      <c r="X77" s="2"/>
+      <c r="Y77" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="Z77" s="2">
-        <v>4</v>
-      </c>
-      <c r="AA77" s="2" t="s">
-        <v>36</v>
+        <v>4220180000000</v>
+      </c>
+      <c r="AA77" s="2">
+        <v>4</v>
       </c>
       <c r="AB77" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="78" spans="4:30" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="AC77" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="78" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D78" s="3">
         <v>77</v>
       </c>
-      <c r="E78" s="4">
+      <c r="F78" s="4">
         <v>118471</v>
       </c>
-      <c r="F78" s="4">
+      <c r="G78" s="4">
         <v>1050</v>
       </c>
-      <c r="G78" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="H78" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I78" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="I78" s="2"/>
-      <c r="J78" s="2">
+      <c r="J78" s="2"/>
+      <c r="K78" s="2">
         <v>20210716</v>
       </c>
-      <c r="K78" s="2">
-        <v>1003114040</v>
-      </c>
-      <c r="L78" s="2"/>
+      <c r="L78" s="2">
+        <v>1003114040</v>
+      </c>
       <c r="M78" s="2"/>
-      <c r="N78" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O78" s="2"/>
+      <c r="N78" s="2"/>
+      <c r="O78" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="P78" s="2"/>
       <c r="Q78" s="2"/>
       <c r="R78" s="2"/>
-      <c r="S78" s="2" t="s">
+      <c r="S78" s="2"/>
+      <c r="T78" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="T78" s="2" t="s">
+      <c r="U78" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="U78" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="V78" s="2"/>
-      <c r="W78" s="2">
+      <c r="V78" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="W78" s="2"/>
+      <c r="X78" s="2">
         <v>20910304</v>
       </c>
-      <c r="X78" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y78" s="2">
-        <v>4220180000000</v>
+      <c r="Y78" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="Z78" s="2">
-        <v>4</v>
-      </c>
-      <c r="AA78" s="2" t="s">
-        <v>36</v>
+        <v>4220180000000</v>
+      </c>
+      <c r="AA78" s="2">
+        <v>4</v>
       </c>
       <c r="AB78" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="79" spans="4:30" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="AC78" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="79" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D79" s="3">
         <v>78</v>
       </c>
-      <c r="E79" s="4">
+      <c r="F79" s="4">
         <v>118473</v>
       </c>
-      <c r="F79" s="4">
+      <c r="G79" s="4">
         <v>1050</v>
       </c>
-      <c r="G79" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="H79" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I79" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I79" s="2"/>
-      <c r="J79" s="2">
+      <c r="J79" s="2"/>
+      <c r="K79" s="2">
         <v>20220912</v>
       </c>
-      <c r="K79" s="2">
-        <v>1003114040</v>
-      </c>
-      <c r="L79" s="2"/>
+      <c r="L79" s="2">
+        <v>1003114040</v>
+      </c>
       <c r="M79" s="2"/>
-      <c r="N79" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O79" s="2"/>
+      <c r="N79" s="2"/>
+      <c r="O79" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="P79" s="2"/>
       <c r="Q79" s="2"/>
       <c r="R79" s="2"/>
@@ -5559,51 +5586,51 @@
       <c r="U79" s="2"/>
       <c r="V79" s="2"/>
       <c r="W79" s="2"/>
-      <c r="X79" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y79" s="2">
-        <v>4220180000000</v>
+      <c r="X79" s="2"/>
+      <c r="Y79" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="Z79" s="2">
-        <v>4</v>
-      </c>
-      <c r="AA79" s="2" t="s">
-        <v>36</v>
+        <v>4220180000000</v>
+      </c>
+      <c r="AA79" s="2">
+        <v>4</v>
       </c>
       <c r="AB79" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="80" spans="4:30" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="AC79" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="80" spans="4:31" x14ac:dyDescent="0.25">
       <c r="D80" s="3">
         <v>79</v>
       </c>
-      <c r="E80" s="4">
+      <c r="F80" s="4">
         <v>118474</v>
       </c>
-      <c r="F80" s="4">
+      <c r="G80" s="4">
         <v>1050</v>
       </c>
-      <c r="G80" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="H80" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I80" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I80" s="2"/>
-      <c r="J80" s="2">
+      <c r="J80" s="2"/>
+      <c r="K80" s="2">
         <v>20201126</v>
       </c>
-      <c r="K80" s="2">
-        <v>1003114040</v>
-      </c>
-      <c r="L80" s="2"/>
+      <c r="L80" s="2">
+        <v>1003114040</v>
+      </c>
       <c r="M80" s="2"/>
-      <c r="N80" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O80" s="2"/>
+      <c r="N80" s="2"/>
+      <c r="O80" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="P80" s="2"/>
       <c r="Q80" s="2"/>
       <c r="R80" s="2"/>
@@ -5612,53 +5639,53 @@
       <c r="U80" s="2"/>
       <c r="V80" s="2"/>
       <c r="W80" s="2"/>
-      <c r="X80" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y80" s="2">
-        <v>4220180000000</v>
+      <c r="X80" s="2"/>
+      <c r="Y80" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="Z80" s="2">
-        <v>4</v>
-      </c>
-      <c r="AA80" s="2" t="s">
-        <v>36</v>
+        <v>4220180000000</v>
+      </c>
+      <c r="AA80" s="2">
+        <v>4</v>
       </c>
       <c r="AB80" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="81" spans="4:34" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="AC80" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="81" spans="4:35" x14ac:dyDescent="0.25">
       <c r="D81" s="3">
         <v>80</v>
       </c>
-      <c r="E81" s="4">
+      <c r="F81" s="4">
         <v>118475</v>
       </c>
-      <c r="F81" s="4">
+      <c r="G81" s="4">
         <v>1050</v>
       </c>
-      <c r="G81" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="H81" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I81" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I81" s="2"/>
-      <c r="J81" s="2">
+      <c r="J81" s="2"/>
+      <c r="K81" s="2">
         <v>20211029</v>
       </c>
-      <c r="K81" s="2">
-        <v>1003114040</v>
-      </c>
       <c r="L81" s="2">
+        <v>1003114040</v>
+      </c>
+      <c r="M81" s="2">
         <v>31970</v>
       </c>
-      <c r="M81" s="2"/>
-      <c r="N81" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O81" s="2"/>
+      <c r="N81" s="2"/>
+      <c r="O81" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="P81" s="2"/>
       <c r="Q81" s="2"/>
       <c r="R81" s="2"/>
@@ -5667,114 +5694,114 @@
       <c r="U81" s="2"/>
       <c r="V81" s="2"/>
       <c r="W81" s="2"/>
-      <c r="X81" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y81" s="2">
-        <v>4220180000000</v>
+      <c r="X81" s="2"/>
+      <c r="Y81" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="Z81" s="2">
-        <v>4</v>
-      </c>
-      <c r="AA81" s="2" t="s">
-        <v>36</v>
+        <v>4220180000000</v>
+      </c>
+      <c r="AA81" s="2">
+        <v>4</v>
       </c>
       <c r="AB81" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="82" spans="4:34" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="AC81" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="82" spans="4:35" x14ac:dyDescent="0.25">
       <c r="D82" s="3">
         <v>81</v>
       </c>
-      <c r="E82" s="4">
+      <c r="F82" s="4">
         <v>118476</v>
       </c>
-      <c r="F82" s="4">
+      <c r="G82" s="4">
         <v>1050</v>
       </c>
-      <c r="G82" s="2" t="s">
+      <c r="H82" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H82" s="2" t="s">
+      <c r="I82" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="I82" s="2"/>
-      <c r="J82" s="2">
+      <c r="J82" s="2"/>
+      <c r="K82" s="2">
         <v>20210716</v>
       </c>
-      <c r="K82" s="2">
-        <v>1003114040</v>
-      </c>
-      <c r="L82" s="2"/>
+      <c r="L82" s="2">
+        <v>1003114040</v>
+      </c>
       <c r="M82" s="2"/>
-      <c r="N82" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O82" s="2"/>
+      <c r="N82" s="2"/>
+      <c r="O82" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="P82" s="2"/>
       <c r="Q82" s="2"/>
       <c r="R82" s="2"/>
-      <c r="S82" s="2" t="s">
+      <c r="S82" s="2"/>
+      <c r="T82" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="T82" s="2" t="s">
+      <c r="U82" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="U82" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="V82" s="2"/>
-      <c r="W82" s="2">
+      <c r="V82" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="W82" s="2"/>
+      <c r="X82" s="2">
         <v>20910304</v>
       </c>
-      <c r="X82" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y82" s="2">
-        <v>4220180000000</v>
+      <c r="Y82" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="Z82" s="2">
-        <v>4</v>
-      </c>
-      <c r="AA82" s="2" t="s">
-        <v>36</v>
+        <v>4220180000000</v>
+      </c>
+      <c r="AA82" s="2">
+        <v>4</v>
       </c>
       <c r="AB82" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="83" spans="4:34" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="AC82" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="83" spans="4:35" x14ac:dyDescent="0.25">
       <c r="D83" s="3">
         <v>82</v>
       </c>
-      <c r="E83" s="4">
+      <c r="F83" s="4">
         <v>118477</v>
       </c>
-      <c r="F83" s="4">
+      <c r="G83" s="4">
         <v>1050</v>
       </c>
-      <c r="G83" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="H83" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I83" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I83" s="2"/>
-      <c r="J83" s="2">
+      <c r="J83" s="2"/>
+      <c r="K83" s="2">
         <v>20220823</v>
       </c>
-      <c r="K83" s="2">
-        <v>1003114040</v>
-      </c>
       <c r="L83" s="2">
+        <v>1003114040</v>
+      </c>
+      <c r="M83" s="2">
         <v>26163</v>
       </c>
-      <c r="M83" s="2"/>
-      <c r="N83" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O83" s="2"/>
+      <c r="N83" s="2"/>
+      <c r="O83" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="P83" s="2"/>
       <c r="Q83" s="2"/>
       <c r="R83" s="2"/>
@@ -5783,53 +5810,53 @@
       <c r="U83" s="2"/>
       <c r="V83" s="2"/>
       <c r="W83" s="2"/>
-      <c r="X83" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y83" s="2">
-        <v>4220180000000</v>
+      <c r="X83" s="2"/>
+      <c r="Y83" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="Z83" s="2">
-        <v>4</v>
-      </c>
-      <c r="AA83" s="2" t="s">
-        <v>36</v>
+        <v>4220180000000</v>
+      </c>
+      <c r="AA83" s="2">
+        <v>4</v>
       </c>
       <c r="AB83" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="84" spans="4:34" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="AC83" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="84" spans="4:35" x14ac:dyDescent="0.25">
       <c r="D84" s="3">
         <v>83</v>
       </c>
-      <c r="E84" s="4">
+      <c r="F84" s="4">
         <v>118478</v>
       </c>
-      <c r="F84" s="4">
+      <c r="G84" s="4">
         <v>1050</v>
       </c>
-      <c r="G84" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="H84" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I84" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="I84" s="2"/>
-      <c r="J84" s="2">
+      <c r="J84" s="2"/>
+      <c r="K84" s="2">
         <v>20220728</v>
       </c>
-      <c r="K84" s="2">
-        <v>1003114040</v>
-      </c>
       <c r="L84" s="2">
+        <v>1003114040</v>
+      </c>
+      <c r="M84" s="2">
         <v>24890</v>
       </c>
-      <c r="M84" s="2"/>
-      <c r="N84" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O84" s="2"/>
+      <c r="N84" s="2"/>
+      <c r="O84" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="P84" s="2"/>
       <c r="Q84" s="2"/>
       <c r="R84" s="2"/>
@@ -5838,53 +5865,53 @@
       <c r="U84" s="2"/>
       <c r="V84" s="2"/>
       <c r="W84" s="2"/>
-      <c r="X84" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y84" s="2">
-        <v>4220180000000</v>
+      <c r="X84" s="2"/>
+      <c r="Y84" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="Z84" s="2">
-        <v>4</v>
-      </c>
-      <c r="AA84" s="2" t="s">
-        <v>36</v>
+        <v>4220180000000</v>
+      </c>
+      <c r="AA84" s="2">
+        <v>4</v>
       </c>
       <c r="AB84" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="85" spans="4:34" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="AC84" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="85" spans="4:35" x14ac:dyDescent="0.25">
       <c r="D85" s="3">
         <v>84</v>
       </c>
-      <c r="E85" s="4">
+      <c r="F85" s="4">
         <v>118479</v>
       </c>
-      <c r="F85" s="4">
+      <c r="G85" s="4">
         <v>1050</v>
       </c>
-      <c r="G85" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="H85" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I85" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I85" s="1"/>
-      <c r="J85" s="1">
+      <c r="J85" s="1"/>
+      <c r="K85" s="1">
         <v>20220823</v>
       </c>
-      <c r="K85" s="2">
-        <v>1003114040</v>
-      </c>
-      <c r="L85" s="1">
+      <c r="L85" s="2">
+        <v>1003114040</v>
+      </c>
+      <c r="M85" s="1">
         <v>26163</v>
       </c>
-      <c r="M85" s="1"/>
-      <c r="N85" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O85" s="1"/>
+      <c r="N85" s="1"/>
+      <c r="O85" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="P85" s="1"/>
       <c r="Q85" s="1"/>
       <c r="R85" s="1"/>
@@ -5893,53 +5920,53 @@
       <c r="U85" s="1"/>
       <c r="V85" s="1"/>
       <c r="W85" s="1"/>
-      <c r="X85" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y85" s="2">
-        <v>4220180000000</v>
+      <c r="X85" s="1"/>
+      <c r="Y85" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="Z85" s="2">
-        <v>4</v>
-      </c>
-      <c r="AA85" s="2" t="s">
-        <v>36</v>
+        <v>4220180000000</v>
+      </c>
+      <c r="AA85" s="2">
+        <v>4</v>
       </c>
       <c r="AB85" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="86" spans="4:34" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="AC85" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="86" spans="4:35" x14ac:dyDescent="0.25">
       <c r="D86" s="3">
         <v>85</v>
       </c>
-      <c r="E86" s="4">
+      <c r="F86" s="4">
         <v>118480</v>
       </c>
-      <c r="F86" s="4">
+      <c r="G86" s="4">
         <v>1050</v>
       </c>
-      <c r="G86" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="H86" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I86" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I86" s="1"/>
-      <c r="J86" s="1">
+      <c r="J86" s="1"/>
+      <c r="K86" s="1">
         <v>20220527</v>
       </c>
-      <c r="K86" s="2">
-        <v>1003114040</v>
-      </c>
-      <c r="L86" s="1">
+      <c r="L86" s="2">
+        <v>1003114040</v>
+      </c>
+      <c r="M86" s="1">
         <v>17139</v>
       </c>
-      <c r="M86" s="1"/>
-      <c r="N86" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O86" s="1"/>
+      <c r="N86" s="1"/>
+      <c r="O86" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="P86" s="1"/>
       <c r="Q86" s="1"/>
       <c r="R86" s="1"/>
@@ -5948,53 +5975,53 @@
       <c r="U86" s="1"/>
       <c r="V86" s="1"/>
       <c r="W86" s="1"/>
-      <c r="X86" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y86" s="2">
-        <v>4220180000000</v>
+      <c r="X86" s="1"/>
+      <c r="Y86" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="Z86" s="2">
-        <v>4</v>
-      </c>
-      <c r="AA86" s="2" t="s">
-        <v>36</v>
+        <v>4220180000000</v>
+      </c>
+      <c r="AA86" s="2">
+        <v>4</v>
       </c>
       <c r="AB86" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="87" spans="4:34" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="AC86" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="87" spans="4:35" x14ac:dyDescent="0.25">
       <c r="D87" s="3">
         <v>86</v>
       </c>
-      <c r="E87" s="4">
+      <c r="F87" s="4">
         <v>118481</v>
       </c>
-      <c r="F87" s="4">
+      <c r="G87" s="4">
         <v>1050</v>
       </c>
-      <c r="G87" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="H87" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I87" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I87" s="1"/>
-      <c r="J87" s="1">
+      <c r="J87" s="1"/>
+      <c r="K87" s="1">
         <v>20220628</v>
       </c>
-      <c r="K87" s="2">
-        <v>1003114040</v>
-      </c>
-      <c r="L87" s="1">
+      <c r="L87" s="2">
+        <v>1003114040</v>
+      </c>
+      <c r="M87" s="1">
         <v>25418</v>
       </c>
-      <c r="M87" s="1"/>
-      <c r="N87" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O87" s="1"/>
+      <c r="N87" s="1"/>
+      <c r="O87" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="P87" s="1"/>
       <c r="Q87" s="1"/>
       <c r="R87" s="1"/>
@@ -6003,53 +6030,53 @@
       <c r="U87" s="1"/>
       <c r="V87" s="1"/>
       <c r="W87" s="1"/>
-      <c r="X87" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y87" s="2">
-        <v>4220180000000</v>
+      <c r="X87" s="1"/>
+      <c r="Y87" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="Z87" s="2">
-        <v>4</v>
-      </c>
-      <c r="AA87" s="2" t="s">
-        <v>36</v>
+        <v>4220180000000</v>
+      </c>
+      <c r="AA87" s="2">
+        <v>4</v>
       </c>
       <c r="AB87" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="88" spans="4:34" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="AC87" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="88" spans="4:35" x14ac:dyDescent="0.25">
       <c r="D88" s="3">
         <v>87</v>
       </c>
-      <c r="E88" s="4">
+      <c r="F88" s="4">
         <v>118502</v>
       </c>
-      <c r="F88" s="4">
+      <c r="G88" s="4">
         <v>1150</v>
       </c>
-      <c r="G88" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="H88" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I88" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I88" s="1"/>
-      <c r="J88" s="1">
+      <c r="J88" s="1"/>
+      <c r="K88" s="1">
         <v>20211231</v>
       </c>
-      <c r="K88" s="2">
-        <v>1003114040</v>
-      </c>
-      <c r="L88" s="1">
+      <c r="L88" s="2">
+        <v>1003114040</v>
+      </c>
+      <c r="M88" s="1">
         <v>18676</v>
       </c>
-      <c r="M88" s="1"/>
-      <c r="N88" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O88" s="1"/>
+      <c r="N88" s="1"/>
+      <c r="O88" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="P88" s="1"/>
       <c r="Q88" s="1"/>
       <c r="R88" s="1"/>
@@ -6058,51 +6085,51 @@
       <c r="U88" s="1"/>
       <c r="V88" s="1"/>
       <c r="W88" s="1"/>
-      <c r="X88" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y88" s="2">
-        <v>4220180000000</v>
+      <c r="X88" s="1"/>
+      <c r="Y88" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="Z88" s="2">
-        <v>4</v>
-      </c>
-      <c r="AA88" s="2" t="s">
-        <v>36</v>
+        <v>4220180000000</v>
+      </c>
+      <c r="AA88" s="2">
+        <v>4</v>
       </c>
       <c r="AB88" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="89" spans="4:34" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="AC88" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="89" spans="4:35" x14ac:dyDescent="0.25">
       <c r="D89" s="3">
         <v>88</v>
       </c>
-      <c r="E89" s="4">
+      <c r="F89" s="4">
         <v>118503</v>
       </c>
-      <c r="F89" s="4">
+      <c r="G89" s="4">
         <v>1050</v>
       </c>
-      <c r="G89" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="H89" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I89" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I89" s="1"/>
-      <c r="J89" s="1">
+      <c r="J89" s="1"/>
+      <c r="K89" s="1">
         <v>20211006</v>
       </c>
-      <c r="K89" s="2">
-        <v>1003114040</v>
-      </c>
-      <c r="L89" s="1"/>
+      <c r="L89" s="2">
+        <v>1003114040</v>
+      </c>
       <c r="M89" s="1"/>
-      <c r="N89" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O89" s="1"/>
+      <c r="N89" s="1"/>
+      <c r="O89" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="P89" s="1"/>
       <c r="Q89" s="1"/>
       <c r="R89" s="1"/>
@@ -6111,53 +6138,53 @@
       <c r="U89" s="1"/>
       <c r="V89" s="1"/>
       <c r="W89" s="1"/>
-      <c r="X89" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y89" s="2">
-        <v>4220180000000</v>
+      <c r="X89" s="1"/>
+      <c r="Y89" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="Z89" s="2">
-        <v>4</v>
-      </c>
-      <c r="AA89" s="2" t="s">
-        <v>36</v>
+        <v>4220180000000</v>
+      </c>
+      <c r="AA89" s="2">
+        <v>4</v>
       </c>
       <c r="AB89" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="90" spans="4:34" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="AC89" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="90" spans="4:35" x14ac:dyDescent="0.25">
       <c r="D90" s="3">
         <v>89</v>
       </c>
-      <c r="E90" s="4">
+      <c r="F90" s="4">
         <v>118504</v>
       </c>
-      <c r="F90" s="4">
+      <c r="G90" s="4">
         <v>1001</v>
       </c>
-      <c r="G90" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="H90" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I90" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I90" s="1"/>
-      <c r="J90" s="1">
+      <c r="J90" s="1"/>
+      <c r="K90" s="1">
         <v>20220423</v>
       </c>
-      <c r="K90" s="2">
-        <v>1003114040</v>
-      </c>
-      <c r="L90" s="1">
+      <c r="L90" s="2">
+        <v>1003114040</v>
+      </c>
+      <c r="M90" s="1">
         <v>2343</v>
       </c>
-      <c r="M90" s="1"/>
-      <c r="N90" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O90" s="1"/>
+      <c r="N90" s="1"/>
+      <c r="O90" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="P90" s="1"/>
       <c r="Q90" s="1"/>
       <c r="R90" s="1"/>
@@ -6166,53 +6193,53 @@
       <c r="U90" s="1"/>
       <c r="V90" s="1"/>
       <c r="W90" s="1"/>
-      <c r="X90" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y90" s="2">
-        <v>4220180000000</v>
+      <c r="X90" s="1"/>
+      <c r="Y90" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="Z90" s="2">
-        <v>4</v>
-      </c>
-      <c r="AA90" s="2" t="s">
-        <v>36</v>
+        <v>4220180000000</v>
+      </c>
+      <c r="AA90" s="2">
+        <v>4</v>
       </c>
       <c r="AB90" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="91" spans="4:34" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="AC90" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="91" spans="4:35" x14ac:dyDescent="0.25">
       <c r="D91" s="3">
         <v>90</v>
       </c>
-      <c r="E91" s="4">
+      <c r="F91" s="4">
         <v>118505</v>
       </c>
-      <c r="F91" s="4">
+      <c r="G91" s="4">
         <v>1143</v>
       </c>
-      <c r="G91" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="H91" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I91" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I91" s="1"/>
-      <c r="J91" s="1">
+      <c r="J91" s="1"/>
+      <c r="K91" s="1">
         <v>20200114</v>
       </c>
-      <c r="K91" s="2">
-        <v>1003114040</v>
-      </c>
-      <c r="L91" s="1">
+      <c r="L91" s="2">
+        <v>1003114040</v>
+      </c>
+      <c r="M91" s="1">
         <v>17461</v>
       </c>
-      <c r="M91" s="1"/>
-      <c r="N91" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O91" s="1"/>
+      <c r="N91" s="1"/>
+      <c r="O91" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="P91" s="1"/>
       <c r="Q91" s="1"/>
       <c r="R91" s="1"/>
@@ -6221,53 +6248,53 @@
       <c r="U91" s="1"/>
       <c r="V91" s="1"/>
       <c r="W91" s="1"/>
-      <c r="X91" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y91" s="2">
-        <v>4220180000000</v>
+      <c r="X91" s="1"/>
+      <c r="Y91" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="Z91" s="2">
-        <v>4</v>
-      </c>
-      <c r="AA91" s="2" t="s">
-        <v>36</v>
+        <v>4220180000000</v>
+      </c>
+      <c r="AA91" s="2">
+        <v>4</v>
       </c>
       <c r="AB91" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="92" spans="4:34" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="AC91" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="92" spans="4:35" x14ac:dyDescent="0.25">
       <c r="D92" s="3">
         <v>91</v>
       </c>
-      <c r="E92" s="4">
+      <c r="F92" s="4">
         <v>118506</v>
       </c>
-      <c r="F92" s="4">
+      <c r="G92" s="4">
         <v>1001</v>
       </c>
-      <c r="G92" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="H92" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I92" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I92" s="1"/>
-      <c r="J92" s="1">
+      <c r="J92" s="1"/>
+      <c r="K92" s="1">
         <v>20220728</v>
       </c>
-      <c r="K92" s="2">
-        <v>1003114040</v>
-      </c>
-      <c r="L92" s="1">
+      <c r="L92" s="2">
+        <v>1003114040</v>
+      </c>
+      <c r="M92" s="1">
         <v>24890</v>
       </c>
-      <c r="M92" s="1"/>
-      <c r="N92" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O92" s="1"/>
+      <c r="N92" s="1"/>
+      <c r="O92" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="P92" s="1"/>
       <c r="Q92" s="1"/>
       <c r="R92" s="1"/>
@@ -6276,53 +6303,53 @@
       <c r="U92" s="1"/>
       <c r="V92" s="1"/>
       <c r="W92" s="1"/>
-      <c r="X92" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y92" s="2">
-        <v>4220180000000</v>
+      <c r="X92" s="1"/>
+      <c r="Y92" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="Z92" s="2">
-        <v>4</v>
-      </c>
-      <c r="AA92" s="2" t="s">
-        <v>36</v>
+        <v>4220180000000</v>
+      </c>
+      <c r="AA92" s="2">
+        <v>4</v>
       </c>
       <c r="AB92" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="93" spans="4:34" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="AC92" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="93" spans="4:35" x14ac:dyDescent="0.25">
       <c r="D93" s="3">
         <v>92</v>
       </c>
-      <c r="E93" s="4">
+      <c r="F93" s="4">
         <v>118507</v>
       </c>
-      <c r="F93" s="4">
+      <c r="G93" s="4">
         <v>1001</v>
       </c>
-      <c r="G93" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="H93" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I93" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I93" s="1"/>
-      <c r="J93" s="1">
+      <c r="J93" s="1"/>
+      <c r="K93" s="1">
         <v>20210903</v>
       </c>
-      <c r="K93" s="2">
-        <v>1003114040</v>
-      </c>
-      <c r="L93" s="1">
+      <c r="L93" s="2">
+        <v>1003114040</v>
+      </c>
+      <c r="M93" s="1">
         <v>30162</v>
       </c>
-      <c r="M93" s="1"/>
-      <c r="N93" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O93" s="1"/>
+      <c r="N93" s="1"/>
+      <c r="O93" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="P93" s="1"/>
       <c r="Q93" s="1"/>
       <c r="R93" s="1"/>
@@ -6331,51 +6358,51 @@
       <c r="U93" s="1"/>
       <c r="V93" s="1"/>
       <c r="W93" s="1"/>
-      <c r="X93" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y93" s="2">
-        <v>4220180000000</v>
+      <c r="X93" s="1"/>
+      <c r="Y93" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="Z93" s="2">
-        <v>4</v>
-      </c>
-      <c r="AA93" s="2" t="s">
-        <v>36</v>
+        <v>4220180000000</v>
+      </c>
+      <c r="AA93" s="2">
+        <v>4</v>
       </c>
       <c r="AB93" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="94" spans="4:34" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="AC93" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="94" spans="4:35" x14ac:dyDescent="0.25">
       <c r="D94" s="3">
         <v>93</v>
       </c>
-      <c r="E94" s="4">
+      <c r="F94" s="4">
         <v>118508</v>
       </c>
-      <c r="F94" s="4">
+      <c r="G94" s="4">
         <v>1050</v>
       </c>
-      <c r="G94" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="H94" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I94" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I94" s="1"/>
-      <c r="J94" s="1">
+      <c r="J94" s="1"/>
+      <c r="K94" s="1">
         <v>20211006</v>
       </c>
-      <c r="K94" s="2">
-        <v>1003114040</v>
-      </c>
-      <c r="L94" s="1"/>
+      <c r="L94" s="2">
+        <v>1003114040</v>
+      </c>
       <c r="M94" s="1"/>
-      <c r="N94" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O94" s="1"/>
+      <c r="N94" s="1"/>
+      <c r="O94" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="P94" s="1"/>
       <c r="Q94" s="1"/>
       <c r="R94" s="1"/>
@@ -6384,59 +6411,59 @@
       <c r="U94" s="1"/>
       <c r="V94" s="1"/>
       <c r="W94" s="1"/>
-      <c r="X94" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y94" s="2">
-        <v>4220180000000</v>
+      <c r="X94" s="1"/>
+      <c r="Y94" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="Z94" s="2">
-        <v>4</v>
-      </c>
-      <c r="AA94" s="2" t="s">
-        <v>36</v>
+        <v>4220180000000</v>
+      </c>
+      <c r="AA94" s="2">
+        <v>4</v>
       </c>
       <c r="AB94" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC94" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="AC94" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="AD94" s="3"/>
       <c r="AE94" s="3"/>
       <c r="AF94" s="3"/>
       <c r="AG94" s="3"/>
       <c r="AH94" s="3"/>
-    </row>
-    <row r="95" spans="4:34" x14ac:dyDescent="0.25">
+      <c r="AI94" s="3"/>
+    </row>
+    <row r="95" spans="4:35" x14ac:dyDescent="0.25">
       <c r="D95" s="3">
         <v>94</v>
       </c>
-      <c r="E95" s="4">
+      <c r="F95" s="4">
         <v>118509</v>
       </c>
-      <c r="F95" s="4">
+      <c r="G95" s="4">
         <v>6004</v>
       </c>
-      <c r="G95" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="H95" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I95" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I95" s="1"/>
-      <c r="J95" s="1">
+      <c r="J95" s="1"/>
+      <c r="K95" s="1">
         <v>20220423</v>
       </c>
-      <c r="K95" s="2">
-        <v>1003114040</v>
-      </c>
-      <c r="L95" s="1">
+      <c r="L95" s="2">
+        <v>1003114040</v>
+      </c>
+      <c r="M95" s="1">
         <v>2343</v>
       </c>
-      <c r="M95" s="1"/>
-      <c r="N95" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O95" s="1"/>
+      <c r="N95" s="1"/>
+      <c r="O95" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="P95" s="1"/>
       <c r="Q95" s="1"/>
       <c r="R95" s="1"/>
@@ -6445,59 +6472,59 @@
       <c r="U95" s="1"/>
       <c r="V95" s="1"/>
       <c r="W95" s="1"/>
-      <c r="X95" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y95" s="2">
-        <v>4220180000000</v>
+      <c r="X95" s="1"/>
+      <c r="Y95" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="Z95" s="2">
-        <v>4</v>
-      </c>
-      <c r="AA95" s="2" t="s">
-        <v>36</v>
+        <v>4220180000000</v>
+      </c>
+      <c r="AA95" s="2">
+        <v>4</v>
       </c>
       <c r="AB95" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC95" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="AC95" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
       <c r="AF95" s="3"/>
       <c r="AG95" s="3"/>
       <c r="AH95" s="3"/>
-    </row>
-    <row r="96" spans="4:34" x14ac:dyDescent="0.25">
+      <c r="AI95" s="3"/>
+    </row>
+    <row r="96" spans="4:35" x14ac:dyDescent="0.25">
       <c r="D96" s="3">
         <v>95</v>
       </c>
-      <c r="E96" s="4">
+      <c r="F96" s="4">
         <v>118510</v>
       </c>
-      <c r="F96" s="4">
+      <c r="G96" s="4">
         <v>1150</v>
       </c>
-      <c r="G96" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="H96" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I96" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I96" s="1"/>
-      <c r="J96" s="1">
+      <c r="J96" s="1"/>
+      <c r="K96" s="1">
         <v>20200114</v>
       </c>
-      <c r="K96" s="2">
-        <v>1003114040</v>
-      </c>
-      <c r="L96" s="1">
+      <c r="L96" s="2">
+        <v>1003114040</v>
+      </c>
+      <c r="M96" s="1">
         <v>17461</v>
       </c>
-      <c r="M96" s="1"/>
-      <c r="N96" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O96" s="1"/>
+      <c r="N96" s="1"/>
+      <c r="O96" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="P96" s="1"/>
       <c r="Q96" s="1"/>
       <c r="R96" s="1"/>
@@ -6506,59 +6533,59 @@
       <c r="U96" s="1"/>
       <c r="V96" s="1"/>
       <c r="W96" s="1"/>
-      <c r="X96" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y96" s="2">
-        <v>4220180000000</v>
+      <c r="X96" s="1"/>
+      <c r="Y96" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="Z96" s="2">
-        <v>4</v>
-      </c>
-      <c r="AA96" s="2" t="s">
-        <v>36</v>
+        <v>4220180000000</v>
+      </c>
+      <c r="AA96" s="2">
+        <v>4</v>
       </c>
       <c r="AB96" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC96" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="AC96" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="AD96" s="3"/>
       <c r="AE96" s="3"/>
       <c r="AF96" s="3"/>
       <c r="AG96" s="3"/>
       <c r="AH96" s="3"/>
-    </row>
-    <row r="97" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI96" s="3"/>
+    </row>
+    <row r="97" spans="1:35" x14ac:dyDescent="0.25">
       <c r="D97" s="3">
         <v>96</v>
       </c>
-      <c r="E97" s="4">
+      <c r="F97" s="4">
         <v>118511</v>
       </c>
-      <c r="F97" s="4">
+      <c r="G97" s="4">
         <v>1001</v>
       </c>
-      <c r="G97" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="H97" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I97" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I97" s="1"/>
-      <c r="J97" s="1">
+      <c r="J97" s="1"/>
+      <c r="K97" s="1">
         <v>20220728</v>
       </c>
-      <c r="K97" s="2">
-        <v>1003114040</v>
-      </c>
-      <c r="L97" s="1">
+      <c r="L97" s="2">
+        <v>1003114040</v>
+      </c>
+      <c r="M97" s="1">
         <v>24890</v>
       </c>
-      <c r="M97" s="1"/>
-      <c r="N97" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O97" s="1"/>
+      <c r="N97" s="1"/>
+      <c r="O97" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="P97" s="1"/>
       <c r="Q97" s="1"/>
       <c r="R97" s="1"/>
@@ -6567,59 +6594,59 @@
       <c r="U97" s="1"/>
       <c r="V97" s="1"/>
       <c r="W97" s="1"/>
-      <c r="X97" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y97" s="2">
-        <v>4220180000000</v>
+      <c r="X97" s="1"/>
+      <c r="Y97" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="Z97" s="2">
-        <v>4</v>
-      </c>
-      <c r="AA97" s="2" t="s">
-        <v>36</v>
+        <v>4220180000000</v>
+      </c>
+      <c r="AA97" s="2">
+        <v>4</v>
       </c>
       <c r="AB97" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC97" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="AC97" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="AD97" s="3"/>
       <c r="AE97" s="3"/>
       <c r="AF97" s="3"/>
       <c r="AG97" s="3"/>
       <c r="AH97" s="3"/>
-    </row>
-    <row r="98" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI97" s="3"/>
+    </row>
+    <row r="98" spans="1:35" x14ac:dyDescent="0.25">
       <c r="D98" s="3">
         <v>97</v>
       </c>
-      <c r="E98" s="4">
+      <c r="F98" s="4">
         <v>118512</v>
       </c>
-      <c r="F98" s="4">
+      <c r="G98" s="4">
         <v>6004</v>
       </c>
-      <c r="G98" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="H98" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I98" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I98" s="1"/>
-      <c r="J98" s="1">
+      <c r="J98" s="1"/>
+      <c r="K98" s="1">
         <v>20210903</v>
       </c>
-      <c r="K98" s="2">
-        <v>1003114040</v>
-      </c>
-      <c r="L98" s="1">
+      <c r="L98" s="2">
+        <v>1003114040</v>
+      </c>
+      <c r="M98" s="1">
         <v>30162</v>
       </c>
-      <c r="M98" s="1"/>
-      <c r="N98" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O98" s="1"/>
+      <c r="N98" s="1"/>
+      <c r="O98" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="P98" s="1"/>
       <c r="Q98" s="1"/>
       <c r="R98" s="1"/>
@@ -6628,29 +6655,30 @@
       <c r="U98" s="1"/>
       <c r="V98" s="1"/>
       <c r="W98" s="1"/>
-      <c r="X98" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y98" s="2">
-        <v>4220180000000</v>
+      <c r="X98" s="1"/>
+      <c r="Y98" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="Z98" s="2">
-        <v>4</v>
-      </c>
-      <c r="AA98" s="2" t="s">
-        <v>36</v>
+        <v>4220180000000</v>
+      </c>
+      <c r="AA98" s="2">
+        <v>4</v>
       </c>
       <c r="AB98" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC98" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="AC98" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="AD98" s="3"/>
       <c r="AE98" s="3"/>
       <c r="AF98" s="3"/>
       <c r="AG98" s="3"/>
       <c r="AH98" s="3"/>
-    </row>
-    <row r="99" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI98" s="3"/>
+    </row>
+    <row r="99" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>51</v>
       </c>
@@ -6661,7 +6689,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="100" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>51</v>
       </c>
@@ -7157,7 +7185,7 @@
   <dimension ref="A1:Z98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Excel Data/Accounts.xlsx
+++ b/Excel Data/Accounts.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Customers" sheetId="2" r:id="rId2"/>
-    <sheet name="Old Sheet" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
+    <sheet name="Customers" sheetId="2" r:id="rId3"/>
+    <sheet name="Old Sheet" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1261" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="56">
   <si>
     <t>CATEGORY</t>
   </si>
@@ -1013,8 +1014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G6"/>
+    <sheetView topLeftCell="AC1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:AC11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6707,6 +6708,576 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>1010</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2">
+        <v>20220527</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1003114040</v>
+      </c>
+      <c r="G2" s="2">
+        <v>17139</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="T2" s="2">
+        <v>4220180000000</v>
+      </c>
+      <c r="U2" s="2">
+        <v>4</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>1003</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2">
+        <v>20210903</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1003114040</v>
+      </c>
+      <c r="G3" s="2">
+        <v>30162</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="T3" s="2">
+        <v>4220180000000</v>
+      </c>
+      <c r="U3" s="2">
+        <v>4</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>1007</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2">
+        <v>20191125</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1003114040</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="T4" s="2">
+        <v>4220180000000</v>
+      </c>
+      <c r="U4" s="2">
+        <v>4</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>1010</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2">
+        <v>20220628</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1003114040</v>
+      </c>
+      <c r="G5" s="2">
+        <v>25418</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="T5" s="2">
+        <v>4220180000000</v>
+      </c>
+      <c r="U5" s="2">
+        <v>4</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W5" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>1011</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2">
+        <v>20220912</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1003114040</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="T6" s="2">
+        <v>4220180000000</v>
+      </c>
+      <c r="U6" s="2">
+        <v>4</v>
+      </c>
+      <c r="V6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W6" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2">
+        <v>20201126</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1003114040</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="T7" s="2">
+        <v>4220180000000</v>
+      </c>
+      <c r="U7" s="2">
+        <v>4</v>
+      </c>
+      <c r="V7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W7" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1">
+        <v>20211029</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1003114040</v>
+      </c>
+      <c r="G8" s="1">
+        <v>31970</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="T8" s="2">
+        <v>4220180000000</v>
+      </c>
+      <c r="U8" s="2">
+        <v>4</v>
+      </c>
+      <c r="V8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W8" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>6005</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2">
+        <v>20220823</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1003114040</v>
+      </c>
+      <c r="G9" s="2">
+        <v>26163</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="T9" s="2">
+        <v>4220180000000</v>
+      </c>
+      <c r="U9" s="2">
+        <v>4</v>
+      </c>
+      <c r="V9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W9" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>1003</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2">
+        <v>20220527</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1003114040</v>
+      </c>
+      <c r="G10" s="2">
+        <v>17139</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="T10" s="2">
+        <v>4220180000000</v>
+      </c>
+      <c r="U10" s="2">
+        <v>4</v>
+      </c>
+      <c r="V10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W10" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>1033</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2">
+        <v>20220628</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1003114040</v>
+      </c>
+      <c r="G11" s="2">
+        <v>25418</v>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="T11" s="2">
+        <v>4220180000000</v>
+      </c>
+      <c r="U11" s="2">
+        <v>4</v>
+      </c>
+      <c r="V11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W11" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7180,7 +7751,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z98"/>
   <sheetViews>

--- a/Excel Data/Accounts.xlsx
+++ b/Excel Data/Accounts.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Selenium Workspace Functional Testing\Retail Ops\Excel Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xcelliti5\IdeaProjects\Retail Project\Excel Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1345" uniqueCount="57">
   <si>
     <t>CATEGORY</t>
   </si>
@@ -195,6 +195,9 @@
   </si>
   <si>
     <t>CUSTOMER</t>
+  </si>
+  <si>
+    <t>ACC.OTH.FLAG:1</t>
   </si>
 </sst>
 </file>
@@ -6708,19 +6711,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W11"/>
+  <dimension ref="A1:X11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
+      <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="3"/>
+    <col min="21" max="21" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6749,49 +6753,52 @@
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1010</v>
       </c>
@@ -6824,23 +6831,24 @@
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
-      <c r="S2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="T2" s="2">
-        <v>4220180000000</v>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="U2" s="2">
-        <v>4</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>36</v>
+        <v>4220180000000</v>
+      </c>
+      <c r="V2" s="2">
+        <v>4</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>1003</v>
       </c>
@@ -6873,23 +6881,24 @@
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
-      <c r="S3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="T3" s="2">
-        <v>4220180000000</v>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="U3" s="2">
-        <v>4</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>36</v>
+        <v>4220180000000</v>
+      </c>
+      <c r="V3" s="2">
+        <v>4</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>1007</v>
       </c>
@@ -6920,23 +6929,24 @@
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
-      <c r="S4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="T4" s="2">
-        <v>4220180000000</v>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="U4" s="2">
-        <v>4</v>
-      </c>
-      <c r="V4" s="2" t="s">
-        <v>36</v>
+        <v>4220180000000</v>
+      </c>
+      <c r="V4" s="2">
+        <v>4</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>1010</v>
       </c>
@@ -6969,23 +6979,24 @@
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
-      <c r="S5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="T5" s="2">
-        <v>4220180000000</v>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="U5" s="2">
-        <v>4</v>
-      </c>
-      <c r="V5" s="2" t="s">
-        <v>36</v>
+        <v>4220180000000</v>
+      </c>
+      <c r="V5" s="2">
+        <v>4</v>
       </c>
       <c r="W5" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="X5" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1011</v>
       </c>
@@ -7016,23 +7027,24 @@
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
-      <c r="S6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="T6" s="2">
-        <v>4220180000000</v>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="U6" s="2">
-        <v>4</v>
-      </c>
-      <c r="V6" s="2" t="s">
-        <v>36</v>
+        <v>4220180000000</v>
+      </c>
+      <c r="V6" s="2">
+        <v>4</v>
       </c>
       <c r="W6" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="X6" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="2" t="s">
         <v>23</v>
@@ -7061,23 +7073,24 @@
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
-      <c r="S7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="T7" s="2">
-        <v>4220180000000</v>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="U7" s="2">
-        <v>4</v>
-      </c>
-      <c r="V7" s="2" t="s">
-        <v>36</v>
+        <v>4220180000000</v>
+      </c>
+      <c r="V7" s="2">
+        <v>4</v>
       </c>
       <c r="W7" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="X7" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="2" t="s">
         <v>23</v>
@@ -7108,23 +7121,24 @@
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
-      <c r="S8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="T8" s="2">
-        <v>4220180000000</v>
+      <c r="S8" s="1"/>
+      <c r="T8" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="U8" s="2">
-        <v>4</v>
-      </c>
-      <c r="V8" s="2" t="s">
-        <v>36</v>
+        <v>4220180000000</v>
+      </c>
+      <c r="V8" s="2">
+        <v>4</v>
       </c>
       <c r="W8" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="X8" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>6005</v>
       </c>
@@ -7157,23 +7171,24 @@
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
-      <c r="S9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="T9" s="2">
-        <v>4220180000000</v>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="U9" s="2">
-        <v>4</v>
-      </c>
-      <c r="V9" s="2" t="s">
-        <v>36</v>
+        <v>4220180000000</v>
+      </c>
+      <c r="V9" s="2">
+        <v>4</v>
       </c>
       <c r="W9" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="X9" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>1003</v>
       </c>
@@ -7206,23 +7221,24 @@
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
-      <c r="S10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="T10" s="2">
-        <v>4220180000000</v>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="U10" s="2">
-        <v>4</v>
-      </c>
-      <c r="V10" s="2" t="s">
-        <v>36</v>
+        <v>4220180000000</v>
+      </c>
+      <c r="V10" s="2">
+        <v>4</v>
       </c>
       <c r="W10" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="X10" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>1033</v>
       </c>
@@ -7255,19 +7271,20 @@
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
-      <c r="S11" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="T11" s="2">
-        <v>4220180000000</v>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="U11" s="2">
-        <v>4</v>
-      </c>
-      <c r="V11" s="2" t="s">
-        <v>36</v>
+        <v>4220180000000</v>
+      </c>
+      <c r="V11" s="2">
+        <v>4</v>
       </c>
       <c r="W11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="X11" s="2" t="s">
         <v>37</v>
       </c>
     </row>

--- a/Excel Data/Accounts.xlsx
+++ b/Excel Data/Accounts.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2033" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2021" uniqueCount="331">
   <si>
     <t>CATEGORY</t>
   </si>
@@ -200,57 +200,6 @@
     <t>ACC.OTH.FLAG:1</t>
   </si>
   <si>
-    <t>testing customer1</t>
-  </si>
-  <si>
-    <t>testing1</t>
-  </si>
-  <si>
-    <t>testing customer2</t>
-  </si>
-  <si>
-    <t>testing customer3</t>
-  </si>
-  <si>
-    <t>testing12</t>
-  </si>
-  <si>
-    <t>testing2</t>
-  </si>
-  <si>
-    <t>testing3</t>
-  </si>
-  <si>
-    <t>testing customer4</t>
-  </si>
-  <si>
-    <t>testing customer5</t>
-  </si>
-  <si>
-    <t>testing customer6</t>
-  </si>
-  <si>
-    <t>testing customer7</t>
-  </si>
-  <si>
-    <t>testing customer8</t>
-  </si>
-  <si>
-    <t>testing customer9</t>
-  </si>
-  <si>
-    <t>testing customer10</t>
-  </si>
-  <si>
-    <t>testing customer11</t>
-  </si>
-  <si>
-    <t>testing customer12</t>
-  </si>
-  <si>
-    <t>testing customer13</t>
-  </si>
-  <si>
     <t>testing customer14</t>
   </si>
   <si>
@@ -792,33 +741,6 @@
   </si>
   <si>
     <t>testing customer194</t>
-  </si>
-  <si>
-    <t>testing4</t>
-  </si>
-  <si>
-    <t>testing5</t>
-  </si>
-  <si>
-    <t>testing6</t>
-  </si>
-  <si>
-    <t>testing7</t>
-  </si>
-  <si>
-    <t>testing8</t>
-  </si>
-  <si>
-    <t>testing9</t>
-  </si>
-  <si>
-    <t>testing10</t>
-  </si>
-  <si>
-    <t>testing11</t>
-  </si>
-  <si>
-    <t>testing13</t>
   </si>
   <si>
     <t>testing14</t>
@@ -1918,7 +1840,7 @@
   <dimension ref="A1:AI197"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="I2" sqref="I2:J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2062,10 +1984,10 @@
         <v>23</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>57</v>
+        <v>137</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>58</v>
+        <v>318</v>
       </c>
       <c r="K2" s="2">
         <v>20220527</v>
@@ -2127,10 +2049,10 @@
         <v>23</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>59</v>
+        <v>138</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>62</v>
+        <v>319</v>
       </c>
       <c r="K3" s="2">
         <v>20220527</v>
@@ -2190,10 +2112,10 @@
         <v>23</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>60</v>
+        <v>139</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>63</v>
+        <v>320</v>
       </c>
       <c r="K4" s="2">
         <v>20220527</v>
@@ -2253,10 +2175,10 @@
         <v>23</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>64</v>
+        <v>140</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>255</v>
+        <v>321</v>
       </c>
       <c r="K5" s="2">
         <v>20220527</v>
@@ -2316,10 +2238,10 @@
         <v>23</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>65</v>
+        <v>141</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>256</v>
+        <v>322</v>
       </c>
       <c r="K6" s="2">
         <v>20220527</v>
@@ -2379,10 +2301,10 @@
         <v>23</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>66</v>
+        <v>142</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>257</v>
+        <v>323</v>
       </c>
       <c r="K7" s="2">
         <v>20220527</v>
@@ -2442,10 +2364,10 @@
         <v>23</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>67</v>
+        <v>143</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>258</v>
+        <v>324</v>
       </c>
       <c r="K8" s="2">
         <v>20220527</v>
@@ -2504,12 +2426,6 @@
       <c r="H9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I9" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>259</v>
-      </c>
       <c r="K9" s="2">
         <v>20220527</v>
       </c>
@@ -2567,12 +2483,6 @@
       <c r="H10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I10" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>260</v>
-      </c>
       <c r="K10" s="2">
         <v>20220527</v>
       </c>
@@ -2630,12 +2540,6 @@
       <c r="H11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I11" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>261</v>
-      </c>
       <c r="K11" s="2">
         <v>20220527</v>
       </c>
@@ -2693,12 +2597,6 @@
       <c r="H12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I12" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>262</v>
-      </c>
       <c r="K12" s="2">
         <v>20220527</v>
       </c>
@@ -2756,12 +2654,6 @@
       <c r="H13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I13" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="K13" s="2">
         <v>20220527</v>
       </c>
@@ -2819,12 +2711,6 @@
       <c r="H14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I14" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>263</v>
-      </c>
       <c r="K14" s="2">
         <v>20220527</v>
       </c>
@@ -2883,10 +2769,10 @@
         <v>23</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>264</v>
+        <v>238</v>
       </c>
       <c r="K15" s="2">
         <v>20220527</v>
@@ -2946,10 +2832,10 @@
         <v>23</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
       <c r="K16" s="2">
         <v>20220527</v>
@@ -3009,10 +2895,10 @@
         <v>23</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>266</v>
+        <v>240</v>
       </c>
       <c r="K17" s="2">
         <v>20220527</v>
@@ -3072,10 +2958,10 @@
         <v>23</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>267</v>
+        <v>241</v>
       </c>
       <c r="K18" s="2">
         <v>20220527</v>
@@ -3135,10 +3021,10 @@
         <v>23</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>268</v>
+        <v>242</v>
       </c>
       <c r="K19" s="2">
         <v>20220527</v>
@@ -3198,10 +3084,10 @@
         <v>23</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>269</v>
+        <v>243</v>
       </c>
       <c r="K20" s="2">
         <v>20220527</v>
@@ -3261,10 +3147,10 @@
         <v>23</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>270</v>
+        <v>244</v>
       </c>
       <c r="K21" s="2">
         <v>20220527</v>
@@ -3324,10 +3210,10 @@
         <v>23</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>271</v>
+        <v>245</v>
       </c>
       <c r="K22" s="2">
         <v>20220527</v>
@@ -3387,10 +3273,10 @@
         <v>23</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>272</v>
+        <v>246</v>
       </c>
       <c r="K23" s="2">
         <v>20220527</v>
@@ -3450,10 +3336,10 @@
         <v>23</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>273</v>
+        <v>247</v>
       </c>
       <c r="K24" s="2">
         <v>20220527</v>
@@ -3513,10 +3399,10 @@
         <v>23</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>274</v>
+        <v>248</v>
       </c>
       <c r="K25" s="2">
         <v>20220527</v>
@@ -3576,10 +3462,10 @@
         <v>23</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>275</v>
+        <v>249</v>
       </c>
       <c r="K26" s="2">
         <v>20220527</v>
@@ -3639,10 +3525,10 @@
         <v>23</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>276</v>
+        <v>250</v>
       </c>
       <c r="K27" s="2">
         <v>20220527</v>
@@ -3702,10 +3588,10 @@
         <v>23</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>277</v>
+        <v>251</v>
       </c>
       <c r="K28" s="2">
         <v>20220527</v>
@@ -3765,10 +3651,10 @@
         <v>23</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>278</v>
+        <v>252</v>
       </c>
       <c r="K29" s="2">
         <v>20220527</v>
@@ -3828,10 +3714,10 @@
         <v>23</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>279</v>
+        <v>253</v>
       </c>
       <c r="K30" s="2">
         <v>20220527</v>
@@ -3891,10 +3777,10 @@
         <v>23</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>280</v>
+        <v>254</v>
       </c>
       <c r="K31" s="2">
         <v>20220527</v>
@@ -3954,10 +3840,10 @@
         <v>23</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>281</v>
+        <v>255</v>
       </c>
       <c r="K32" s="2">
         <v>20220527</v>
@@ -4017,10 +3903,10 @@
         <v>23</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>282</v>
+        <v>256</v>
       </c>
       <c r="K33" s="2">
         <v>20220527</v>
@@ -4080,10 +3966,10 @@
         <v>23</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>283</v>
+        <v>257</v>
       </c>
       <c r="K34" s="2">
         <v>20220527</v>
@@ -4143,10 +4029,10 @@
         <v>23</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>284</v>
+        <v>258</v>
       </c>
       <c r="K35" s="2">
         <v>20220527</v>
@@ -4206,10 +4092,10 @@
         <v>23</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>285</v>
+        <v>259</v>
       </c>
       <c r="K36" s="2">
         <v>20220527</v>
@@ -4269,10 +4155,10 @@
         <v>23</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>286</v>
+        <v>260</v>
       </c>
       <c r="K37" s="2">
         <v>20220527</v>
@@ -4332,10 +4218,10 @@
         <v>23</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>287</v>
+        <v>261</v>
       </c>
       <c r="K38" s="2">
         <v>20220527</v>
@@ -4395,10 +4281,10 @@
         <v>23</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>288</v>
+        <v>262</v>
       </c>
       <c r="K39" s="2">
         <v>20220527</v>
@@ -4458,10 +4344,10 @@
         <v>23</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>289</v>
+        <v>263</v>
       </c>
       <c r="K40" s="2">
         <v>20220527</v>
@@ -4521,10 +4407,10 @@
         <v>23</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>290</v>
+        <v>264</v>
       </c>
       <c r="K41" s="2">
         <v>20220527</v>
@@ -4584,10 +4470,10 @@
         <v>23</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>291</v>
+        <v>265</v>
       </c>
       <c r="K42" s="2">
         <v>20220527</v>
@@ -4647,10 +4533,10 @@
         <v>23</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>292</v>
+        <v>266</v>
       </c>
       <c r="K43" s="2">
         <v>20220527</v>
@@ -4710,10 +4596,10 @@
         <v>23</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>293</v>
+        <v>267</v>
       </c>
       <c r="K44" s="2">
         <v>20220527</v>
@@ -4773,10 +4659,10 @@
         <v>23</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>294</v>
+        <v>268</v>
       </c>
       <c r="K45" s="2">
         <v>20220527</v>
@@ -4836,10 +4722,10 @@
         <v>23</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>295</v>
+        <v>269</v>
       </c>
       <c r="K46" s="2">
         <v>20220527</v>
@@ -4899,10 +4785,10 @@
         <v>23</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>296</v>
+        <v>270</v>
       </c>
       <c r="K47" s="2">
         <v>20220527</v>
@@ -4962,10 +4848,10 @@
         <v>23</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>297</v>
+        <v>271</v>
       </c>
       <c r="K48" s="2">
         <v>20220527</v>
@@ -5025,10 +4911,10 @@
         <v>23</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>298</v>
+        <v>272</v>
       </c>
       <c r="K49" s="2">
         <v>20220527</v>
@@ -5088,10 +4974,10 @@
         <v>23</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>299</v>
+        <v>273</v>
       </c>
       <c r="K50" s="2">
         <v>20220527</v>
@@ -5151,10 +5037,10 @@
         <v>23</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>300</v>
+        <v>274</v>
       </c>
       <c r="K51" s="2">
         <v>20220527</v>
@@ -5214,10 +5100,10 @@
         <v>23</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>301</v>
+        <v>275</v>
       </c>
       <c r="K52" s="2">
         <v>20220527</v>
@@ -5277,10 +5163,10 @@
         <v>23</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>302</v>
+        <v>276</v>
       </c>
       <c r="K53" s="2">
         <v>20220527</v>
@@ -5340,10 +5226,10 @@
         <v>23</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>303</v>
+        <v>277</v>
       </c>
       <c r="K54" s="2">
         <v>20220527</v>
@@ -5403,10 +5289,10 @@
         <v>23</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>304</v>
+        <v>278</v>
       </c>
       <c r="K55" s="2">
         <v>20220527</v>
@@ -5466,10 +5352,10 @@
         <v>23</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>305</v>
+        <v>279</v>
       </c>
       <c r="K56" s="2">
         <v>20220527</v>
@@ -5529,10 +5415,10 @@
         <v>23</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>306</v>
+        <v>280</v>
       </c>
       <c r="K57" s="2">
         <v>20220527</v>
@@ -5592,10 +5478,10 @@
         <v>23</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>307</v>
+        <v>281</v>
       </c>
       <c r="K58" s="2">
         <v>20220527</v>
@@ -5655,10 +5541,10 @@
         <v>23</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>308</v>
+        <v>282</v>
       </c>
       <c r="K59" s="2">
         <v>20220527</v>
@@ -5718,10 +5604,10 @@
         <v>23</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>309</v>
+        <v>283</v>
       </c>
       <c r="K60" s="2">
         <v>20220527</v>
@@ -5781,10 +5667,10 @@
         <v>23</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>310</v>
+        <v>284</v>
       </c>
       <c r="K61" s="2">
         <v>20220527</v>
@@ -5844,10 +5730,10 @@
         <v>23</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>311</v>
+        <v>285</v>
       </c>
       <c r="K62" s="2">
         <v>20220527</v>
@@ -5907,10 +5793,10 @@
         <v>23</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>312</v>
+        <v>286</v>
       </c>
       <c r="K63" s="2">
         <v>20220527</v>
@@ -5970,10 +5856,10 @@
         <v>23</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>313</v>
+        <v>287</v>
       </c>
       <c r="K64" s="2">
         <v>20220527</v>
@@ -6033,10 +5919,10 @@
         <v>23</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>314</v>
+        <v>288</v>
       </c>
       <c r="K65" s="2">
         <v>20220527</v>
@@ -6096,10 +5982,10 @@
         <v>23</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>315</v>
+        <v>289</v>
       </c>
       <c r="K66" s="2">
         <v>20220527</v>
@@ -6159,10 +6045,10 @@
         <v>23</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>316</v>
+        <v>290</v>
       </c>
       <c r="K67" s="2">
         <v>20220527</v>
@@ -6222,10 +6108,10 @@
         <v>23</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>317</v>
+        <v>291</v>
       </c>
       <c r="K68" s="2">
         <v>20220527</v>
@@ -6285,10 +6171,10 @@
         <v>23</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>318</v>
+        <v>292</v>
       </c>
       <c r="K69" s="2">
         <v>20220527</v>
@@ -6348,10 +6234,10 @@
         <v>23</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>319</v>
+        <v>293</v>
       </c>
       <c r="K70" s="2">
         <v>20220527</v>
@@ -6411,10 +6297,10 @@
         <v>23</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>320</v>
+        <v>294</v>
       </c>
       <c r="K71" s="2">
         <v>20220527</v>
@@ -6474,10 +6360,10 @@
         <v>23</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>321</v>
+        <v>295</v>
       </c>
       <c r="K72" s="2">
         <v>20220527</v>
@@ -6537,10 +6423,10 @@
         <v>23</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>322</v>
+        <v>296</v>
       </c>
       <c r="K73" s="2">
         <v>20220527</v>
@@ -6600,10 +6486,10 @@
         <v>23</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>323</v>
+        <v>297</v>
       </c>
       <c r="K74" s="2">
         <v>20220527</v>
@@ -6663,10 +6549,10 @@
         <v>23</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>324</v>
+        <v>298</v>
       </c>
       <c r="K75" s="2">
         <v>20220527</v>
@@ -6726,10 +6612,10 @@
         <v>23</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>325</v>
+        <v>299</v>
       </c>
       <c r="K76" s="2">
         <v>20220527</v>
@@ -6789,10 +6675,10 @@
         <v>23</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>326</v>
+        <v>300</v>
       </c>
       <c r="K77" s="2">
         <v>20220527</v>
@@ -6852,10 +6738,10 @@
         <v>23</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>327</v>
+        <v>301</v>
       </c>
       <c r="K78" s="2">
         <v>20220527</v>
@@ -6915,10 +6801,10 @@
         <v>23</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>328</v>
+        <v>302</v>
       </c>
       <c r="K79" s="2">
         <v>20220527</v>
@@ -6978,10 +6864,10 @@
         <v>23</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>329</v>
+        <v>303</v>
       </c>
       <c r="K80" s="2">
         <v>20220527</v>
@@ -7041,10 +6927,10 @@
         <v>23</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="J81" s="2" t="s">
-        <v>330</v>
+        <v>304</v>
       </c>
       <c r="K81" s="2">
         <v>20220527</v>
@@ -7104,10 +6990,10 @@
         <v>23</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>331</v>
+        <v>305</v>
       </c>
       <c r="K82" s="2">
         <v>20220527</v>
@@ -7167,10 +7053,10 @@
         <v>23</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="J83" s="2" t="s">
-        <v>332</v>
+        <v>306</v>
       </c>
       <c r="K83" s="2">
         <v>20220527</v>
@@ -7230,10 +7116,10 @@
         <v>23</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="J84" s="2" t="s">
-        <v>333</v>
+        <v>307</v>
       </c>
       <c r="K84" s="2">
         <v>20220527</v>
@@ -7293,10 +7179,10 @@
         <v>23</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>334</v>
+        <v>308</v>
       </c>
       <c r="K85" s="2">
         <v>20220527</v>
@@ -7356,10 +7242,10 @@
         <v>23</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>335</v>
+        <v>309</v>
       </c>
       <c r="K86" s="2">
         <v>20220527</v>
@@ -7419,10 +7305,10 @@
         <v>23</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>336</v>
+        <v>310</v>
       </c>
       <c r="K87" s="2">
         <v>20220527</v>
@@ -7482,10 +7368,10 @@
         <v>23</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="J88" s="2" t="s">
-        <v>337</v>
+        <v>311</v>
       </c>
       <c r="K88" s="2">
         <v>20220527</v>
@@ -7545,10 +7431,10 @@
         <v>23</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="J89" s="2" t="s">
-        <v>338</v>
+        <v>312</v>
       </c>
       <c r="K89" s="2">
         <v>20220527</v>
@@ -7608,10 +7494,10 @@
         <v>23</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="J90" s="2" t="s">
-        <v>339</v>
+        <v>313</v>
       </c>
       <c r="K90" s="2">
         <v>20220527</v>
@@ -7671,10 +7557,10 @@
         <v>23</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="J91" s="2" t="s">
-        <v>340</v>
+        <v>314</v>
       </c>
       <c r="K91" s="2">
         <v>20220527</v>
@@ -7734,10 +7620,10 @@
         <v>23</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="J92" s="2" t="s">
-        <v>341</v>
+        <v>315</v>
       </c>
       <c r="K92" s="2">
         <v>20220527</v>
@@ -7797,10 +7683,10 @@
         <v>23</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="J93" s="2" t="s">
-        <v>342</v>
+        <v>316</v>
       </c>
       <c r="K93" s="2">
         <v>20220527</v>
@@ -7860,10 +7746,10 @@
         <v>23</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="J94" s="2" t="s">
-        <v>343</v>
+        <v>317</v>
       </c>
       <c r="K94" s="2">
         <v>20220527</v>
@@ -7923,10 +7809,10 @@
         <v>23</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="J95" s="2" t="s">
-        <v>344</v>
+        <v>318</v>
       </c>
       <c r="K95" s="2">
         <v>20220527</v>
@@ -7986,10 +7872,10 @@
         <v>23</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="J96" s="2" t="s">
-        <v>345</v>
+        <v>319</v>
       </c>
       <c r="K96" s="2">
         <v>20220527</v>
@@ -8049,10 +7935,10 @@
         <v>23</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="J97" s="2" t="s">
-        <v>346</v>
+        <v>320</v>
       </c>
       <c r="K97" s="2">
         <v>20220527</v>
@@ -8112,10 +7998,10 @@
         <v>23</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="J98" s="2" t="s">
-        <v>347</v>
+        <v>321</v>
       </c>
       <c r="K98" s="2">
         <v>20220527</v>
@@ -8175,10 +8061,10 @@
         <v>23</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="J99" s="2" t="s">
-        <v>348</v>
+        <v>322</v>
       </c>
       <c r="K99" s="2">
         <v>20220527</v>
@@ -8238,10 +8124,10 @@
         <v>45</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="J100" s="2" t="s">
-        <v>349</v>
+        <v>323</v>
       </c>
       <c r="K100" s="2">
         <v>20210903</v>
@@ -8303,10 +8189,10 @@
         <v>23</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="J101" s="2" t="s">
-        <v>350</v>
+        <v>324</v>
       </c>
       <c r="K101" s="2">
         <v>20220527</v>
@@ -8366,10 +8252,10 @@
         <v>23</v>
       </c>
       <c r="I102" s="2" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="J102" s="2" t="s">
-        <v>351</v>
+        <v>325</v>
       </c>
       <c r="K102" s="2">
         <v>20220628</v>
@@ -8431,10 +8317,10 @@
         <v>23</v>
       </c>
       <c r="I103" s="2" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="J103" s="2" t="s">
-        <v>352</v>
+        <v>326</v>
       </c>
       <c r="K103" s="2">
         <v>20220912</v>
@@ -8488,10 +8374,10 @@
         <v>23</v>
       </c>
       <c r="I104" s="2" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="J104" s="2" t="s">
-        <v>353</v>
+        <v>327</v>
       </c>
       <c r="K104" s="2">
         <v>20201126</v>
@@ -8545,10 +8431,10 @@
         <v>23</v>
       </c>
       <c r="I105" s="2" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="J105" s="2" t="s">
-        <v>354</v>
+        <v>328</v>
       </c>
       <c r="K105" s="1">
         <v>20211029</v>
@@ -8607,10 +8493,10 @@
         <v>23</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="J106" s="2" t="s">
-        <v>355</v>
+        <v>329</v>
       </c>
       <c r="K106" s="2">
         <v>20220823</v>
@@ -8669,10 +8555,10 @@
         <v>45</v>
       </c>
       <c r="I107" s="2" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="J107" s="2" t="s">
-        <v>356</v>
+        <v>330</v>
       </c>
       <c r="K107" s="2">
         <v>20220527</v>
@@ -8731,7 +8617,7 @@
         <v>45</v>
       </c>
       <c r="I108" s="2" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="J108" s="2"/>
       <c r="K108" s="2">
@@ -8788,7 +8674,7 @@
         <v>23</v>
       </c>
       <c r="I109" s="2" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="J109" s="2"/>
       <c r="K109" s="2">
@@ -8845,7 +8731,7 @@
         <v>23</v>
       </c>
       <c r="I110" s="2" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="J110" s="2"/>
       <c r="K110" s="2">
@@ -8900,7 +8786,7 @@
         <v>23</v>
       </c>
       <c r="I111" s="2" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="J111" s="2"/>
       <c r="K111" s="2">
@@ -8957,7 +8843,7 @@
         <v>23</v>
       </c>
       <c r="I112" s="2" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="J112" s="2"/>
       <c r="K112" s="2">
@@ -9014,7 +8900,7 @@
         <v>23</v>
       </c>
       <c r="I113" s="2" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="J113" s="2"/>
       <c r="K113" s="2">
@@ -9071,7 +8957,7 @@
         <v>23</v>
       </c>
       <c r="I114" s="2" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="J114" s="2"/>
       <c r="K114" s="2">
@@ -9128,7 +9014,7 @@
         <v>23</v>
       </c>
       <c r="I115" s="2" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="J115" s="2"/>
       <c r="K115" s="2">
@@ -9183,7 +9069,7 @@
         <v>23</v>
       </c>
       <c r="I116" s="2" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="J116" s="2"/>
       <c r="K116" s="2">
@@ -9240,7 +9126,7 @@
         <v>23</v>
       </c>
       <c r="I117" s="2" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="J117" s="2"/>
       <c r="K117" s="2">
@@ -9297,7 +9183,7 @@
         <v>23</v>
       </c>
       <c r="I118" s="2" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="J118" s="2"/>
       <c r="K118" s="2">
@@ -9354,7 +9240,7 @@
         <v>23</v>
       </c>
       <c r="I119" s="2" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="J119" s="2"/>
       <c r="K119" s="2">
@@ -9411,7 +9297,7 @@
         <v>23</v>
       </c>
       <c r="I120" s="2" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="J120" s="2"/>
       <c r="K120" s="2">
@@ -9466,7 +9352,7 @@
         <v>23</v>
       </c>
       <c r="I121" s="2" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="J121" s="2"/>
       <c r="K121" s="2">
@@ -9529,7 +9415,7 @@
         <v>23</v>
       </c>
       <c r="I122" s="2" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="J122" s="2"/>
       <c r="K122" s="2">
@@ -9584,7 +9470,7 @@
         <v>23</v>
       </c>
       <c r="I123" s="2" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="J123" s="2"/>
       <c r="K123" s="2">
@@ -9639,7 +9525,7 @@
         <v>23</v>
       </c>
       <c r="I124" s="2" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="J124" s="2"/>
       <c r="K124" s="2">
@@ -9696,7 +9582,7 @@
         <v>45</v>
       </c>
       <c r="I125" s="2" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="J125" s="2"/>
       <c r="K125" s="2">
@@ -9759,7 +9645,7 @@
         <v>23</v>
       </c>
       <c r="I126" s="2" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="J126" s="2"/>
       <c r="K126" s="2">
@@ -9816,7 +9702,7 @@
         <v>23</v>
       </c>
       <c r="I127" s="2" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="J127" s="2"/>
       <c r="K127" s="2">
@@ -9873,7 +9759,7 @@
         <v>23</v>
       </c>
       <c r="I128" s="2" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="J128" s="1"/>
       <c r="K128" s="1">
@@ -9930,7 +9816,7 @@
         <v>23</v>
       </c>
       <c r="I129" s="2" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="J129" s="1"/>
       <c r="K129" s="1">
@@ -9987,7 +9873,7 @@
         <v>23</v>
       </c>
       <c r="I130" s="2" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="J130" s="1"/>
       <c r="K130" s="1">
@@ -10044,7 +9930,7 @@
         <v>23</v>
       </c>
       <c r="I131" s="2" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="J131" s="1"/>
       <c r="K131" s="1">
@@ -10101,7 +9987,7 @@
         <v>23</v>
       </c>
       <c r="I132" s="2" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="J132" s="1"/>
       <c r="K132" s="1">
@@ -10156,7 +10042,7 @@
         <v>23</v>
       </c>
       <c r="I133" s="2" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="J133" s="1"/>
       <c r="K133" s="1">
@@ -10213,7 +10099,7 @@
         <v>23</v>
       </c>
       <c r="I134" s="2" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="J134" s="1"/>
       <c r="K134" s="1">
@@ -10270,7 +10156,7 @@
         <v>23</v>
       </c>
       <c r="I135" s="2" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="J135" s="1"/>
       <c r="K135" s="1">
@@ -10327,7 +10213,7 @@
         <v>23</v>
       </c>
       <c r="I136" s="2" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="J136" s="1"/>
       <c r="K136" s="1">
@@ -10384,7 +10270,7 @@
         <v>23</v>
       </c>
       <c r="I137" s="2" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="J137" s="1"/>
       <c r="K137" s="1">
@@ -10439,7 +10325,7 @@
         <v>23</v>
       </c>
       <c r="I138" s="2" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="J138" s="1"/>
       <c r="K138" s="1">
@@ -10502,7 +10388,7 @@
         <v>23</v>
       </c>
       <c r="I139" s="2" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="J139" s="1"/>
       <c r="K139" s="1">
@@ -10557,7 +10443,7 @@
         <v>23</v>
       </c>
       <c r="I140" s="2" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="J140" s="1"/>
       <c r="K140" s="1">
@@ -10612,7 +10498,7 @@
         <v>23</v>
       </c>
       <c r="I141" s="2" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="J141" s="1"/>
       <c r="K141" s="1">
@@ -10669,7 +10555,7 @@
         <v>23</v>
       </c>
       <c r="I142" s="2" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="J142" s="1"/>
       <c r="K142" s="1">
@@ -10726,7 +10612,7 @@
         <v>23</v>
       </c>
       <c r="I143" s="2" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="J143" s="1"/>
       <c r="K143" s="1">
@@ -10783,7 +10669,7 @@
         <v>23</v>
       </c>
       <c r="I144" s="2" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="J144" s="1"/>
       <c r="K144" s="1">
@@ -10840,7 +10726,7 @@
         <v>23</v>
       </c>
       <c r="I145" s="2" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="J145" s="1"/>
       <c r="K145" s="1">
@@ -10897,7 +10783,7 @@
         <v>23</v>
       </c>
       <c r="I146" s="2" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="J146" s="1"/>
       <c r="K146" s="1">
@@ -10952,7 +10838,7 @@
         <v>23</v>
       </c>
       <c r="I147" s="2" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="J147" s="1"/>
       <c r="K147" s="1">
@@ -11009,7 +10895,7 @@
         <v>23</v>
       </c>
       <c r="I148" s="2" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="J148" s="1"/>
       <c r="K148" s="1">
@@ -11066,7 +10952,7 @@
         <v>23</v>
       </c>
       <c r="I149" s="2" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="J149" s="1"/>
       <c r="K149" s="1">
@@ -11123,7 +11009,7 @@
         <v>23</v>
       </c>
       <c r="I150" s="2" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="J150" s="1"/>
       <c r="K150" s="1">
@@ -11180,7 +11066,7 @@
         <v>23</v>
       </c>
       <c r="I151" s="2" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="J151" s="1"/>
       <c r="K151" s="1">
@@ -11235,7 +11121,7 @@
         <v>23</v>
       </c>
       <c r="I152" s="2" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="J152" s="1"/>
       <c r="K152" s="1">
@@ -11298,7 +11184,7 @@
         <v>45</v>
       </c>
       <c r="I153" s="2" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="J153" s="2"/>
       <c r="K153" s="2">
@@ -11355,7 +11241,7 @@
         <v>45</v>
       </c>
       <c r="I154" s="2" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="J154" s="2"/>
       <c r="K154" s="2">
@@ -11412,7 +11298,7 @@
         <v>45</v>
       </c>
       <c r="I155" s="2" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="J155" s="2"/>
       <c r="K155" s="2">
@@ -11467,7 +11353,7 @@
         <v>44</v>
       </c>
       <c r="I156" s="2" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="J156" s="2"/>
       <c r="K156" s="2">
@@ -11524,7 +11410,7 @@
         <v>44</v>
       </c>
       <c r="I157" s="2" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="J157" s="2"/>
       <c r="K157" s="2">
@@ -11579,7 +11465,7 @@
         <v>44</v>
       </c>
       <c r="I158" s="2" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="J158" s="2"/>
       <c r="K158" s="2">
@@ -11634,7 +11520,7 @@
         <v>44</v>
       </c>
       <c r="I159" s="2" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="J159" s="1"/>
       <c r="K159" s="1">
@@ -11691,7 +11577,7 @@
         <v>23</v>
       </c>
       <c r="I160" s="2" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="J160" s="2"/>
       <c r="K160" s="2">
@@ -11748,7 +11634,7 @@
         <v>23</v>
       </c>
       <c r="I161" s="2" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="J161" s="2"/>
       <c r="K161" s="2">
@@ -11805,7 +11691,7 @@
         <v>23</v>
       </c>
       <c r="I162" s="2" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="J162" s="2"/>
       <c r="K162" s="2">
@@ -11862,7 +11748,7 @@
         <v>23</v>
       </c>
       <c r="I163" s="2" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="J163" s="2"/>
       <c r="K163" s="2">
@@ -11919,7 +11805,7 @@
         <v>23</v>
       </c>
       <c r="I164" s="2" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="J164" s="2"/>
       <c r="K164" s="2">
@@ -11974,7 +11860,7 @@
         <v>23</v>
       </c>
       <c r="I165" s="2" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="J165" s="2"/>
       <c r="K165" s="2">
@@ -12031,7 +11917,7 @@
         <v>23</v>
       </c>
       <c r="I166" s="2" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="J166" s="2"/>
       <c r="K166" s="2">
@@ -12088,7 +11974,7 @@
         <v>23</v>
       </c>
       <c r="I167" s="2" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="J167" s="2"/>
       <c r="K167" s="2">
@@ -12145,7 +12031,7 @@
         <v>23</v>
       </c>
       <c r="I168" s="2" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="J168" s="2"/>
       <c r="K168" s="2">
@@ -12202,7 +12088,7 @@
         <v>23</v>
       </c>
       <c r="I169" s="2" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="J169" s="2"/>
       <c r="K169" s="2">
@@ -12257,7 +12143,7 @@
         <v>23</v>
       </c>
       <c r="I170" s="2" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="J170" s="2"/>
       <c r="K170" s="2">
@@ -12314,7 +12200,7 @@
         <v>23</v>
       </c>
       <c r="I171" s="2" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="J171" s="2"/>
       <c r="K171" s="2">
@@ -12371,7 +12257,7 @@
         <v>23</v>
       </c>
       <c r="I172" s="2" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="J172" s="2"/>
       <c r="K172" s="2">
@@ -12428,7 +12314,7 @@
         <v>23</v>
       </c>
       <c r="I173" s="2" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="J173" s="2"/>
       <c r="K173" s="2">
@@ -12483,7 +12369,7 @@
         <v>23</v>
       </c>
       <c r="I174" s="2" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="J174" s="2"/>
       <c r="K174" s="2">
@@ -12536,7 +12422,7 @@
         <v>23</v>
       </c>
       <c r="I175" s="2" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="J175" s="2"/>
       <c r="K175" s="2">
@@ -12597,7 +12483,7 @@
         <v>23</v>
       </c>
       <c r="I176" s="2" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="J176" s="2"/>
       <c r="K176" s="2">
@@ -12650,7 +12536,7 @@
         <v>23</v>
       </c>
       <c r="I177" s="2" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="J177" s="2"/>
       <c r="K177" s="2">
@@ -12703,7 +12589,7 @@
         <v>23</v>
       </c>
       <c r="I178" s="2" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="J178" s="2"/>
       <c r="K178" s="2">
@@ -12758,7 +12644,7 @@
         <v>45</v>
       </c>
       <c r="I179" s="2" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="J179" s="2"/>
       <c r="K179" s="2">
@@ -12819,7 +12705,7 @@
         <v>23</v>
       </c>
       <c r="I180" s="2" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="J180" s="2"/>
       <c r="K180" s="2">
@@ -12874,7 +12760,7 @@
         <v>23</v>
       </c>
       <c r="I181" s="2" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="J181" s="2"/>
       <c r="K181" s="2">
@@ -12929,7 +12815,7 @@
         <v>23</v>
       </c>
       <c r="I182" s="2" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="J182" s="1"/>
       <c r="K182" s="1">
@@ -12984,7 +12870,7 @@
         <v>23</v>
       </c>
       <c r="I183" s="2" t="s">
-        <v>242</v>
+        <v>225</v>
       </c>
       <c r="J183" s="1"/>
       <c r="K183" s="1">
@@ -13039,7 +12925,7 @@
         <v>23</v>
       </c>
       <c r="I184" s="2" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="J184" s="1"/>
       <c r="K184" s="1">
@@ -13094,7 +12980,7 @@
         <v>23</v>
       </c>
       <c r="I185" s="2" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="J185" s="1"/>
       <c r="K185" s="1">
@@ -13149,7 +13035,7 @@
         <v>23</v>
       </c>
       <c r="I186" s="2" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="J186" s="1"/>
       <c r="K186" s="1">
@@ -13202,7 +13088,7 @@
         <v>23</v>
       </c>
       <c r="I187" s="2" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="J187" s="1"/>
       <c r="K187" s="1">
@@ -13257,7 +13143,7 @@
         <v>23</v>
       </c>
       <c r="I188" s="2" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="J188" s="1"/>
       <c r="K188" s="1">
@@ -13312,7 +13198,7 @@
         <v>23</v>
       </c>
       <c r="I189" s="2" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
       <c r="J189" s="1"/>
       <c r="K189" s="1">
@@ -13367,7 +13253,7 @@
         <v>23</v>
       </c>
       <c r="I190" s="2" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
       <c r="J190" s="1"/>
       <c r="K190" s="1">
@@ -13422,7 +13308,7 @@
         <v>23</v>
       </c>
       <c r="I191" s="2" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="J191" s="1"/>
       <c r="K191" s="1">
@@ -13481,7 +13367,7 @@
         <v>23</v>
       </c>
       <c r="I192" s="2" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="J192" s="1"/>
       <c r="K192" s="1">
@@ -13542,7 +13428,7 @@
         <v>23</v>
       </c>
       <c r="I193" s="2" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="J193" s="1"/>
       <c r="K193" s="1">
@@ -13603,7 +13489,7 @@
         <v>23</v>
       </c>
       <c r="I194" s="2" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="J194" s="1"/>
       <c r="K194" s="1">
@@ -13664,7 +13550,7 @@
         <v>23</v>
       </c>
       <c r="I195" s="2" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
       <c r="J195" s="1"/>
       <c r="K195" s="1">

--- a/Excel Data/Accounts.xlsx
+++ b/Excel Data/Accounts.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xcelliti6\IdeaProjects\Retail Ops\Excel Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Selenium Workspace Functional Testing\Retail Ops\Excel Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
-    <sheet name="Customers" sheetId="2" r:id="rId3"/>
-    <sheet name="Old Sheet" sheetId="3" r:id="rId4"/>
+    <sheet name="Accounts Data For UAT2" sheetId="5" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId3"/>
+    <sheet name="Customers" sheetId="2" r:id="rId4"/>
+    <sheet name="Old Sheet" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2021" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2113" uniqueCount="341">
   <si>
     <t>CATEGORY</t>
   </si>
@@ -1020,6 +1021,36 @@
   </si>
   <si>
     <t>testing106</t>
+  </si>
+  <si>
+    <t>testing customer1</t>
+  </si>
+  <si>
+    <t>testing customer2</t>
+  </si>
+  <si>
+    <t>testing customer3</t>
+  </si>
+  <si>
+    <t>testing customer4</t>
+  </si>
+  <si>
+    <t>testing customer5</t>
+  </si>
+  <si>
+    <t>testing customer6</t>
+  </si>
+  <si>
+    <t>testing customer7</t>
+  </si>
+  <si>
+    <t>testing customer8</t>
+  </si>
+  <si>
+    <t>testing customer9</t>
+  </si>
+  <si>
+    <t>testing customer10</t>
   </si>
 </sst>
 </file>
@@ -1837,10 +1868,709 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AC11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="12" max="12" width="15.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3">
+        <v>31</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="4">
+        <v>118500</v>
+      </c>
+      <c r="G2" s="4">
+        <v>6004</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1">
+        <v>20220527</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1003114040</v>
+      </c>
+      <c r="M2" s="1">
+        <v>17139</v>
+      </c>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>4220180000000</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>4</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3">
+        <v>32</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="4">
+        <v>118518</v>
+      </c>
+      <c r="G3" s="4">
+        <v>1005</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1">
+        <v>20220628</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1003114040</v>
+      </c>
+      <c r="M3" s="1">
+        <v>25418</v>
+      </c>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z3" s="2">
+        <v>4220180000000</v>
+      </c>
+      <c r="AA3" s="2">
+        <v>4</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3">
+        <v>33</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="4">
+        <v>118518</v>
+      </c>
+      <c r="G4" s="4">
+        <v>1034</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1">
+        <v>20211231</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1003114040</v>
+      </c>
+      <c r="M4" s="1">
+        <v>18676</v>
+      </c>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>4220180000000</v>
+      </c>
+      <c r="AA4" s="2">
+        <v>4</v>
+      </c>
+      <c r="AB4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC4" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3">
+        <v>34</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="4">
+        <v>118518</v>
+      </c>
+      <c r="G5" s="4">
+        <v>1035</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1">
+        <v>20211006</v>
+      </c>
+      <c r="L5" s="2">
+        <v>1003114040</v>
+      </c>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z5" s="2">
+        <v>4220180000000</v>
+      </c>
+      <c r="AA5" s="2">
+        <v>4</v>
+      </c>
+      <c r="AB5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC5" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3">
+        <v>35</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="4">
+        <v>118518</v>
+      </c>
+      <c r="G6" s="4">
+        <v>1150</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1">
+        <v>20220423</v>
+      </c>
+      <c r="L6" s="2">
+        <v>1003114040</v>
+      </c>
+      <c r="M6" s="1">
+        <v>2343</v>
+      </c>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z6" s="2">
+        <v>4220180000000</v>
+      </c>
+      <c r="AA6" s="2">
+        <v>4</v>
+      </c>
+      <c r="AB6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC6" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3">
+        <v>36</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="4">
+        <v>118518</v>
+      </c>
+      <c r="G7" s="4">
+        <v>6001</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1">
+        <v>20200114</v>
+      </c>
+      <c r="L7" s="2">
+        <v>1003114040</v>
+      </c>
+      <c r="M7" s="1">
+        <v>17461</v>
+      </c>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z7" s="2">
+        <v>4220180000000</v>
+      </c>
+      <c r="AA7" s="2">
+        <v>4</v>
+      </c>
+      <c r="AB7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC7" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3">
+        <v>37</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="4">
+        <v>118518</v>
+      </c>
+      <c r="G8" s="4">
+        <v>6004</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1">
+        <v>20220728</v>
+      </c>
+      <c r="L8" s="2">
+        <v>1003114040</v>
+      </c>
+      <c r="M8" s="1">
+        <v>24890</v>
+      </c>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z8" s="2">
+        <v>4220180000000</v>
+      </c>
+      <c r="AA8" s="2">
+        <v>4</v>
+      </c>
+      <c r="AB8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC8" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3">
+        <v>38</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="4">
+        <v>118518</v>
+      </c>
+      <c r="G9" s="4">
+        <v>6005</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1">
+        <v>20210903</v>
+      </c>
+      <c r="L9" s="2">
+        <v>1003114040</v>
+      </c>
+      <c r="M9" s="1">
+        <v>30162</v>
+      </c>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z9" s="2">
+        <v>4220180000000</v>
+      </c>
+      <c r="AA9" s="2">
+        <v>4</v>
+      </c>
+      <c r="AB9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC9" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3">
+        <v>39</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="4">
+        <v>118518</v>
+      </c>
+      <c r="G10" s="4">
+        <v>6009</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1">
+        <v>20191125</v>
+      </c>
+      <c r="L10" s="2">
+        <v>1003114040</v>
+      </c>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z10" s="2">
+        <v>4220180000000</v>
+      </c>
+      <c r="AA10" s="2">
+        <v>4</v>
+      </c>
+      <c r="AB10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC10" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3">
+        <v>40</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="4">
+        <v>118518</v>
+      </c>
+      <c r="G11" s="4">
+        <v>1003</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1">
+        <v>20210716</v>
+      </c>
+      <c r="L11" s="2">
+        <v>1003114040</v>
+      </c>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1">
+        <v>20910304</v>
+      </c>
+      <c r="Y11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z11" s="2">
+        <v>4220180000000</v>
+      </c>
+      <c r="AA11" s="2">
+        <v>4</v>
+      </c>
+      <c r="AB11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC11" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI197"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:J8"/>
+    <sheetView topLeftCell="X1" workbookViewId="0">
+      <selection sqref="A1:AC1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13624,7 +14354,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X11"/>
   <sheetViews>
@@ -14208,7 +14938,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A92"/>
   <sheetViews>
@@ -14683,7 +15413,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z98"/>
   <sheetViews>

--- a/Excel Data/Accounts.xlsx
+++ b/Excel Data/Accounts.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2113" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2113" uniqueCount="342">
   <si>
     <t>CATEGORY</t>
   </si>
@@ -1051,6 +1051,9 @@
   </si>
   <si>
     <t>testing customer10</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
@@ -1871,12 +1874,13 @@
   <dimension ref="A1:AC11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="12" max="12" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
@@ -2012,7 +2016,7 @@
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
       <c r="Y2" s="2" t="s">
-        <v>35</v>
+        <v>341</v>
       </c>
       <c r="Z2" s="2">
         <v>4220180000000</v>
@@ -2071,7 +2075,7 @@
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
       <c r="Y3" s="2" t="s">
-        <v>35</v>
+        <v>341</v>
       </c>
       <c r="Z3" s="2">
         <v>4220180000000</v>
@@ -2130,7 +2134,7 @@
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
       <c r="Y4" s="2" t="s">
-        <v>35</v>
+        <v>341</v>
       </c>
       <c r="Z4" s="2">
         <v>4220180000000</v>
@@ -2187,7 +2191,7 @@
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
       <c r="Y5" s="2" t="s">
-        <v>35</v>
+        <v>341</v>
       </c>
       <c r="Z5" s="2">
         <v>4220180000000</v>
@@ -2246,7 +2250,7 @@
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
       <c r="Y6" s="2" t="s">
-        <v>35</v>
+        <v>341</v>
       </c>
       <c r="Z6" s="2">
         <v>4220180000000</v>
@@ -2305,7 +2309,7 @@
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
       <c r="Y7" s="2" t="s">
-        <v>35</v>
+        <v>341</v>
       </c>
       <c r="Z7" s="2">
         <v>4220180000000</v>
@@ -2364,7 +2368,7 @@
       <c r="W8" s="1"/>
       <c r="X8" s="1"/>
       <c r="Y8" s="2" t="s">
-        <v>35</v>
+        <v>341</v>
       </c>
       <c r="Z8" s="2">
         <v>4220180000000</v>
@@ -2423,7 +2427,7 @@
       <c r="W9" s="1"/>
       <c r="X9" s="1"/>
       <c r="Y9" s="2" t="s">
-        <v>35</v>
+        <v>341</v>
       </c>
       <c r="Z9" s="2">
         <v>4220180000000</v>
@@ -2480,7 +2484,7 @@
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
       <c r="Y10" s="2" t="s">
-        <v>35</v>
+        <v>341</v>
       </c>
       <c r="Z10" s="2">
         <v>4220180000000</v>
@@ -2545,7 +2549,7 @@
         <v>20910304</v>
       </c>
       <c r="Y11" s="2" t="s">
-        <v>35</v>
+        <v>341</v>
       </c>
       <c r="Z11" s="2">
         <v>4220180000000</v>

--- a/Excel Data/Accounts.xlsx
+++ b/Excel Data/Accounts.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2113" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2549" uniqueCount="334">
   <si>
     <t>CATEGORY</t>
   </si>
@@ -1023,37 +1023,13 @@
     <t>testing106</t>
   </si>
   <si>
-    <t>testing customer1</t>
-  </si>
-  <si>
-    <t>testing customer2</t>
-  </si>
-  <si>
-    <t>testing customer3</t>
-  </si>
-  <si>
-    <t>testing customer4</t>
-  </si>
-  <si>
-    <t>testing customer5</t>
-  </si>
-  <si>
-    <t>testing customer6</t>
-  </si>
-  <si>
-    <t>testing customer7</t>
-  </si>
-  <si>
-    <t>testing customer8</t>
-  </si>
-  <si>
-    <t>testing customer9</t>
-  </si>
-  <si>
-    <t>testing customer10</t>
-  </si>
-  <si>
     <t>test</t>
+  </si>
+  <si>
+    <t>CURRENCY_FCY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">testing customer </t>
   </si>
 </sst>
 </file>
@@ -1871,19 +1847,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC11"/>
+  <dimension ref="A1:AD61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="12" max="12" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="3"/>
+    <col min="10" max="10" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>46</v>
       </c>
@@ -1906,73 +1884,76 @@
         <v>0</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="L1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1986,27 +1967,31 @@
       <c r="G2" s="4">
         <v>6004</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" s="2" t="s">
+      <c r="H2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1">
+      <c r="L2" s="1">
         <v>20220527</v>
       </c>
-      <c r="L2" s="2">
-        <v>1003114040</v>
-      </c>
-      <c r="M2" s="1">
+      <c r="M2" s="2">
+        <v>1003114040</v>
+      </c>
+      <c r="N2" s="1">
         <v>17139</v>
       </c>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="P2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
@@ -2015,23 +2000,24 @@
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
-      <c r="Y2" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="Z2" s="2">
-        <v>4220180000000</v>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="2" t="s">
+        <v>331</v>
       </c>
       <c r="AA2" s="2">
-        <v>4</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>36</v>
+        <v>4220180000000</v>
+      </c>
+      <c r="AB2" s="2">
+        <v>4</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -2045,27 +2031,31 @@
       <c r="G3" s="4">
         <v>1005</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1">
+      <c r="H3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="L3" s="1">
         <v>20220628</v>
       </c>
-      <c r="L3" s="2">
-        <v>1003114040</v>
-      </c>
-      <c r="M3" s="1">
+      <c r="M3" s="2">
+        <v>1003114040</v>
+      </c>
+      <c r="N3" s="1">
         <v>25418</v>
       </c>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="P3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
@@ -2074,23 +2064,24 @@
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
-      <c r="Y3" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="Z3" s="2">
-        <v>4220180000000</v>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="2" t="s">
+        <v>331</v>
       </c>
       <c r="AA3" s="2">
-        <v>4</v>
-      </c>
-      <c r="AB3" s="2" t="s">
-        <v>36</v>
+        <v>4220180000000</v>
+      </c>
+      <c r="AB3" s="2">
+        <v>4</v>
       </c>
       <c r="AC3" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -2104,27 +2095,31 @@
       <c r="G4" s="4">
         <v>1034</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" s="2" t="s">
+      <c r="H4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1">
+      <c r="K4" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="L4" s="1">
         <v>20211231</v>
       </c>
-      <c r="L4" s="2">
-        <v>1003114040</v>
-      </c>
-      <c r="M4" s="1">
+      <c r="M4" s="2">
+        <v>1003114040</v>
+      </c>
+      <c r="N4" s="1">
         <v>18676</v>
       </c>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="P4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
@@ -2133,23 +2128,24 @@
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
-      <c r="Y4" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="Z4" s="2">
-        <v>4220180000000</v>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="2" t="s">
+        <v>331</v>
       </c>
       <c r="AA4" s="2">
-        <v>4</v>
-      </c>
-      <c r="AB4" s="2" t="s">
-        <v>36</v>
+        <v>4220180000000</v>
+      </c>
+      <c r="AB4" s="2">
+        <v>4</v>
       </c>
       <c r="AC4" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="AD4" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -2163,25 +2159,29 @@
       <c r="G5" s="4">
         <v>1035</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1">
+      <c r="H5" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="L5" s="1">
         <v>20211006</v>
       </c>
-      <c r="L5" s="2">
-        <v>1003114040</v>
-      </c>
-      <c r="M5" s="1"/>
+      <c r="M5" s="2">
+        <v>1003114040</v>
+      </c>
       <c r="N5" s="1"/>
-      <c r="O5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="P5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
@@ -2190,23 +2190,24 @@
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
-      <c r="Y5" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="Z5" s="2">
-        <v>4220180000000</v>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="2" t="s">
+        <v>331</v>
       </c>
       <c r="AA5" s="2">
-        <v>4</v>
-      </c>
-      <c r="AB5" s="2" t="s">
-        <v>36</v>
+        <v>4220180000000</v>
+      </c>
+      <c r="AB5" s="2">
+        <v>4</v>
       </c>
       <c r="AC5" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="AD5" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -2220,27 +2221,31 @@
       <c r="G6" s="4">
         <v>1150</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1">
+      <c r="H6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="L6" s="1">
         <v>20220423</v>
       </c>
-      <c r="L6" s="2">
-        <v>1003114040</v>
-      </c>
-      <c r="M6" s="1">
+      <c r="M6" s="2">
+        <v>1003114040</v>
+      </c>
+      <c r="N6" s="1">
         <v>2343</v>
       </c>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="P6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
@@ -2249,23 +2254,24 @@
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
-      <c r="Y6" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="Z6" s="2">
-        <v>4220180000000</v>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="2" t="s">
+        <v>331</v>
       </c>
       <c r="AA6" s="2">
-        <v>4</v>
-      </c>
-      <c r="AB6" s="2" t="s">
-        <v>36</v>
+        <v>4220180000000</v>
+      </c>
+      <c r="AB6" s="2">
+        <v>4</v>
       </c>
       <c r="AC6" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="AD6" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -2279,27 +2285,31 @@
       <c r="G7" s="4">
         <v>6001</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1">
+      <c r="H7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="L7" s="1">
         <v>20200114</v>
       </c>
-      <c r="L7" s="2">
-        <v>1003114040</v>
-      </c>
-      <c r="M7" s="1">
+      <c r="M7" s="2">
+        <v>1003114040</v>
+      </c>
+      <c r="N7" s="1">
         <v>17461</v>
       </c>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="P7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
@@ -2308,23 +2318,24 @@
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
-      <c r="Y7" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="Z7" s="2">
-        <v>4220180000000</v>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="2" t="s">
+        <v>331</v>
       </c>
       <c r="AA7" s="2">
-        <v>4</v>
-      </c>
-      <c r="AB7" s="2" t="s">
-        <v>36</v>
+        <v>4220180000000</v>
+      </c>
+      <c r="AB7" s="2">
+        <v>4</v>
       </c>
       <c r="AC7" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="AD7" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -2338,27 +2349,31 @@
       <c r="G8" s="4">
         <v>6004</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1">
+      <c r="H8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="L8" s="1">
         <v>20220728</v>
       </c>
-      <c r="L8" s="2">
-        <v>1003114040</v>
-      </c>
-      <c r="M8" s="1">
+      <c r="M8" s="2">
+        <v>1003114040</v>
+      </c>
+      <c r="N8" s="1">
         <v>24890</v>
       </c>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="P8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
@@ -2367,23 +2382,24 @@
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
       <c r="X8" s="1"/>
-      <c r="Y8" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="Z8" s="2">
-        <v>4220180000000</v>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="2" t="s">
+        <v>331</v>
       </c>
       <c r="AA8" s="2">
-        <v>4</v>
-      </c>
-      <c r="AB8" s="2" t="s">
-        <v>36</v>
+        <v>4220180000000</v>
+      </c>
+      <c r="AB8" s="2">
+        <v>4</v>
       </c>
       <c r="AC8" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="AD8" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -2397,27 +2413,31 @@
       <c r="G9" s="4">
         <v>6005</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1">
+      <c r="H9" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="L9" s="1">
         <v>20210903</v>
       </c>
-      <c r="L9" s="2">
-        <v>1003114040</v>
-      </c>
-      <c r="M9" s="1">
+      <c r="M9" s="2">
+        <v>1003114040</v>
+      </c>
+      <c r="N9" s="1">
         <v>30162</v>
       </c>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="P9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
@@ -2426,23 +2446,24 @@
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
       <c r="X9" s="1"/>
-      <c r="Y9" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="Z9" s="2">
-        <v>4220180000000</v>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="2" t="s">
+        <v>331</v>
       </c>
       <c r="AA9" s="2">
-        <v>4</v>
-      </c>
-      <c r="AB9" s="2" t="s">
-        <v>36</v>
+        <v>4220180000000</v>
+      </c>
+      <c r="AB9" s="2">
+        <v>4</v>
       </c>
       <c r="AC9" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="AD9" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -2456,25 +2477,29 @@
       <c r="G10" s="4">
         <v>6009</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1">
+      <c r="H10" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="L10" s="1">
         <v>20191125</v>
       </c>
-      <c r="L10" s="2">
-        <v>1003114040</v>
-      </c>
-      <c r="M10" s="1"/>
+      <c r="M10" s="2">
+        <v>1003114040</v>
+      </c>
       <c r="N10" s="1"/>
-      <c r="O10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="P10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
@@ -2483,23 +2508,24 @@
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
-      <c r="Y10" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="Z10" s="2">
-        <v>4220180000000</v>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="2" t="s">
+        <v>331</v>
       </c>
       <c r="AA10" s="2">
-        <v>4</v>
-      </c>
-      <c r="AB10" s="2" t="s">
-        <v>36</v>
+        <v>4220180000000</v>
+      </c>
+      <c r="AB10" s="2">
+        <v>4</v>
       </c>
       <c r="AC10" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="AD10" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -2513,54 +2539,3069 @@
       <c r="G11" s="4">
         <v>1003</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H11" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="I11" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1">
+      <c r="I11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="L11" s="1">
         <v>20210716</v>
       </c>
-      <c r="L11" s="2">
-        <v>1003114040</v>
-      </c>
-      <c r="M11" s="1"/>
+      <c r="M11" s="2">
+        <v>1003114040</v>
+      </c>
       <c r="N11" s="1"/>
-      <c r="O11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="P11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
-      <c r="T11" s="1" t="s">
+      <c r="T11" s="1"/>
+      <c r="U11" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="U11" s="1" t="s">
+      <c r="V11" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="V11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="W11" s="1"/>
-      <c r="X11" s="1">
+      <c r="W11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1">
         <v>20910304</v>
       </c>
-      <c r="Y11" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="Z11" s="2">
-        <v>4220180000000</v>
+      <c r="Z11" s="2" t="s">
+        <v>331</v>
       </c>
       <c r="AA11" s="2">
-        <v>4</v>
-      </c>
-      <c r="AB11" s="2" t="s">
-        <v>36</v>
+        <v>4220180000000</v>
+      </c>
+      <c r="AB11" s="2">
+        <v>4</v>
       </c>
       <c r="AC11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD11" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D12" s="3">
+        <v>31</v>
+      </c>
+      <c r="F12" s="4">
+        <v>118500</v>
+      </c>
+      <c r="G12" s="4">
+        <v>6004</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="L12" s="1">
+        <v>20220527</v>
+      </c>
+      <c r="M12" s="2">
+        <v>1003114040</v>
+      </c>
+      <c r="N12" s="1">
+        <v>17139</v>
+      </c>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="AA12" s="2">
+        <v>4220180000000</v>
+      </c>
+      <c r="AB12" s="2">
+        <v>4</v>
+      </c>
+      <c r="AC12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD12" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D13" s="3">
+        <v>32</v>
+      </c>
+      <c r="F13" s="4">
+        <v>118518</v>
+      </c>
+      <c r="G13" s="4">
+        <v>1005</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="L13" s="1">
+        <v>20220628</v>
+      </c>
+      <c r="M13" s="2">
+        <v>1003114040</v>
+      </c>
+      <c r="N13" s="1">
+        <v>25418</v>
+      </c>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="AA13" s="2">
+        <v>4220180000000</v>
+      </c>
+      <c r="AB13" s="2">
+        <v>4</v>
+      </c>
+      <c r="AC13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD13" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D14" s="3">
+        <v>33</v>
+      </c>
+      <c r="F14" s="4">
+        <v>118518</v>
+      </c>
+      <c r="G14" s="4">
+        <v>1034</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="L14" s="1">
+        <v>20211231</v>
+      </c>
+      <c r="M14" s="2">
+        <v>1003114040</v>
+      </c>
+      <c r="N14" s="1">
+        <v>18676</v>
+      </c>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="AA14" s="2">
+        <v>4220180000000</v>
+      </c>
+      <c r="AB14" s="2">
+        <v>4</v>
+      </c>
+      <c r="AC14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD14" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D15" s="3">
+        <v>34</v>
+      </c>
+      <c r="F15" s="4">
+        <v>118518</v>
+      </c>
+      <c r="G15" s="4">
+        <v>1035</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="L15" s="1">
+        <v>20211006</v>
+      </c>
+      <c r="M15" s="2">
+        <v>1003114040</v>
+      </c>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="AA15" s="2">
+        <v>4220180000000</v>
+      </c>
+      <c r="AB15" s="2">
+        <v>4</v>
+      </c>
+      <c r="AC15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD15" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D16" s="3">
+        <v>35</v>
+      </c>
+      <c r="F16" s="4">
+        <v>118518</v>
+      </c>
+      <c r="G16" s="4">
+        <v>1150</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="L16" s="1">
+        <v>20220423</v>
+      </c>
+      <c r="M16" s="2">
+        <v>1003114040</v>
+      </c>
+      <c r="N16" s="1">
+        <v>2343</v>
+      </c>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="AA16" s="2">
+        <v>4220180000000</v>
+      </c>
+      <c r="AB16" s="2">
+        <v>4</v>
+      </c>
+      <c r="AC16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD16" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="4:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D17" s="3">
+        <v>36</v>
+      </c>
+      <c r="F17" s="4">
+        <v>118518</v>
+      </c>
+      <c r="G17" s="4">
+        <v>6001</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="L17" s="1">
+        <v>20200114</v>
+      </c>
+      <c r="M17" s="2">
+        <v>1003114040</v>
+      </c>
+      <c r="N17" s="1">
+        <v>17461</v>
+      </c>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="AA17" s="2">
+        <v>4220180000000</v>
+      </c>
+      <c r="AB17" s="2">
+        <v>4</v>
+      </c>
+      <c r="AC17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD17" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="4:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D18" s="3">
+        <v>37</v>
+      </c>
+      <c r="F18" s="4">
+        <v>118518</v>
+      </c>
+      <c r="G18" s="4">
+        <v>6004</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="L18" s="1">
+        <v>20220728</v>
+      </c>
+      <c r="M18" s="2">
+        <v>1003114040</v>
+      </c>
+      <c r="N18" s="1">
+        <v>24890</v>
+      </c>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="AA18" s="2">
+        <v>4220180000000</v>
+      </c>
+      <c r="AB18" s="2">
+        <v>4</v>
+      </c>
+      <c r="AC18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD18" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="4:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D19" s="3">
+        <v>38</v>
+      </c>
+      <c r="F19" s="4">
+        <v>118518</v>
+      </c>
+      <c r="G19" s="4">
+        <v>6005</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="L19" s="1">
+        <v>20210903</v>
+      </c>
+      <c r="M19" s="2">
+        <v>1003114040</v>
+      </c>
+      <c r="N19" s="1">
+        <v>30162</v>
+      </c>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="AA19" s="2">
+        <v>4220180000000</v>
+      </c>
+      <c r="AB19" s="2">
+        <v>4</v>
+      </c>
+      <c r="AC19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD19" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="4:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D20" s="3">
+        <v>39</v>
+      </c>
+      <c r="F20" s="4">
+        <v>118518</v>
+      </c>
+      <c r="G20" s="4">
+        <v>6009</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="L20" s="1">
+        <v>20191125</v>
+      </c>
+      <c r="M20" s="2">
+        <v>1003114040</v>
+      </c>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="AA20" s="2">
+        <v>4220180000000</v>
+      </c>
+      <c r="AB20" s="2">
+        <v>4</v>
+      </c>
+      <c r="AC20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD20" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="4:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D21" s="3">
+        <v>40</v>
+      </c>
+      <c r="F21" s="4">
+        <v>118518</v>
+      </c>
+      <c r="G21" s="4">
+        <v>1003</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="L21" s="1">
+        <v>20210716</v>
+      </c>
+      <c r="M21" s="2">
+        <v>1003114040</v>
+      </c>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="V21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="W21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="X21" s="1"/>
+      <c r="Y21" s="1">
+        <v>20910304</v>
+      </c>
+      <c r="Z21" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="AA21" s="2">
+        <v>4220180000000</v>
+      </c>
+      <c r="AB21" s="2">
+        <v>4</v>
+      </c>
+      <c r="AC21" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD21" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="4:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D22" s="3">
+        <v>31</v>
+      </c>
+      <c r="F22" s="4">
+        <v>118500</v>
+      </c>
+      <c r="G22" s="4">
+        <v>6004</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="L22" s="1">
+        <v>20220527</v>
+      </c>
+      <c r="M22" s="2">
+        <v>1003114040</v>
+      </c>
+      <c r="N22" s="1">
+        <v>17139</v>
+      </c>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="1"/>
+      <c r="Z22" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="AA22" s="2">
+        <v>4220180000000</v>
+      </c>
+      <c r="AB22" s="2">
+        <v>4</v>
+      </c>
+      <c r="AC22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD22" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="4:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D23" s="3">
+        <v>32</v>
+      </c>
+      <c r="F23" s="4">
+        <v>118518</v>
+      </c>
+      <c r="G23" s="4">
+        <v>1005</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="L23" s="1">
+        <v>20220628</v>
+      </c>
+      <c r="M23" s="2">
+        <v>1003114040</v>
+      </c>
+      <c r="N23" s="1">
+        <v>25418</v>
+      </c>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="1"/>
+      <c r="Z23" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="AA23" s="2">
+        <v>4220180000000</v>
+      </c>
+      <c r="AB23" s="2">
+        <v>4</v>
+      </c>
+      <c r="AC23" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD23" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="4:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D24" s="3">
+        <v>33</v>
+      </c>
+      <c r="F24" s="4">
+        <v>118518</v>
+      </c>
+      <c r="G24" s="4">
+        <v>1034</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="L24" s="1">
+        <v>20211231</v>
+      </c>
+      <c r="M24" s="2">
+        <v>1003114040</v>
+      </c>
+      <c r="N24" s="1">
+        <v>18676</v>
+      </c>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
+      <c r="X24" s="1"/>
+      <c r="Y24" s="1"/>
+      <c r="Z24" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="AA24" s="2">
+        <v>4220180000000</v>
+      </c>
+      <c r="AB24" s="2">
+        <v>4</v>
+      </c>
+      <c r="AC24" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD24" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="4:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D25" s="3">
+        <v>34</v>
+      </c>
+      <c r="F25" s="4">
+        <v>118518</v>
+      </c>
+      <c r="G25" s="4">
+        <v>1035</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="L25" s="1">
+        <v>20211006</v>
+      </c>
+      <c r="M25" s="2">
+        <v>1003114040</v>
+      </c>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
+      <c r="X25" s="1"/>
+      <c r="Y25" s="1"/>
+      <c r="Z25" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="AA25" s="2">
+        <v>4220180000000</v>
+      </c>
+      <c r="AB25" s="2">
+        <v>4</v>
+      </c>
+      <c r="AC25" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD25" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="4:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D26" s="3">
+        <v>35</v>
+      </c>
+      <c r="F26" s="4">
+        <v>118518</v>
+      </c>
+      <c r="G26" s="4">
+        <v>1150</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="L26" s="1">
+        <v>20220423</v>
+      </c>
+      <c r="M26" s="2">
+        <v>1003114040</v>
+      </c>
+      <c r="N26" s="1">
+        <v>2343</v>
+      </c>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1"/>
+      <c r="W26" s="1"/>
+      <c r="X26" s="1"/>
+      <c r="Y26" s="1"/>
+      <c r="Z26" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="AA26" s="2">
+        <v>4220180000000</v>
+      </c>
+      <c r="AB26" s="2">
+        <v>4</v>
+      </c>
+      <c r="AC26" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD26" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="4:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D27" s="3">
+        <v>36</v>
+      </c>
+      <c r="F27" s="4">
+        <v>118518</v>
+      </c>
+      <c r="G27" s="4">
+        <v>6001</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="L27" s="1">
+        <v>20200114</v>
+      </c>
+      <c r="M27" s="2">
+        <v>1003114040</v>
+      </c>
+      <c r="N27" s="1">
+        <v>17461</v>
+      </c>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+      <c r="W27" s="1"/>
+      <c r="X27" s="1"/>
+      <c r="Y27" s="1"/>
+      <c r="Z27" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="AA27" s="2">
+        <v>4220180000000</v>
+      </c>
+      <c r="AB27" s="2">
+        <v>4</v>
+      </c>
+      <c r="AC27" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD27" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="4:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D28" s="3">
+        <v>37</v>
+      </c>
+      <c r="F28" s="4">
+        <v>118518</v>
+      </c>
+      <c r="G28" s="4">
+        <v>6004</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="L28" s="1">
+        <v>20220728</v>
+      </c>
+      <c r="M28" s="2">
+        <v>1003114040</v>
+      </c>
+      <c r="N28" s="1">
+        <v>24890</v>
+      </c>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
+      <c r="X28" s="1"/>
+      <c r="Y28" s="1"/>
+      <c r="Z28" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="AA28" s="2">
+        <v>4220180000000</v>
+      </c>
+      <c r="AB28" s="2">
+        <v>4</v>
+      </c>
+      <c r="AC28" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD28" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="4:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D29" s="3">
+        <v>38</v>
+      </c>
+      <c r="F29" s="4">
+        <v>118518</v>
+      </c>
+      <c r="G29" s="4">
+        <v>6005</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="L29" s="1">
+        <v>20210903</v>
+      </c>
+      <c r="M29" s="2">
+        <v>1003114040</v>
+      </c>
+      <c r="N29" s="1">
+        <v>30162</v>
+      </c>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
+      <c r="W29" s="1"/>
+      <c r="X29" s="1"/>
+      <c r="Y29" s="1"/>
+      <c r="Z29" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="AA29" s="2">
+        <v>4220180000000</v>
+      </c>
+      <c r="AB29" s="2">
+        <v>4</v>
+      </c>
+      <c r="AC29" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD29" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="4:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D30" s="3">
+        <v>39</v>
+      </c>
+      <c r="F30" s="4">
+        <v>118518</v>
+      </c>
+      <c r="G30" s="4">
+        <v>6009</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="L30" s="1">
+        <v>20191125</v>
+      </c>
+      <c r="M30" s="2">
+        <v>1003114040</v>
+      </c>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
+      <c r="V30" s="1"/>
+      <c r="W30" s="1"/>
+      <c r="X30" s="1"/>
+      <c r="Y30" s="1"/>
+      <c r="Z30" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="AA30" s="2">
+        <v>4220180000000</v>
+      </c>
+      <c r="AB30" s="2">
+        <v>4</v>
+      </c>
+      <c r="AC30" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD30" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="4:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D31" s="3">
+        <v>40</v>
+      </c>
+      <c r="F31" s="4">
+        <v>118518</v>
+      </c>
+      <c r="G31" s="4">
+        <v>1003</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="L31" s="1">
+        <v>20210716</v>
+      </c>
+      <c r="M31" s="2">
+        <v>1003114040</v>
+      </c>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="V31" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="W31" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="X31" s="1"/>
+      <c r="Y31" s="1">
+        <v>20910304</v>
+      </c>
+      <c r="Z31" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="AA31" s="2">
+        <v>4220180000000</v>
+      </c>
+      <c r="AB31" s="2">
+        <v>4</v>
+      </c>
+      <c r="AC31" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD31" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="4:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D32" s="3">
+        <v>31</v>
+      </c>
+      <c r="F32" s="4">
+        <v>118500</v>
+      </c>
+      <c r="G32" s="4">
+        <v>6004</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="L32" s="1">
+        <v>20220527</v>
+      </c>
+      <c r="M32" s="2">
+        <v>1003114040</v>
+      </c>
+      <c r="N32" s="1">
+        <v>17139</v>
+      </c>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
+      <c r="U32" s="1"/>
+      <c r="V32" s="1"/>
+      <c r="W32" s="1"/>
+      <c r="X32" s="1"/>
+      <c r="Y32" s="1"/>
+      <c r="Z32" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="AA32" s="2">
+        <v>4220180000000</v>
+      </c>
+      <c r="AB32" s="2">
+        <v>4</v>
+      </c>
+      <c r="AC32" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD32" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="4:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D33" s="3">
+        <v>32</v>
+      </c>
+      <c r="F33" s="4">
+        <v>118518</v>
+      </c>
+      <c r="G33" s="4">
+        <v>1005</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="L33" s="1">
+        <v>20220628</v>
+      </c>
+      <c r="M33" s="2">
+        <v>1003114040</v>
+      </c>
+      <c r="N33" s="1">
+        <v>25418</v>
+      </c>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1"/>
+      <c r="U33" s="1"/>
+      <c r="V33" s="1"/>
+      <c r="W33" s="1"/>
+      <c r="X33" s="1"/>
+      <c r="Y33" s="1"/>
+      <c r="Z33" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="AA33" s="2">
+        <v>4220180000000</v>
+      </c>
+      <c r="AB33" s="2">
+        <v>4</v>
+      </c>
+      <c r="AC33" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD33" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="4:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D34" s="3">
+        <v>33</v>
+      </c>
+      <c r="F34" s="4">
+        <v>118518</v>
+      </c>
+      <c r="G34" s="4">
+        <v>1034</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="L34" s="1">
+        <v>20211231</v>
+      </c>
+      <c r="M34" s="2">
+        <v>1003114040</v>
+      </c>
+      <c r="N34" s="1">
+        <v>18676</v>
+      </c>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="1"/>
+      <c r="U34" s="1"/>
+      <c r="V34" s="1"/>
+      <c r="W34" s="1"/>
+      <c r="X34" s="1"/>
+      <c r="Y34" s="1"/>
+      <c r="Z34" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="AA34" s="2">
+        <v>4220180000000</v>
+      </c>
+      <c r="AB34" s="2">
+        <v>4</v>
+      </c>
+      <c r="AC34" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD34" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="4:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D35" s="3">
+        <v>34</v>
+      </c>
+      <c r="F35" s="4">
+        <v>118518</v>
+      </c>
+      <c r="G35" s="4">
+        <v>1035</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="L35" s="1">
+        <v>20211006</v>
+      </c>
+      <c r="M35" s="2">
+        <v>1003114040</v>
+      </c>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
+      <c r="T35" s="1"/>
+      <c r="U35" s="1"/>
+      <c r="V35" s="1"/>
+      <c r="W35" s="1"/>
+      <c r="X35" s="1"/>
+      <c r="Y35" s="1"/>
+      <c r="Z35" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="AA35" s="2">
+        <v>4220180000000</v>
+      </c>
+      <c r="AB35" s="2">
+        <v>4</v>
+      </c>
+      <c r="AC35" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD35" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="4:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D36" s="3">
+        <v>35</v>
+      </c>
+      <c r="F36" s="4">
+        <v>118518</v>
+      </c>
+      <c r="G36" s="4">
+        <v>1150</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="L36" s="1">
+        <v>20220423</v>
+      </c>
+      <c r="M36" s="2">
+        <v>1003114040</v>
+      </c>
+      <c r="N36" s="1">
+        <v>2343</v>
+      </c>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
+      <c r="V36" s="1"/>
+      <c r="W36" s="1"/>
+      <c r="X36" s="1"/>
+      <c r="Y36" s="1"/>
+      <c r="Z36" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="AA36" s="2">
+        <v>4220180000000</v>
+      </c>
+      <c r="AB36" s="2">
+        <v>4</v>
+      </c>
+      <c r="AC36" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD36" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="4:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D37" s="3">
+        <v>36</v>
+      </c>
+      <c r="F37" s="4">
+        <v>118518</v>
+      </c>
+      <c r="G37" s="4">
+        <v>6001</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="L37" s="1">
+        <v>20200114</v>
+      </c>
+      <c r="M37" s="2">
+        <v>1003114040</v>
+      </c>
+      <c r="N37" s="1">
+        <v>17461</v>
+      </c>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
+      <c r="S37" s="1"/>
+      <c r="T37" s="1"/>
+      <c r="U37" s="1"/>
+      <c r="V37" s="1"/>
+      <c r="W37" s="1"/>
+      <c r="X37" s="1"/>
+      <c r="Y37" s="1"/>
+      <c r="Z37" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="AA37" s="2">
+        <v>4220180000000</v>
+      </c>
+      <c r="AB37" s="2">
+        <v>4</v>
+      </c>
+      <c r="AC37" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD37" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="4:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D38" s="3">
+        <v>37</v>
+      </c>
+      <c r="F38" s="4">
+        <v>118518</v>
+      </c>
+      <c r="G38" s="4">
+        <v>6004</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="L38" s="1">
+        <v>20220728</v>
+      </c>
+      <c r="M38" s="2">
+        <v>1003114040</v>
+      </c>
+      <c r="N38" s="1">
+        <v>24890</v>
+      </c>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1"/>
+      <c r="S38" s="1"/>
+      <c r="T38" s="1"/>
+      <c r="U38" s="1"/>
+      <c r="V38" s="1"/>
+      <c r="W38" s="1"/>
+      <c r="X38" s="1"/>
+      <c r="Y38" s="1"/>
+      <c r="Z38" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="AA38" s="2">
+        <v>4220180000000</v>
+      </c>
+      <c r="AB38" s="2">
+        <v>4</v>
+      </c>
+      <c r="AC38" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD38" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="4:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D39" s="3">
+        <v>38</v>
+      </c>
+      <c r="F39" s="4">
+        <v>118518</v>
+      </c>
+      <c r="G39" s="4">
+        <v>6005</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="L39" s="1">
+        <v>20210903</v>
+      </c>
+      <c r="M39" s="2">
+        <v>1003114040</v>
+      </c>
+      <c r="N39" s="1">
+        <v>30162</v>
+      </c>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="1"/>
+      <c r="S39" s="1"/>
+      <c r="T39" s="1"/>
+      <c r="U39" s="1"/>
+      <c r="V39" s="1"/>
+      <c r="W39" s="1"/>
+      <c r="X39" s="1"/>
+      <c r="Y39" s="1"/>
+      <c r="Z39" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="AA39" s="2">
+        <v>4220180000000</v>
+      </c>
+      <c r="AB39" s="2">
+        <v>4</v>
+      </c>
+      <c r="AC39" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD39" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="4:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D40" s="3">
+        <v>39</v>
+      </c>
+      <c r="F40" s="4">
+        <v>118518</v>
+      </c>
+      <c r="G40" s="4">
+        <v>6009</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="L40" s="1">
+        <v>20191125</v>
+      </c>
+      <c r="M40" s="2">
+        <v>1003114040</v>
+      </c>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="1"/>
+      <c r="S40" s="1"/>
+      <c r="T40" s="1"/>
+      <c r="U40" s="1"/>
+      <c r="V40" s="1"/>
+      <c r="W40" s="1"/>
+      <c r="X40" s="1"/>
+      <c r="Y40" s="1"/>
+      <c r="Z40" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="AA40" s="2">
+        <v>4220180000000</v>
+      </c>
+      <c r="AB40" s="2">
+        <v>4</v>
+      </c>
+      <c r="AC40" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD40" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="4:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D41" s="3">
+        <v>40</v>
+      </c>
+      <c r="F41" s="4">
+        <v>118518</v>
+      </c>
+      <c r="G41" s="4">
+        <v>1003</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="L41" s="1">
+        <v>20210716</v>
+      </c>
+      <c r="M41" s="2">
+        <v>1003114040</v>
+      </c>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="1"/>
+      <c r="S41" s="1"/>
+      <c r="T41" s="1"/>
+      <c r="U41" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="V41" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="W41" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="X41" s="1"/>
+      <c r="Y41" s="1">
+        <v>20910304</v>
+      </c>
+      <c r="Z41" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="AA41" s="2">
+        <v>4220180000000</v>
+      </c>
+      <c r="AB41" s="2">
+        <v>4</v>
+      </c>
+      <c r="AC41" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD41" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="4:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D42" s="3">
+        <v>31</v>
+      </c>
+      <c r="F42" s="4">
+        <v>118500</v>
+      </c>
+      <c r="G42" s="4">
+        <v>6004</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="L42" s="1">
+        <v>20220527</v>
+      </c>
+      <c r="M42" s="2">
+        <v>1003114040</v>
+      </c>
+      <c r="N42" s="1">
+        <v>17139</v>
+      </c>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="1"/>
+      <c r="S42" s="1"/>
+      <c r="T42" s="1"/>
+      <c r="U42" s="1"/>
+      <c r="V42" s="1"/>
+      <c r="W42" s="1"/>
+      <c r="X42" s="1"/>
+      <c r="Y42" s="1"/>
+      <c r="Z42" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="AA42" s="2">
+        <v>4220180000000</v>
+      </c>
+      <c r="AB42" s="2">
+        <v>4</v>
+      </c>
+      <c r="AC42" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD42" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="43" spans="4:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D43" s="3">
+        <v>32</v>
+      </c>
+      <c r="F43" s="4">
+        <v>118518</v>
+      </c>
+      <c r="G43" s="4">
+        <v>1005</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="L43" s="1">
+        <v>20220628</v>
+      </c>
+      <c r="M43" s="2">
+        <v>1003114040</v>
+      </c>
+      <c r="N43" s="1">
+        <v>25418</v>
+      </c>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="1"/>
+      <c r="S43" s="1"/>
+      <c r="T43" s="1"/>
+      <c r="U43" s="1"/>
+      <c r="V43" s="1"/>
+      <c r="W43" s="1"/>
+      <c r="X43" s="1"/>
+      <c r="Y43" s="1"/>
+      <c r="Z43" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="AA43" s="2">
+        <v>4220180000000</v>
+      </c>
+      <c r="AB43" s="2">
+        <v>4</v>
+      </c>
+      <c r="AC43" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD43" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="44" spans="4:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D44" s="3">
+        <v>33</v>
+      </c>
+      <c r="F44" s="4">
+        <v>118518</v>
+      </c>
+      <c r="G44" s="4">
+        <v>1034</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="L44" s="1">
+        <v>20211231</v>
+      </c>
+      <c r="M44" s="2">
+        <v>1003114040</v>
+      </c>
+      <c r="N44" s="1">
+        <v>18676</v>
+      </c>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="1"/>
+      <c r="S44" s="1"/>
+      <c r="T44" s="1"/>
+      <c r="U44" s="1"/>
+      <c r="V44" s="1"/>
+      <c r="W44" s="1"/>
+      <c r="X44" s="1"/>
+      <c r="Y44" s="1"/>
+      <c r="Z44" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="AA44" s="2">
+        <v>4220180000000</v>
+      </c>
+      <c r="AB44" s="2">
+        <v>4</v>
+      </c>
+      <c r="AC44" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD44" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45" spans="4:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D45" s="3">
+        <v>34</v>
+      </c>
+      <c r="F45" s="4">
+        <v>118518</v>
+      </c>
+      <c r="G45" s="4">
+        <v>1035</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="L45" s="1">
+        <v>20211006</v>
+      </c>
+      <c r="M45" s="2">
+        <v>1003114040</v>
+      </c>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="1"/>
+      <c r="S45" s="1"/>
+      <c r="T45" s="1"/>
+      <c r="U45" s="1"/>
+      <c r="V45" s="1"/>
+      <c r="W45" s="1"/>
+      <c r="X45" s="1"/>
+      <c r="Y45" s="1"/>
+      <c r="Z45" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="AA45" s="2">
+        <v>4220180000000</v>
+      </c>
+      <c r="AB45" s="2">
+        <v>4</v>
+      </c>
+      <c r="AC45" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD45" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="46" spans="4:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D46" s="3">
+        <v>35</v>
+      </c>
+      <c r="F46" s="4">
+        <v>118518</v>
+      </c>
+      <c r="G46" s="4">
+        <v>1150</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="L46" s="1">
+        <v>20220423</v>
+      </c>
+      <c r="M46" s="2">
+        <v>1003114040</v>
+      </c>
+      <c r="N46" s="1">
+        <v>2343</v>
+      </c>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q46" s="1"/>
+      <c r="R46" s="1"/>
+      <c r="S46" s="1"/>
+      <c r="T46" s="1"/>
+      <c r="U46" s="1"/>
+      <c r="V46" s="1"/>
+      <c r="W46" s="1"/>
+      <c r="X46" s="1"/>
+      <c r="Y46" s="1"/>
+      <c r="Z46" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="AA46" s="2">
+        <v>4220180000000</v>
+      </c>
+      <c r="AB46" s="2">
+        <v>4</v>
+      </c>
+      <c r="AC46" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD46" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="47" spans="4:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D47" s="3">
+        <v>36</v>
+      </c>
+      <c r="F47" s="4">
+        <v>118518</v>
+      </c>
+      <c r="G47" s="4">
+        <v>6001</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="L47" s="1">
+        <v>20200114</v>
+      </c>
+      <c r="M47" s="2">
+        <v>1003114040</v>
+      </c>
+      <c r="N47" s="1">
+        <v>17461</v>
+      </c>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q47" s="1"/>
+      <c r="R47" s="1"/>
+      <c r="S47" s="1"/>
+      <c r="T47" s="1"/>
+      <c r="U47" s="1"/>
+      <c r="V47" s="1"/>
+      <c r="W47" s="1"/>
+      <c r="X47" s="1"/>
+      <c r="Y47" s="1"/>
+      <c r="Z47" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="AA47" s="2">
+        <v>4220180000000</v>
+      </c>
+      <c r="AB47" s="2">
+        <v>4</v>
+      </c>
+      <c r="AC47" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD47" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="48" spans="4:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D48" s="3">
+        <v>37</v>
+      </c>
+      <c r="F48" s="4">
+        <v>118518</v>
+      </c>
+      <c r="G48" s="4">
+        <v>6004</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="L48" s="1">
+        <v>20220728</v>
+      </c>
+      <c r="M48" s="2">
+        <v>1003114040</v>
+      </c>
+      <c r="N48" s="1">
+        <v>24890</v>
+      </c>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q48" s="1"/>
+      <c r="R48" s="1"/>
+      <c r="S48" s="1"/>
+      <c r="T48" s="1"/>
+      <c r="U48" s="1"/>
+      <c r="V48" s="1"/>
+      <c r="W48" s="1"/>
+      <c r="X48" s="1"/>
+      <c r="Y48" s="1"/>
+      <c r="Z48" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="AA48" s="2">
+        <v>4220180000000</v>
+      </c>
+      <c r="AB48" s="2">
+        <v>4</v>
+      </c>
+      <c r="AC48" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD48" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="49" spans="4:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D49" s="3">
+        <v>38</v>
+      </c>
+      <c r="F49" s="4">
+        <v>118518</v>
+      </c>
+      <c r="G49" s="4">
+        <v>6005</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="L49" s="1">
+        <v>20210903</v>
+      </c>
+      <c r="M49" s="2">
+        <v>1003114040</v>
+      </c>
+      <c r="N49" s="1">
+        <v>30162</v>
+      </c>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q49" s="1"/>
+      <c r="R49" s="1"/>
+      <c r="S49" s="1"/>
+      <c r="T49" s="1"/>
+      <c r="U49" s="1"/>
+      <c r="V49" s="1"/>
+      <c r="W49" s="1"/>
+      <c r="X49" s="1"/>
+      <c r="Y49" s="1"/>
+      <c r="Z49" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="AA49" s="2">
+        <v>4220180000000</v>
+      </c>
+      <c r="AB49" s="2">
+        <v>4</v>
+      </c>
+      <c r="AC49" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD49" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="50" spans="4:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D50" s="3">
+        <v>39</v>
+      </c>
+      <c r="F50" s="4">
+        <v>118518</v>
+      </c>
+      <c r="G50" s="4">
+        <v>6009</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="L50" s="1">
+        <v>20191125</v>
+      </c>
+      <c r="M50" s="2">
+        <v>1003114040</v>
+      </c>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+      <c r="P50" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q50" s="1"/>
+      <c r="R50" s="1"/>
+      <c r="S50" s="1"/>
+      <c r="T50" s="1"/>
+      <c r="U50" s="1"/>
+      <c r="V50" s="1"/>
+      <c r="W50" s="1"/>
+      <c r="X50" s="1"/>
+      <c r="Y50" s="1"/>
+      <c r="Z50" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="AA50" s="2">
+        <v>4220180000000</v>
+      </c>
+      <c r="AB50" s="2">
+        <v>4</v>
+      </c>
+      <c r="AC50" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD50" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="51" spans="4:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D51" s="3">
+        <v>40</v>
+      </c>
+      <c r="F51" s="4">
+        <v>118518</v>
+      </c>
+      <c r="G51" s="4">
+        <v>1003</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="L51" s="1">
+        <v>20210716</v>
+      </c>
+      <c r="M51" s="2">
+        <v>1003114040</v>
+      </c>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q51" s="1"/>
+      <c r="R51" s="1"/>
+      <c r="S51" s="1"/>
+      <c r="T51" s="1"/>
+      <c r="U51" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="V51" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="W51" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="X51" s="1"/>
+      <c r="Y51" s="1">
+        <v>20910304</v>
+      </c>
+      <c r="Z51" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="AA51" s="2">
+        <v>4220180000000</v>
+      </c>
+      <c r="AB51" s="2">
+        <v>4</v>
+      </c>
+      <c r="AC51" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD51" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="52" spans="4:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D52" s="3">
+        <v>31</v>
+      </c>
+      <c r="F52" s="4">
+        <v>118500</v>
+      </c>
+      <c r="G52" s="4">
+        <v>6004</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="L52" s="1">
+        <v>20220527</v>
+      </c>
+      <c r="M52" s="2">
+        <v>1003114040</v>
+      </c>
+      <c r="N52" s="1">
+        <v>17139</v>
+      </c>
+      <c r="O52" s="1"/>
+      <c r="P52" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q52" s="1"/>
+      <c r="R52" s="1"/>
+      <c r="S52" s="1"/>
+      <c r="T52" s="1"/>
+      <c r="U52" s="1"/>
+      <c r="V52" s="1"/>
+      <c r="W52" s="1"/>
+      <c r="X52" s="1"/>
+      <c r="Y52" s="1"/>
+      <c r="Z52" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="AA52" s="2">
+        <v>4220180000000</v>
+      </c>
+      <c r="AB52" s="2">
+        <v>4</v>
+      </c>
+      <c r="AC52" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD52" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="53" spans="4:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D53" s="3">
+        <v>32</v>
+      </c>
+      <c r="F53" s="4">
+        <v>118518</v>
+      </c>
+      <c r="G53" s="4">
+        <v>1005</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="L53" s="1">
+        <v>20220628</v>
+      </c>
+      <c r="M53" s="2">
+        <v>1003114040</v>
+      </c>
+      <c r="N53" s="1">
+        <v>25418</v>
+      </c>
+      <c r="O53" s="1"/>
+      <c r="P53" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q53" s="1"/>
+      <c r="R53" s="1"/>
+      <c r="S53" s="1"/>
+      <c r="T53" s="1"/>
+      <c r="U53" s="1"/>
+      <c r="V53" s="1"/>
+      <c r="W53" s="1"/>
+      <c r="X53" s="1"/>
+      <c r="Y53" s="1"/>
+      <c r="Z53" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="AA53" s="2">
+        <v>4220180000000</v>
+      </c>
+      <c r="AB53" s="2">
+        <v>4</v>
+      </c>
+      <c r="AC53" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD53" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="54" spans="4:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D54" s="3">
+        <v>33</v>
+      </c>
+      <c r="F54" s="4">
+        <v>118518</v>
+      </c>
+      <c r="G54" s="4">
+        <v>1034</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="L54" s="1">
+        <v>20211231</v>
+      </c>
+      <c r="M54" s="2">
+        <v>1003114040</v>
+      </c>
+      <c r="N54" s="1">
+        <v>18676</v>
+      </c>
+      <c r="O54" s="1"/>
+      <c r="P54" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q54" s="1"/>
+      <c r="R54" s="1"/>
+      <c r="S54" s="1"/>
+      <c r="T54" s="1"/>
+      <c r="U54" s="1"/>
+      <c r="V54" s="1"/>
+      <c r="W54" s="1"/>
+      <c r="X54" s="1"/>
+      <c r="Y54" s="1"/>
+      <c r="Z54" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="AA54" s="2">
+        <v>4220180000000</v>
+      </c>
+      <c r="AB54" s="2">
+        <v>4</v>
+      </c>
+      <c r="AC54" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD54" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="55" spans="4:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D55" s="3">
+        <v>34</v>
+      </c>
+      <c r="F55" s="4">
+        <v>118518</v>
+      </c>
+      <c r="G55" s="4">
+        <v>1035</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="L55" s="1">
+        <v>20211006</v>
+      </c>
+      <c r="M55" s="2">
+        <v>1003114040</v>
+      </c>
+      <c r="N55" s="1"/>
+      <c r="O55" s="1"/>
+      <c r="P55" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q55" s="1"/>
+      <c r="R55" s="1"/>
+      <c r="S55" s="1"/>
+      <c r="T55" s="1"/>
+      <c r="U55" s="1"/>
+      <c r="V55" s="1"/>
+      <c r="W55" s="1"/>
+      <c r="X55" s="1"/>
+      <c r="Y55" s="1"/>
+      <c r="Z55" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="AA55" s="2">
+        <v>4220180000000</v>
+      </c>
+      <c r="AB55" s="2">
+        <v>4</v>
+      </c>
+      <c r="AC55" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD55" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="56" spans="4:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D56" s="3">
+        <v>35</v>
+      </c>
+      <c r="F56" s="4">
+        <v>118518</v>
+      </c>
+      <c r="G56" s="4">
+        <v>1150</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="L56" s="1">
+        <v>20220423</v>
+      </c>
+      <c r="M56" s="2">
+        <v>1003114040</v>
+      </c>
+      <c r="N56" s="1">
+        <v>2343</v>
+      </c>
+      <c r="O56" s="1"/>
+      <c r="P56" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q56" s="1"/>
+      <c r="R56" s="1"/>
+      <c r="S56" s="1"/>
+      <c r="T56" s="1"/>
+      <c r="U56" s="1"/>
+      <c r="V56" s="1"/>
+      <c r="W56" s="1"/>
+      <c r="X56" s="1"/>
+      <c r="Y56" s="1"/>
+      <c r="Z56" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="AA56" s="2">
+        <v>4220180000000</v>
+      </c>
+      <c r="AB56" s="2">
+        <v>4</v>
+      </c>
+      <c r="AC56" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD56" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="57" spans="4:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D57" s="3">
+        <v>36</v>
+      </c>
+      <c r="F57" s="4">
+        <v>118518</v>
+      </c>
+      <c r="G57" s="4">
+        <v>6001</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="L57" s="1">
+        <v>20200114</v>
+      </c>
+      <c r="M57" s="2">
+        <v>1003114040</v>
+      </c>
+      <c r="N57" s="1">
+        <v>17461</v>
+      </c>
+      <c r="O57" s="1"/>
+      <c r="P57" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q57" s="1"/>
+      <c r="R57" s="1"/>
+      <c r="S57" s="1"/>
+      <c r="T57" s="1"/>
+      <c r="U57" s="1"/>
+      <c r="V57" s="1"/>
+      <c r="W57" s="1"/>
+      <c r="X57" s="1"/>
+      <c r="Y57" s="1"/>
+      <c r="Z57" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="AA57" s="2">
+        <v>4220180000000</v>
+      </c>
+      <c r="AB57" s="2">
+        <v>4</v>
+      </c>
+      <c r="AC57" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD57" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="58" spans="4:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D58" s="3">
+        <v>37</v>
+      </c>
+      <c r="F58" s="4">
+        <v>118518</v>
+      </c>
+      <c r="G58" s="4">
+        <v>6004</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="L58" s="1">
+        <v>20220728</v>
+      </c>
+      <c r="M58" s="2">
+        <v>1003114040</v>
+      </c>
+      <c r="N58" s="1">
+        <v>24890</v>
+      </c>
+      <c r="O58" s="1"/>
+      <c r="P58" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q58" s="1"/>
+      <c r="R58" s="1"/>
+      <c r="S58" s="1"/>
+      <c r="T58" s="1"/>
+      <c r="U58" s="1"/>
+      <c r="V58" s="1"/>
+      <c r="W58" s="1"/>
+      <c r="X58" s="1"/>
+      <c r="Y58" s="1"/>
+      <c r="Z58" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="AA58" s="2">
+        <v>4220180000000</v>
+      </c>
+      <c r="AB58" s="2">
+        <v>4</v>
+      </c>
+      <c r="AC58" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD58" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="59" spans="4:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D59" s="3">
+        <v>38</v>
+      </c>
+      <c r="F59" s="4">
+        <v>118518</v>
+      </c>
+      <c r="G59" s="4">
+        <v>6005</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="L59" s="1">
+        <v>20210903</v>
+      </c>
+      <c r="M59" s="2">
+        <v>1003114040</v>
+      </c>
+      <c r="N59" s="1">
+        <v>30162</v>
+      </c>
+      <c r="O59" s="1"/>
+      <c r="P59" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q59" s="1"/>
+      <c r="R59" s="1"/>
+      <c r="S59" s="1"/>
+      <c r="T59" s="1"/>
+      <c r="U59" s="1"/>
+      <c r="V59" s="1"/>
+      <c r="W59" s="1"/>
+      <c r="X59" s="1"/>
+      <c r="Y59" s="1"/>
+      <c r="Z59" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="AA59" s="2">
+        <v>4220180000000</v>
+      </c>
+      <c r="AB59" s="2">
+        <v>4</v>
+      </c>
+      <c r="AC59" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD59" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="60" spans="4:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D60" s="3">
+        <v>39</v>
+      </c>
+      <c r="F60" s="4">
+        <v>118518</v>
+      </c>
+      <c r="G60" s="4">
+        <v>6009</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="L60" s="1">
+        <v>20191125</v>
+      </c>
+      <c r="M60" s="2">
+        <v>1003114040</v>
+      </c>
+      <c r="N60" s="1"/>
+      <c r="O60" s="1"/>
+      <c r="P60" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q60" s="1"/>
+      <c r="R60" s="1"/>
+      <c r="S60" s="1"/>
+      <c r="T60" s="1"/>
+      <c r="U60" s="1"/>
+      <c r="V60" s="1"/>
+      <c r="W60" s="1"/>
+      <c r="X60" s="1"/>
+      <c r="Y60" s="1"/>
+      <c r="Z60" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="AA60" s="2">
+        <v>4220180000000</v>
+      </c>
+      <c r="AB60" s="2">
+        <v>4</v>
+      </c>
+      <c r="AC60" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD60" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="61" spans="4:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D61" s="3">
+        <v>40</v>
+      </c>
+      <c r="F61" s="4">
+        <v>118518</v>
+      </c>
+      <c r="G61" s="4">
+        <v>1003</v>
+      </c>
+      <c r="H61" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="L61" s="1">
+        <v>20210716</v>
+      </c>
+      <c r="M61" s="2">
+        <v>1003114040</v>
+      </c>
+      <c r="N61" s="1"/>
+      <c r="O61" s="1"/>
+      <c r="P61" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q61" s="1"/>
+      <c r="R61" s="1"/>
+      <c r="S61" s="1"/>
+      <c r="T61" s="1"/>
+      <c r="U61" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="V61" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="W61" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="X61" s="1"/>
+      <c r="Y61" s="1">
+        <v>20910304</v>
+      </c>
+      <c r="Z61" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="AA61" s="2">
+        <v>4220180000000</v>
+      </c>
+      <c r="AB61" s="2">
+        <v>4</v>
+      </c>
+      <c r="AC61" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD61" s="2" t="s">
         <v>37</v>
       </c>
     </row>
